--- a/backend/data/investors.xlsx
+++ b/backend/data/investors.xlsx
@@ -397,82 +397,3855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Investor name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Partner name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Partner email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Phone number</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Fund type</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Fund stage</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="I1" t="str">
+        <v>State (optional)</v>
+      </c>
+      <c r="J1" t="str">
+        <v>City (optional)</v>
+      </c>
+      <c r="K1" t="str">
+        <v>investor_name</v>
+      </c>
+      <c r="L1" t="str">
         <v>partner_name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="M1" t="str">
         <v>partner_email</v>
       </c>
-      <c r="C1" t="str">
-        <v>firm_name</v>
-      </c>
-      <c r="D1" t="str">
+      <c r="N1" t="str">
+        <v>phone_number</v>
+      </c>
+      <c r="O1" t="str">
+        <v>fund_type</v>
+      </c>
+      <c r="P1" t="str">
         <v>fund_stage</v>
       </c>
-      <c r="E1" t="str">
-        <v>fund_type</v>
+      <c r="Q1" t="str">
+        <v>country</v>
+      </c>
+      <c r="R1" t="str">
+        <v>state</v>
+      </c>
+      <c r="S1" t="str">
+        <v>city</v>
+      </c>
+      <c r="T1" t="str">
+        <v>ticket_size</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>John Smith</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2" t="str">
-        <v>john@test.com</v>
+        <v>Investor 3</v>
       </c>
       <c r="C2" t="str">
-        <v>ABC Ventures</v>
+        <v>Partner 3</v>
       </c>
       <c r="D2" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="E2" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H2" t="str">
+        <v>India</v>
+      </c>
+      <c r="I2" t="str">
+        <v>California</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Investor 4</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Partner 4</v>
+      </c>
+      <c r="D3" t="str">
+        <v>investor4@example.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>+919091013248</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Berlin</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Investor 5</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Partner 5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>investor5@example.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>+917687937169</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H4" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J4" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Investor 6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Partner 6</v>
+      </c>
+      <c r="D5" t="str">
+        <v>investor6@example.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>+917922030026</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J5" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Investor 7</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Partner 7</v>
+      </c>
+      <c r="D6" t="str">
+        <v>investor7@example.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>+917420830720</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H6" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I6" t="str">
+        <v>California</v>
+      </c>
+      <c r="J6" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Investor 8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Partner 8</v>
+      </c>
+      <c r="D7" t="str">
+        <v>investor8@example.com</v>
+      </c>
+      <c r="E7" t="str">
+        <v>+919754829773</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H7" t="str">
+        <v>India</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Investor 9</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Partner 9</v>
+      </c>
+      <c r="D8" t="str">
+        <v>investor9@example.com</v>
+      </c>
+      <c r="E8" t="str">
+        <v>+917917944002</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G8" t="str">
         <v>Series A</v>
       </c>
-      <c r="E2" t="str">
-        <v>VC</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Jane Doe</v>
-      </c>
-      <c r="B3" t="str">
-        <v>jane@test.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>XYZ Fund</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="H8" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Investor 10</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Partner 10</v>
+      </c>
+      <c r="D9" t="str">
+        <v>investor10@example.com</v>
+      </c>
+      <c r="E9" t="str">
+        <v>+919541494666</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H9" t="str">
+        <v>India</v>
+      </c>
+      <c r="I9" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Investor 11</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Partner 11</v>
+      </c>
+      <c r="D10" t="str">
+        <v>investor11@example.com</v>
+      </c>
+      <c r="E10" t="str">
+        <v>+919709142438</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H10" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J10" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Investor 13</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Partner 13</v>
+      </c>
+      <c r="D11" t="str">
+        <v>investor13@example.com</v>
+      </c>
+      <c r="E11" t="str">
+        <v>+919840498515</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H11" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I11" t="str">
+        <v>London</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Investor 14</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Partner 14</v>
+      </c>
+      <c r="D12" t="str">
+        <v>investor14@example.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v>+919668202693</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H12" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I12" t="str">
+        <v>California</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Investor 15</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Partner 15</v>
+      </c>
+      <c r="D13" t="str">
+        <v>investor15@example.com</v>
+      </c>
+      <c r="E13" t="str">
+        <v>+917931611617</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G13" t="str">
         <v>Seed</v>
       </c>
-      <c r="E3" t="str">
-        <v>Angel</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Mike Johnson</v>
-      </c>
-      <c r="B4" t="str">
-        <v>mike@test.com</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Tech Capital</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="H13" t="str">
+        <v>India</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Investor 16</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Partner 16</v>
+      </c>
+      <c r="D14" t="str">
+        <v>investor16@example.com</v>
+      </c>
+      <c r="E14" t="str">
+        <v>+917005717560</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H14" t="str">
+        <v>India</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Investor 17</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Partner 17</v>
+      </c>
+      <c r="D15" t="str">
+        <v>investor17@example.com</v>
+      </c>
+      <c r="E15" t="str">
+        <v>+919471731806</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J15" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Investor 18</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Partner 18</v>
+      </c>
+      <c r="D16" t="str">
+        <v>investor18@example.com</v>
+      </c>
+      <c r="E16" t="str">
+        <v>+917415441156</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H16" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J16" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Investor 19</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Partner 19</v>
+      </c>
+      <c r="D17" t="str">
+        <v>investor19@example.com</v>
+      </c>
+      <c r="E17" t="str">
+        <v>+919428216935</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Berlin</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Investor 20</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Partner 20</v>
+      </c>
+      <c r="D18" t="str">
+        <v>investor20@example.com</v>
+      </c>
+      <c r="E18" t="str">
+        <v>+918769140108</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Investor 21</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Partner 21</v>
+      </c>
+      <c r="D19" t="str">
+        <v>investor21@example.com</v>
+      </c>
+      <c r="E19" t="str">
+        <v>+917535520288</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H19" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J19" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Investor 22</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Partner 22</v>
+      </c>
+      <c r="D20" t="str">
+        <v>investor22@example.com</v>
+      </c>
+      <c r="E20" t="str">
+        <v>+919790702358</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G20" t="str">
         <v>Series B</v>
       </c>
-      <c r="E4" t="str">
+      <c r="H20" t="str">
+        <v>India</v>
+      </c>
+      <c r="I20" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J20" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Investor 23</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Partner 23</v>
+      </c>
+      <c r="D21" t="str">
+        <v>investor23@example.com</v>
+      </c>
+      <c r="E21" t="str">
+        <v>+918792543797</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J21" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Investor 24</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Partner 24</v>
+      </c>
+      <c r="D22" t="str">
+        <v>investor24@example.com</v>
+      </c>
+      <c r="E22" t="str">
+        <v>+919722499145</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G22" t="str">
         <v>Growth</v>
+      </c>
+      <c r="H22" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Investor 25</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Partner 25</v>
+      </c>
+      <c r="D23" t="str">
+        <v>investor25@example.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v>+917513411451</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J23" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Investor 26</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Partner 26</v>
+      </c>
+      <c r="D24" t="str">
+        <v>investor26@example.com</v>
+      </c>
+      <c r="E24" t="str">
+        <v>+918240603398</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Investor 27</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Partner 27</v>
+      </c>
+      <c r="D25" t="str">
+        <v>investor27@example.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v>+918169275812</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H25" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Investor 28</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Partner 28</v>
+      </c>
+      <c r="D26" t="str">
+        <v>investor28@example.com</v>
+      </c>
+      <c r="E26" t="str">
+        <v>+917995480118</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="J26" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Investor 29</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Partner 29</v>
+      </c>
+      <c r="D27" t="str">
+        <v>investor29@example.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v>+919044015128</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I27" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Investor 30</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Partner 30</v>
+      </c>
+      <c r="D28" t="str">
+        <v>investor30@example.com</v>
+      </c>
+      <c r="E28" t="str">
+        <v>+919927955922</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H28" t="str">
+        <v>India</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E29" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D30" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E30" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J30" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Partner 3</v>
+      </c>
+      <c r="D31" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="E31" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H31" t="str">
+        <v>India</v>
+      </c>
+      <c r="I31" t="str">
+        <v>California</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Investor 4</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Partner 4</v>
+      </c>
+      <c r="D32" t="str">
+        <v>investor4@example.com</v>
+      </c>
+      <c r="E32" t="str">
+        <v>+919091013248</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Berlin</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Investor 5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Partner 5</v>
+      </c>
+      <c r="D33" t="str">
+        <v>investor5@example.com</v>
+      </c>
+      <c r="E33" t="str">
+        <v>+917687937169</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H33" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J33" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Investor 6</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Partner 6</v>
+      </c>
+      <c r="D34" t="str">
+        <v>investor6@example.com</v>
+      </c>
+      <c r="E34" t="str">
+        <v>+917922030026</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J34" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Investor 7</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Partner 7</v>
+      </c>
+      <c r="D35" t="str">
+        <v>investor7@example.com</v>
+      </c>
+      <c r="E35" t="str">
+        <v>+917420830720</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H35" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I35" t="str">
+        <v>California</v>
+      </c>
+      <c r="J35" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Investor 8</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Partner 8</v>
+      </c>
+      <c r="D36" t="str">
+        <v>investor8@example.com</v>
+      </c>
+      <c r="E36" t="str">
+        <v>+919754829773</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H36" t="str">
+        <v>India</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Investor 9</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Partner 9</v>
+      </c>
+      <c r="D37" t="str">
+        <v>investor9@example.com</v>
+      </c>
+      <c r="E37" t="str">
+        <v>+917917944002</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Investor 10</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Partner 10</v>
+      </c>
+      <c r="D38" t="str">
+        <v>investor10@example.com</v>
+      </c>
+      <c r="E38" t="str">
+        <v>+919541494666</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>India</v>
+      </c>
+      <c r="I38" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Investor 11</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Partner 11</v>
+      </c>
+      <c r="D39" t="str">
+        <v>investor11@example.com</v>
+      </c>
+      <c r="E39" t="str">
+        <v>+919709142438</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H39" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J39" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Investor 12</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Partner 12</v>
+      </c>
+      <c r="D40" t="str">
+        <v>investor12@example.com</v>
+      </c>
+      <c r="E40" t="str">
+        <v>+919928494502</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I40" t="str">
+        <v>London</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Investor 13</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Partner 13</v>
+      </c>
+      <c r="D41" t="str">
+        <v>investor13@example.com</v>
+      </c>
+      <c r="E41" t="str">
+        <v>+919840498515</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H41" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I41" t="str">
+        <v>London</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Investor 14</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Partner 14</v>
+      </c>
+      <c r="D42" t="str">
+        <v>investor14@example.com</v>
+      </c>
+      <c r="E42" t="str">
+        <v>+919668202693</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H42" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I42" t="str">
+        <v>California</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>45</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Investor 15</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Partner 15</v>
+      </c>
+      <c r="D43" t="str">
+        <v>investor15@example.com</v>
+      </c>
+      <c r="E43" t="str">
+        <v>+917931611617</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H43" t="str">
+        <v>India</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Investor 16</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Partner 16</v>
+      </c>
+      <c r="D44" t="str">
+        <v>investor16@example.com</v>
+      </c>
+      <c r="E44" t="str">
+        <v>+917005717560</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H44" t="str">
+        <v>India</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Investor 17</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Partner 17</v>
+      </c>
+      <c r="D45" t="str">
+        <v>investor17@example.com</v>
+      </c>
+      <c r="E45" t="str">
+        <v>+919471731806</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H45" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J45" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Investor 18</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Partner 18</v>
+      </c>
+      <c r="D46" t="str">
+        <v>investor18@example.com</v>
+      </c>
+      <c r="E46" t="str">
+        <v>+917415441156</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H46" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J46" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Investor 19</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Partner 19</v>
+      </c>
+      <c r="D47" t="str">
+        <v>investor19@example.com</v>
+      </c>
+      <c r="E47" t="str">
+        <v>+919428216935</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Berlin</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Investor 20</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Partner 20</v>
+      </c>
+      <c r="D48" t="str">
+        <v>investor20@example.com</v>
+      </c>
+      <c r="E48" t="str">
+        <v>+918769140108</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>51</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Investor 21</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Partner 21</v>
+      </c>
+      <c r="D49" t="str">
+        <v>investor21@example.com</v>
+      </c>
+      <c r="E49" t="str">
+        <v>+917535520288</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H49" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J49" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Investor 22</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Partner 22</v>
+      </c>
+      <c r="D50" t="str">
+        <v>investor22@example.com</v>
+      </c>
+      <c r="E50" t="str">
+        <v>+919790702358</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H50" t="str">
+        <v>India</v>
+      </c>
+      <c r="I50" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J50" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>53</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Investor 23</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Partner 23</v>
+      </c>
+      <c r="D51" t="str">
+        <v>investor23@example.com</v>
+      </c>
+      <c r="E51" t="str">
+        <v>+918792543797</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J51" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Investor 24</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Partner 24</v>
+      </c>
+      <c r="D52" t="str">
+        <v>investor24@example.com</v>
+      </c>
+      <c r="E52" t="str">
+        <v>+919722499145</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H52" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Investor 25</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Partner 25</v>
+      </c>
+      <c r="D53" t="str">
+        <v>investor25@example.com</v>
+      </c>
+      <c r="E53" t="str">
+        <v>+917513411451</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J53" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Investor 26</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Partner 26</v>
+      </c>
+      <c r="D54" t="str">
+        <v>investor26@example.com</v>
+      </c>
+      <c r="E54" t="str">
+        <v>+918240603398</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Investor 27</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Partner 27</v>
+      </c>
+      <c r="D55" t="str">
+        <v>investor27@example.com</v>
+      </c>
+      <c r="E55" t="str">
+        <v>+918169275812</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H55" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Investor 28</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Partner 28</v>
+      </c>
+      <c r="D56" t="str">
+        <v>investor28@example.com</v>
+      </c>
+      <c r="E56" t="str">
+        <v>+917995480118</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H56" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="J56" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Investor 29</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Partner 29</v>
+      </c>
+      <c r="D57" t="str">
+        <v>investor29@example.com</v>
+      </c>
+      <c r="E57" t="str">
+        <v>+919044015128</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I57" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Investor 30</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Partner 30</v>
+      </c>
+      <c r="D58" t="str">
+        <v>investor30@example.com</v>
+      </c>
+      <c r="E58" t="str">
+        <v>+919927955922</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H58" t="str">
+        <v>India</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>61</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Priyanshu</v>
+      </c>
+      <c r="L59" t="str">
+        <v>abc</v>
+      </c>
+      <c r="M59" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N59" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O59" t="str">
+        <v>ozijvcsd</v>
+      </c>
+      <c r="P59" t="str">
+        <v>vkjxvnxc</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>India</v>
+      </c>
+      <c r="R59" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S59" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T59" t="str">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D60" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E60" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D61" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E61" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J61" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Partner 3</v>
+      </c>
+      <c r="D62" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="E62" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H62" t="str">
+        <v>India</v>
+      </c>
+      <c r="I62" t="str">
+        <v>California</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Investor 5</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Partner 5</v>
+      </c>
+      <c r="D63" t="str">
+        <v>investor5@example.com</v>
+      </c>
+      <c r="E63" t="str">
+        <v>+917687937169</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H63" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J63" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Investor 6</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Partner 6</v>
+      </c>
+      <c r="D64" t="str">
+        <v>investor6@example.com</v>
+      </c>
+      <c r="E64" t="str">
+        <v>+917922030026</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J64" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Investor 7</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Partner 7</v>
+      </c>
+      <c r="D65" t="str">
+        <v>investor7@example.com</v>
+      </c>
+      <c r="E65" t="str">
+        <v>+917420830720</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H65" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I65" t="str">
+        <v>California</v>
+      </c>
+      <c r="J65" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Investor 8</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Partner 8</v>
+      </c>
+      <c r="D66" t="str">
+        <v>investor8@example.com</v>
+      </c>
+      <c r="E66" t="str">
+        <v>+919754829773</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H66" t="str">
+        <v>India</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Investor 9</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Partner 9</v>
+      </c>
+      <c r="D67" t="str">
+        <v>investor9@example.com</v>
+      </c>
+      <c r="E67" t="str">
+        <v>+917917944002</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>71</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Investor 10</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Partner 10</v>
+      </c>
+      <c r="D68" t="str">
+        <v>investor10@example.com</v>
+      </c>
+      <c r="E68" t="str">
+        <v>+919541494666</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H68" t="str">
+        <v>India</v>
+      </c>
+      <c r="I68" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>72</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Investor 11</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Partner 11</v>
+      </c>
+      <c r="D69" t="str">
+        <v>investor11@example.com</v>
+      </c>
+      <c r="E69" t="str">
+        <v>+919709142438</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H69" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J69" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>73</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Investor 12</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Partner 12</v>
+      </c>
+      <c r="D70" t="str">
+        <v>investor12@example.com</v>
+      </c>
+      <c r="E70" t="str">
+        <v>+919928494502</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I70" t="str">
+        <v>London</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>74</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Investor 13</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Partner 13</v>
+      </c>
+      <c r="D71" t="str">
+        <v>investor13@example.com</v>
+      </c>
+      <c r="E71" t="str">
+        <v>+919840498515</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H71" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I71" t="str">
+        <v>London</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>75</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Investor 14</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Partner 14</v>
+      </c>
+      <c r="D72" t="str">
+        <v>investor14@example.com</v>
+      </c>
+      <c r="E72" t="str">
+        <v>+919668202693</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H72" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I72" t="str">
+        <v>California</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>76</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Investor 15</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Partner 15</v>
+      </c>
+      <c r="D73" t="str">
+        <v>investor15@example.com</v>
+      </c>
+      <c r="E73" t="str">
+        <v>+917931611617</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H73" t="str">
+        <v>India</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Investor 16</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Partner 16</v>
+      </c>
+      <c r="D74" t="str">
+        <v>investor16@example.com</v>
+      </c>
+      <c r="E74" t="str">
+        <v>+917005717560</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H74" t="str">
+        <v>India</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Investor 17</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Partner 17</v>
+      </c>
+      <c r="D75" t="str">
+        <v>investor17@example.com</v>
+      </c>
+      <c r="E75" t="str">
+        <v>+919471731806</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H75" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J75" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Investor 18</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Partner 18</v>
+      </c>
+      <c r="D76" t="str">
+        <v>investor18@example.com</v>
+      </c>
+      <c r="E76" t="str">
+        <v>+917415441156</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H76" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J76" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Investor 19</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Partner 19</v>
+      </c>
+      <c r="D77" t="str">
+        <v>investor19@example.com</v>
+      </c>
+      <c r="E77" t="str">
+        <v>+919428216935</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Berlin</v>
+      </c>
+      <c r="J77" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Investor 20</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Partner 20</v>
+      </c>
+      <c r="D78" t="str">
+        <v>investor20@example.com</v>
+      </c>
+      <c r="E78" t="str">
+        <v>+918769140108</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J78" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>82</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Investor 21</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Partner 21</v>
+      </c>
+      <c r="D79" t="str">
+        <v>investor21@example.com</v>
+      </c>
+      <c r="E79" t="str">
+        <v>+917535520288</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H79" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J79" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>83</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Investor 22</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Partner 22</v>
+      </c>
+      <c r="D80" t="str">
+        <v>investor22@example.com</v>
+      </c>
+      <c r="E80" t="str">
+        <v>+919790702358</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H80" t="str">
+        <v>India</v>
+      </c>
+      <c r="I80" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J80" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>84</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Investor 23</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Partner 23</v>
+      </c>
+      <c r="D81" t="str">
+        <v>investor23@example.com</v>
+      </c>
+      <c r="E81" t="str">
+        <v>+918792543797</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J81" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>85</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Investor 24</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Partner 24</v>
+      </c>
+      <c r="D82" t="str">
+        <v>investor24@example.com</v>
+      </c>
+      <c r="E82" t="str">
+        <v>+919722499145</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H82" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>86</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Investor 25</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Partner 25</v>
+      </c>
+      <c r="D83" t="str">
+        <v>investor25@example.com</v>
+      </c>
+      <c r="E83" t="str">
+        <v>+917513411451</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J83" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>87</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Investor 26</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Partner 26</v>
+      </c>
+      <c r="D84" t="str">
+        <v>investor26@example.com</v>
+      </c>
+      <c r="E84" t="str">
+        <v>+918240603398</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>88</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Investor 27</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Partner 27</v>
+      </c>
+      <c r="D85" t="str">
+        <v>investor27@example.com</v>
+      </c>
+      <c r="E85" t="str">
+        <v>+918169275812</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H85" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>89</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Investor 28</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Partner 28</v>
+      </c>
+      <c r="D86" t="str">
+        <v>investor28@example.com</v>
+      </c>
+      <c r="E86" t="str">
+        <v>+917995480118</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H86" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="J86" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>90</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Investor 29</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Partner 29</v>
+      </c>
+      <c r="D87" t="str">
+        <v>investor29@example.com</v>
+      </c>
+      <c r="E87" t="str">
+        <v>+919044015128</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I87" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>91</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Investor 30</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Partner 30</v>
+      </c>
+      <c r="D88" t="str">
+        <v>investor30@example.com</v>
+      </c>
+      <c r="E88" t="str">
+        <v>+919927955922</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H88" t="str">
+        <v>India</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>92</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Priyanshu</v>
+      </c>
+      <c r="L89" t="str">
+        <v>abc</v>
+      </c>
+      <c r="M89" t="str">
+        <v>priyanshuchouhan185@gmail.com</v>
+      </c>
+      <c r="N89" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O89" t="str">
+        <v>ozijvcsd</v>
+      </c>
+      <c r="P89" t="str">
+        <v>vkjxvnxc</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>India</v>
+      </c>
+      <c r="R89" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S89" t="str">
+        <v>Khargone</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>93</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D90" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E90" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>94</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D91" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E91" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J91" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>95</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Partner 3</v>
+      </c>
+      <c r="D92" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="E92" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H92" t="str">
+        <v>India</v>
+      </c>
+      <c r="I92" t="str">
+        <v>California</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>96</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Investor 4</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Partner 4</v>
+      </c>
+      <c r="D93" t="str">
+        <v>investor4@example.com</v>
+      </c>
+      <c r="E93" t="str">
+        <v>+919091013248</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Berlin</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>97</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Investor 5</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Partner 5</v>
+      </c>
+      <c r="D94" t="str">
+        <v>investor5@example.com</v>
+      </c>
+      <c r="E94" t="str">
+        <v>+917687937169</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H94" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J94" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>98</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Investor 6</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Partner 6</v>
+      </c>
+      <c r="D95" t="str">
+        <v>investor6@example.com</v>
+      </c>
+      <c r="E95" t="str">
+        <v>+917922030026</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J95" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>99</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Investor 7</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Partner 7</v>
+      </c>
+      <c r="D96" t="str">
+        <v>investor7@example.com</v>
+      </c>
+      <c r="E96" t="str">
+        <v>+917420830720</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H96" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I96" t="str">
+        <v>California</v>
+      </c>
+      <c r="J96" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>100</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Investor 8</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Partner 8</v>
+      </c>
+      <c r="D97" t="str">
+        <v>investor8@example.com</v>
+      </c>
+      <c r="E97" t="str">
+        <v>+919754829773</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H97" t="str">
+        <v>India</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>101</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Investor 9</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Partner 9</v>
+      </c>
+      <c r="D98" t="str">
+        <v>investor9@example.com</v>
+      </c>
+      <c r="E98" t="str">
+        <v>+917917944002</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>102</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Investor 10</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Partner 10</v>
+      </c>
+      <c r="D99" t="str">
+        <v>investor10@example.com</v>
+      </c>
+      <c r="E99" t="str">
+        <v>+919541494666</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H99" t="str">
+        <v>India</v>
+      </c>
+      <c r="I99" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>103</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Investor 11</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Partner 11</v>
+      </c>
+      <c r="D100" t="str">
+        <v>investor11@example.com</v>
+      </c>
+      <c r="E100" t="str">
+        <v>+919709142438</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H100" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J100" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>104</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Investor 12</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Partner 12</v>
+      </c>
+      <c r="D101" t="str">
+        <v>investor12@example.com</v>
+      </c>
+      <c r="E101" t="str">
+        <v>+919928494502</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I101" t="str">
+        <v>London</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>105</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Investor 13</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Partner 13</v>
+      </c>
+      <c r="D102" t="str">
+        <v>investor13@example.com</v>
+      </c>
+      <c r="E102" t="str">
+        <v>+919840498515</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H102" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I102" t="str">
+        <v>London</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>106</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Investor 14</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Partner 14</v>
+      </c>
+      <c r="D103" t="str">
+        <v>investor14@example.com</v>
+      </c>
+      <c r="E103" t="str">
+        <v>+919668202693</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H103" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I103" t="str">
+        <v>California</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>107</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Investor 15</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Partner 15</v>
+      </c>
+      <c r="D104" t="str">
+        <v>investor15@example.com</v>
+      </c>
+      <c r="E104" t="str">
+        <v>+917931611617</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H104" t="str">
+        <v>India</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>108</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Investor 16</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Partner 16</v>
+      </c>
+      <c r="D105" t="str">
+        <v>investor16@example.com</v>
+      </c>
+      <c r="E105" t="str">
+        <v>+917005717560</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H105" t="str">
+        <v>India</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>109</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Investor 17</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Partner 17</v>
+      </c>
+      <c r="D106" t="str">
+        <v>investor17@example.com</v>
+      </c>
+      <c r="E106" t="str">
+        <v>+919471731806</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H106" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J106" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>110</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Investor 18</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Partner 18</v>
+      </c>
+      <c r="D107" t="str">
+        <v>investor18@example.com</v>
+      </c>
+      <c r="E107" t="str">
+        <v>+917415441156</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H107" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J107" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>111</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Investor 19</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Partner 19</v>
+      </c>
+      <c r="D108" t="str">
+        <v>investor19@example.com</v>
+      </c>
+      <c r="E108" t="str">
+        <v>+919428216935</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H108" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Berlin</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>112</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Investor 20</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Partner 20</v>
+      </c>
+      <c r="D109" t="str">
+        <v>investor20@example.com</v>
+      </c>
+      <c r="E109" t="str">
+        <v>+918769140108</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H109" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>113</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Investor 21</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Partner 21</v>
+      </c>
+      <c r="D110" t="str">
+        <v>investor21@example.com</v>
+      </c>
+      <c r="E110" t="str">
+        <v>+917535520288</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H110" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J110" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>114</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Investor 22</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Partner 22</v>
+      </c>
+      <c r="D111" t="str">
+        <v>investor22@example.com</v>
+      </c>
+      <c r="E111" t="str">
+        <v>+919790702358</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H111" t="str">
+        <v>India</v>
+      </c>
+      <c r="I111" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J111" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Investor 23</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Partner 23</v>
+      </c>
+      <c r="D112" t="str">
+        <v>investor23@example.com</v>
+      </c>
+      <c r="E112" t="str">
+        <v>+918792543797</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H112" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I112" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J112" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>116</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Investor 24</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Partner 24</v>
+      </c>
+      <c r="D113" t="str">
+        <v>investor24@example.com</v>
+      </c>
+      <c r="E113" t="str">
+        <v>+919722499145</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H113" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J113" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Investor 25</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Partner 25</v>
+      </c>
+      <c r="D114" t="str">
+        <v>investor25@example.com</v>
+      </c>
+      <c r="E114" t="str">
+        <v>+917513411451</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H114" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J114" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>118</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Investor 26</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Partner 26</v>
+      </c>
+      <c r="D115" t="str">
+        <v>investor26@example.com</v>
+      </c>
+      <c r="E115" t="str">
+        <v>+918240603398</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H115" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J115" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>119</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Investor 27</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Partner 27</v>
+      </c>
+      <c r="D116" t="str">
+        <v>investor27@example.com</v>
+      </c>
+      <c r="E116" t="str">
+        <v>+918169275812</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H116" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Investor 28</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Partner 28</v>
+      </c>
+      <c r="D117" t="str">
+        <v>investor28@example.com</v>
+      </c>
+      <c r="E117" t="str">
+        <v>+917995480118</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H117" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="J117" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>121</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Investor 29</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Partner 29</v>
+      </c>
+      <c r="D118" t="str">
+        <v>investor29@example.com</v>
+      </c>
+      <c r="E118" t="str">
+        <v>+919044015128</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H118" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I118" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>122</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Investor 30</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Partner 30</v>
+      </c>
+      <c r="D119" t="str">
+        <v>investor30@example.com</v>
+      </c>
+      <c r="E119" t="str">
+        <v>+919927955922</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H119" t="str">
+        <v>India</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Munich</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/investors.xlsx
+++ b/backend/data/investors.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -495,66 +495,96 @@
       <c r="J2" t="str">
         <v>Munich</v>
       </c>
+      <c r="K2" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Partner 3</v>
+      </c>
+      <c r="M2" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="N2" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>India</v>
+      </c>
+      <c r="R2" t="str">
+        <v>California</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Kharogne</v>
+      </c>
+      <c r="T2" t="str">
+        <v>30k</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="str">
-        <v>Investor 4</v>
+        <v>Investor 5</v>
       </c>
       <c r="C3" t="str">
-        <v>Partner 4</v>
+        <v>Partner 5</v>
       </c>
       <c r="D3" t="str">
-        <v>investor4@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E3" t="str">
-        <v>+919091013248</v>
+        <v>+917687937169</v>
       </c>
       <c r="F3" t="str">
         <v>Venture Capital</v>
       </c>
       <c r="G3" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H3" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I3" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J3" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="str">
-        <v>Investor 5</v>
+        <v>Investor 6</v>
       </c>
       <c r="C4" t="str">
-        <v>Partner 5</v>
+        <v>Partner 6</v>
       </c>
       <c r="D4" t="str">
-        <v>investor5@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E4" t="str">
-        <v>+917687937169</v>
+        <v>+917922030026</v>
       </c>
       <c r="F4" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G4" t="str">
         <v>Seed</v>
       </c>
       <c r="H4" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I4" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J4" t="str">
         <v>London</v>
@@ -562,31 +592,31 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="str">
-        <v>Investor 6</v>
+        <v>Investor 7</v>
       </c>
       <c r="C5" t="str">
-        <v>Partner 6</v>
+        <v>Partner 7</v>
       </c>
       <c r="D5" t="str">
-        <v>investor6@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E5" t="str">
-        <v>+917922030026</v>
+        <v>+917420830720</v>
       </c>
       <c r="F5" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G5" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H5" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I5" t="str">
-        <v>Bavaria</v>
+        <v>California</v>
       </c>
       <c r="J5" t="str">
         <v>London</v>
@@ -594,179 +624,179 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="str">
-        <v>Investor 7</v>
+        <v>Investor 8</v>
       </c>
       <c r="C6" t="str">
-        <v>Partner 7</v>
+        <v>Partner 8</v>
       </c>
       <c r="D6" t="str">
-        <v>investor7@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E6" t="str">
-        <v>+917420830720</v>
+        <v>+919754829773</v>
       </c>
       <c r="F6" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G6" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H6" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I6" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J6" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="str">
-        <v>Investor 8</v>
+        <v>Investor 9</v>
       </c>
       <c r="C7" t="str">
-        <v>Partner 8</v>
+        <v>Partner 9</v>
       </c>
       <c r="D7" t="str">
-        <v>investor8@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E7" t="str">
-        <v>+919754829773</v>
+        <v>+917917944002</v>
       </c>
       <c r="F7" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G7" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H7" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I7" t="str">
-        <v>Bavaria</v>
+        <v>Karnataka</v>
       </c>
       <c r="J7" t="str">
-        <v>Montreal</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="str">
-        <v>Investor 9</v>
+        <v>Investor 10</v>
       </c>
       <c r="C8" t="str">
-        <v>Partner 9</v>
+        <v>Partner 10</v>
       </c>
       <c r="D8" t="str">
-        <v>investor9@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E8" t="str">
-        <v>+917917944002</v>
+        <v>+919541494666</v>
       </c>
       <c r="F8" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G8" t="str">
         <v>Series A</v>
       </c>
       <c r="H8" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I8" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J8" t="str">
-        <v>Toronto</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="str">
-        <v>Investor 10</v>
+        <v>Investor 11</v>
       </c>
       <c r="C9" t="str">
-        <v>Partner 10</v>
+        <v>Partner 11</v>
       </c>
       <c r="D9" t="str">
-        <v>investor10@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E9" t="str">
-        <v>+919541494666</v>
+        <v>+919709142438</v>
       </c>
       <c r="F9" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G9" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H9" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I9" t="str">
-        <v>New York</v>
+        <v>Karnataka</v>
       </c>
       <c r="J9" t="str">
-        <v>Bangalore</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="str">
-        <v>Investor 11</v>
+        <v>Investor 13</v>
       </c>
       <c r="C10" t="str">
-        <v>Partner 11</v>
+        <v>Partner 13</v>
       </c>
       <c r="D10" t="str">
-        <v>investor11@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E10" t="str">
-        <v>+919709142438</v>
+        <v>+919840498515</v>
       </c>
       <c r="F10" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G10" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H10" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I10" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J10" t="str">
-        <v>San Francisco</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="str">
-        <v>Investor 13</v>
+        <v>Investor 14</v>
       </c>
       <c r="C11" t="str">
-        <v>Partner 13</v>
+        <v>Partner 14</v>
       </c>
       <c r="D11" t="str">
-        <v>investor13@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E11" t="str">
-        <v>+919840498515</v>
+        <v>+919668202693</v>
       </c>
       <c r="F11" t="str">
         <v>Hedge Fund</v>
@@ -775,62 +805,62 @@
         <v>Mature</v>
       </c>
       <c r="H11" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I11" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J11" t="str">
-        <v>Montreal</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="str">
-        <v>Investor 14</v>
+        <v>Investor 15</v>
       </c>
       <c r="C12" t="str">
-        <v>Partner 14</v>
+        <v>Partner 15</v>
       </c>
       <c r="D12" t="str">
-        <v>investor14@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E12" t="str">
-        <v>+919668202693</v>
+        <v>+917931611617</v>
       </c>
       <c r="F12" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G12" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H12" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I12" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J12" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="str">
-        <v>Investor 15</v>
+        <v>Investor 16</v>
       </c>
       <c r="C13" t="str">
-        <v>Partner 15</v>
+        <v>Partner 16</v>
       </c>
       <c r="D13" t="str">
-        <v>investor15@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E13" t="str">
-        <v>+917931611617</v>
+        <v>+917005717560</v>
       </c>
       <c r="F13" t="str">
         <v>Private Equity</v>
@@ -842,123 +872,123 @@
         <v>India</v>
       </c>
       <c r="I13" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J13" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="str">
-        <v>Investor 16</v>
+        <v>Investor 17</v>
       </c>
       <c r="C14" t="str">
-        <v>Partner 16</v>
+        <v>Partner 17</v>
       </c>
       <c r="D14" t="str">
-        <v>investor16@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E14" t="str">
-        <v>+917005717560</v>
+        <v>+919471731806</v>
       </c>
       <c r="F14" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G14" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H14" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I14" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J14" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="str">
-        <v>Investor 17</v>
+        <v>Investor 18</v>
       </c>
       <c r="C15" t="str">
-        <v>Partner 17</v>
+        <v>Partner 18</v>
       </c>
       <c r="D15" t="str">
-        <v>investor17@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E15" t="str">
-        <v>+919471731806</v>
+        <v>+917415441156</v>
       </c>
       <c r="F15" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G15" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H15" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I15" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J15" t="str">
-        <v>New York</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="str">
-        <v>Investor 18</v>
+        <v>Investor 19</v>
       </c>
       <c r="C16" t="str">
-        <v>Partner 18</v>
+        <v>Partner 19</v>
       </c>
       <c r="D16" t="str">
-        <v>investor18@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E16" t="str">
-        <v>+917415441156</v>
+        <v>+919428216935</v>
       </c>
       <c r="F16" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G16" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H16" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I16" t="str">
-        <v>Karnataka</v>
+        <v>Berlin</v>
       </c>
       <c r="J16" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="str">
-        <v>Investor 19</v>
+        <v>Investor 20</v>
       </c>
       <c r="C17" t="str">
-        <v>Partner 19</v>
+        <v>Partner 20</v>
       </c>
       <c r="D17" t="str">
-        <v>investor19@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E17" t="str">
-        <v>+919428216935</v>
+        <v>+918769140108</v>
       </c>
       <c r="F17" t="str">
         <v>Private Equity</v>
@@ -970,7 +1000,7 @@
         <v>Germany</v>
       </c>
       <c r="I17" t="str">
-        <v>Berlin</v>
+        <v>Quebec</v>
       </c>
       <c r="J17" t="str">
         <v>Toronto</v>
@@ -978,182 +1008,182 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="str">
-        <v>Investor 20</v>
+        <v>Investor 21</v>
       </c>
       <c r="C18" t="str">
-        <v>Partner 20</v>
+        <v>Partner 21</v>
       </c>
       <c r="D18" t="str">
-        <v>investor20@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E18" t="str">
-        <v>+918769140108</v>
+        <v>+917535520288</v>
       </c>
       <c r="F18" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G18" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H18" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I18" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J18" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="str">
-        <v>Investor 21</v>
+        <v>Investor 22</v>
       </c>
       <c r="C19" t="str">
-        <v>Partner 21</v>
+        <v>Partner 22</v>
       </c>
       <c r="D19" t="str">
-        <v>investor21@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E19" t="str">
-        <v>+917535520288</v>
+        <v>+919790702358</v>
       </c>
       <c r="F19" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G19" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H19" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I19" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J19" t="str">
-        <v>San Francisco</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="str">
-        <v>Investor 22</v>
+        <v>Investor 23</v>
       </c>
       <c r="C20" t="str">
-        <v>Partner 22</v>
+        <v>Partner 23</v>
       </c>
       <c r="D20" t="str">
-        <v>investor22@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E20" t="str">
-        <v>+919790702358</v>
+        <v>+918792543797</v>
       </c>
       <c r="F20" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G20" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H20" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I20" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J20" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="str">
-        <v>Investor 23</v>
+        <v>Investor 24</v>
       </c>
       <c r="C21" t="str">
-        <v>Partner 23</v>
+        <v>Partner 24</v>
       </c>
       <c r="D21" t="str">
-        <v>investor23@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E21" t="str">
-        <v>+918792543797</v>
+        <v>+919722499145</v>
       </c>
       <c r="F21" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G21" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H21" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I21" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J21" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
-        <v>Investor 24</v>
+        <v>Investor 25</v>
       </c>
       <c r="C22" t="str">
-        <v>Partner 24</v>
+        <v>Partner 25</v>
       </c>
       <c r="D22" t="str">
-        <v>investor24@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E22" t="str">
-        <v>+919722499145</v>
+        <v>+917513411451</v>
       </c>
       <c r="F22" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G22" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H22" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I22" t="str">
-        <v>Quebec</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J22" t="str">
-        <v>Austin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="str">
-        <v>Investor 25</v>
+        <v>Investor 26</v>
       </c>
       <c r="C23" t="str">
-        <v>Partner 25</v>
+        <v>Partner 26</v>
       </c>
       <c r="D23" t="str">
-        <v>investor25@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E23" t="str">
-        <v>+917513411451</v>
+        <v>+918240603398</v>
       </c>
       <c r="F23" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G23" t="str">
         <v>Series A</v>
@@ -1162,91 +1192,91 @@
         <v>Canada</v>
       </c>
       <c r="I23" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="J23" t="str">
-        <v>London</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
-        <v>Investor 26</v>
+        <v>Investor 27</v>
       </c>
       <c r="C24" t="str">
-        <v>Partner 26</v>
+        <v>Partner 27</v>
       </c>
       <c r="D24" t="str">
-        <v>investor26@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E24" t="str">
-        <v>+918240603398</v>
+        <v>+918169275812</v>
       </c>
       <c r="F24" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G24" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H24" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I24" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J24" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>Investor 27</v>
+        <v>Investor 28</v>
       </c>
       <c r="C25" t="str">
-        <v>Partner 27</v>
+        <v>Partner 28</v>
       </c>
       <c r="D25" t="str">
-        <v>investor27@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E25" t="str">
-        <v>+918169275812</v>
+        <v>+917995480118</v>
       </c>
       <c r="F25" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G25" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H25" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I25" t="str">
-        <v>Bavaria</v>
+        <v>Ontario</v>
       </c>
       <c r="J25" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
-        <v>Investor 28</v>
+        <v>Investor 29</v>
       </c>
       <c r="C26" t="str">
-        <v>Partner 28</v>
+        <v>Partner 29</v>
       </c>
       <c r="D26" t="str">
-        <v>investor28@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E26" t="str">
-        <v>+917995480118</v>
+        <v>+919044015128</v>
       </c>
       <c r="F26" t="str">
         <v>Private Equity</v>
@@ -1255,234 +1285,234 @@
         <v>Series A</v>
       </c>
       <c r="H26" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I26" t="str">
-        <v>Ontario</v>
+        <v>New York</v>
       </c>
       <c r="J26" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
-        <v>Investor 29</v>
+        <v>Investor 30</v>
       </c>
       <c r="C27" t="str">
-        <v>Partner 29</v>
+        <v>Partner 30</v>
       </c>
       <c r="D27" t="str">
-        <v>investor29@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E27" t="str">
-        <v>+919044015128</v>
+        <v>+919927955922</v>
       </c>
       <c r="F27" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G27" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H27" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I27" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J27" t="str">
-        <v>Austin</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>Investor 30</v>
+        <v>Investor 1</v>
       </c>
       <c r="C28" t="str">
-        <v>Partner 30</v>
+        <v>Partner 1</v>
       </c>
       <c r="D28" t="str">
-        <v>investor30@example.com</v>
+        <v>investor1@example.com</v>
       </c>
       <c r="E28" t="str">
-        <v>+919927955922</v>
+        <v>+919047724970</v>
       </c>
       <c r="F28" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G28" t="str">
-        <v>Mature</v>
+        <v>Growth</v>
       </c>
       <c r="H28" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I28" t="str">
-        <v>Quebec</v>
+        <v>Texas</v>
       </c>
       <c r="J28" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v>Investor 1</v>
+        <v>Investor 2</v>
       </c>
       <c r="C29" t="str">
-        <v>Partner 1</v>
+        <v>Partner 2</v>
       </c>
       <c r="D29" t="str">
-        <v>investor1@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E29" t="str">
-        <v>+919047724970</v>
+        <v>+917620691166</v>
       </c>
       <c r="F29" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G29" t="str">
-        <v>Growth</v>
+        <v>Seed</v>
       </c>
       <c r="H29" t="str">
-        <v>Germany</v>
+        <v>Canada</v>
       </c>
       <c r="I29" t="str">
         <v>Texas</v>
       </c>
       <c r="J29" t="str">
-        <v>Toronto</v>
+        <v>London</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>Investor 2</v>
+        <v>Investor 3</v>
       </c>
       <c r="C30" t="str">
-        <v>Partner 2</v>
+        <v>Partner 3</v>
       </c>
       <c r="D30" t="str">
-        <v>investor2@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E30" t="str">
-        <v>+917620691166</v>
+        <v>+918322596794</v>
       </c>
       <c r="F30" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G30" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H30" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I30" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J30" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v>Investor 3</v>
+        <v>Investor 4</v>
       </c>
       <c r="C31" t="str">
-        <v>Partner 3</v>
+        <v>Partner 4</v>
       </c>
       <c r="D31" t="str">
-        <v>investor3@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E31" t="str">
-        <v>+918322596794</v>
+        <v>+919091013248</v>
       </c>
       <c r="F31" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G31" t="str">
         <v>Series B</v>
       </c>
       <c r="H31" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I31" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J31" t="str">
-        <v>Munich</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v>Investor 4</v>
+        <v>Investor 5</v>
       </c>
       <c r="C32" t="str">
-        <v>Partner 4</v>
+        <v>Partner 5</v>
       </c>
       <c r="D32" t="str">
-        <v>investor4@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E32" t="str">
-        <v>+919091013248</v>
+        <v>+917687937169</v>
       </c>
       <c r="F32" t="str">
         <v>Venture Capital</v>
       </c>
       <c r="G32" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H32" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I32" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J32" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>Investor 5</v>
+        <v>Investor 6</v>
       </c>
       <c r="C33" t="str">
-        <v>Partner 5</v>
+        <v>Partner 6</v>
       </c>
       <c r="D33" t="str">
-        <v>investor5@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E33" t="str">
-        <v>+917687937169</v>
+        <v>+917922030026</v>
       </c>
       <c r="F33" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G33" t="str">
         <v>Seed</v>
       </c>
       <c r="H33" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I33" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J33" t="str">
         <v>London</v>
@@ -1490,31 +1520,31 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>Investor 6</v>
+        <v>Investor 7</v>
       </c>
       <c r="C34" t="str">
-        <v>Partner 6</v>
+        <v>Partner 7</v>
       </c>
       <c r="D34" t="str">
-        <v>investor6@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E34" t="str">
-        <v>+917922030026</v>
+        <v>+917420830720</v>
       </c>
       <c r="F34" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G34" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H34" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I34" t="str">
-        <v>Bavaria</v>
+        <v>California</v>
       </c>
       <c r="J34" t="str">
         <v>London</v>
@@ -1522,211 +1552,211 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>Investor 7</v>
+        <v>Investor 8</v>
       </c>
       <c r="C35" t="str">
-        <v>Partner 7</v>
+        <v>Partner 8</v>
       </c>
       <c r="D35" t="str">
-        <v>investor7@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E35" t="str">
-        <v>+917420830720</v>
+        <v>+919754829773</v>
       </c>
       <c r="F35" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G35" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H35" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I35" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J35" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>Investor 8</v>
+        <v>Investor 9</v>
       </c>
       <c r="C36" t="str">
-        <v>Partner 8</v>
+        <v>Partner 9</v>
       </c>
       <c r="D36" t="str">
-        <v>investor8@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E36" t="str">
-        <v>+919754829773</v>
+        <v>+917917944002</v>
       </c>
       <c r="F36" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G36" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H36" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I36" t="str">
-        <v>Bavaria</v>
+        <v>Karnataka</v>
       </c>
       <c r="J36" t="str">
-        <v>Montreal</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="str">
-        <v>Investor 9</v>
+        <v>Investor 10</v>
       </c>
       <c r="C37" t="str">
-        <v>Partner 9</v>
+        <v>Partner 10</v>
       </c>
       <c r="D37" t="str">
-        <v>investor9@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E37" t="str">
-        <v>+917917944002</v>
+        <v>+919541494666</v>
       </c>
       <c r="F37" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G37" t="str">
         <v>Series A</v>
       </c>
       <c r="H37" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I37" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J37" t="str">
-        <v>Toronto</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="str">
-        <v>Investor 10</v>
+        <v>Investor 11</v>
       </c>
       <c r="C38" t="str">
-        <v>Partner 10</v>
+        <v>Partner 11</v>
       </c>
       <c r="D38" t="str">
-        <v>investor10@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E38" t="str">
-        <v>+919541494666</v>
+        <v>+919709142438</v>
       </c>
       <c r="F38" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G38" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H38" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I38" t="str">
-        <v>New York</v>
+        <v>Karnataka</v>
       </c>
       <c r="J38" t="str">
-        <v>Bangalore</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="str">
-        <v>Investor 11</v>
+        <v>Investor 12</v>
       </c>
       <c r="C39" t="str">
-        <v>Partner 11</v>
+        <v>Partner 12</v>
       </c>
       <c r="D39" t="str">
-        <v>investor11@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E39" t="str">
-        <v>+919709142438</v>
+        <v>+919928494502</v>
       </c>
       <c r="F39" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G39" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H39" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I39" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J39" t="str">
-        <v>San Francisco</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="str">
-        <v>Investor 12</v>
+        <v>Investor 13</v>
       </c>
       <c r="C40" t="str">
-        <v>Partner 12</v>
+        <v>Partner 13</v>
       </c>
       <c r="D40" t="str">
-        <v>investor12@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E40" t="str">
-        <v>+919928494502</v>
+        <v>+919840498515</v>
       </c>
       <c r="F40" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G40" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H40" t="str">
-        <v>Germany</v>
+        <v>UK</v>
       </c>
       <c r="I40" t="str">
         <v>London</v>
       </c>
       <c r="J40" t="str">
-        <v>Munich</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="str">
-        <v>Investor 13</v>
+        <v>Investor 14</v>
       </c>
       <c r="C41" t="str">
-        <v>Partner 13</v>
+        <v>Partner 14</v>
       </c>
       <c r="D41" t="str">
-        <v>investor13@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E41" t="str">
-        <v>+919840498515</v>
+        <v>+919668202693</v>
       </c>
       <c r="F41" t="str">
         <v>Hedge Fund</v>
@@ -1735,62 +1765,62 @@
         <v>Mature</v>
       </c>
       <c r="H41" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I41" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J41" t="str">
-        <v>Montreal</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="str">
-        <v>Investor 14</v>
+        <v>Investor 15</v>
       </c>
       <c r="C42" t="str">
-        <v>Partner 14</v>
+        <v>Partner 15</v>
       </c>
       <c r="D42" t="str">
-        <v>investor14@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E42" t="str">
-        <v>+919668202693</v>
+        <v>+917931611617</v>
       </c>
       <c r="F42" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G42" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H42" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I42" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J42" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="str">
-        <v>Investor 15</v>
+        <v>Investor 16</v>
       </c>
       <c r="C43" t="str">
-        <v>Partner 15</v>
+        <v>Partner 16</v>
       </c>
       <c r="D43" t="str">
-        <v>investor15@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E43" t="str">
-        <v>+917931611617</v>
+        <v>+917005717560</v>
       </c>
       <c r="F43" t="str">
         <v>Private Equity</v>
@@ -1802,123 +1832,123 @@
         <v>India</v>
       </c>
       <c r="I43" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J43" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="str">
-        <v>Investor 16</v>
+        <v>Investor 17</v>
       </c>
       <c r="C44" t="str">
-        <v>Partner 16</v>
+        <v>Partner 17</v>
       </c>
       <c r="D44" t="str">
-        <v>investor16@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E44" t="str">
-        <v>+917005717560</v>
+        <v>+919471731806</v>
       </c>
       <c r="F44" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G44" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H44" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I44" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J44" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="str">
-        <v>Investor 17</v>
+        <v>Investor 18</v>
       </c>
       <c r="C45" t="str">
-        <v>Partner 17</v>
+        <v>Partner 18</v>
       </c>
       <c r="D45" t="str">
-        <v>investor17@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E45" t="str">
-        <v>+919471731806</v>
+        <v>+917415441156</v>
       </c>
       <c r="F45" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G45" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H45" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I45" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J45" t="str">
-        <v>New York</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="str">
-        <v>Investor 18</v>
+        <v>Investor 19</v>
       </c>
       <c r="C46" t="str">
-        <v>Partner 18</v>
+        <v>Partner 19</v>
       </c>
       <c r="D46" t="str">
-        <v>investor18@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E46" t="str">
-        <v>+917415441156</v>
+        <v>+919428216935</v>
       </c>
       <c r="F46" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G46" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H46" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I46" t="str">
-        <v>Karnataka</v>
+        <v>Berlin</v>
       </c>
       <c r="J46" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="str">
-        <v>Investor 19</v>
+        <v>Investor 20</v>
       </c>
       <c r="C47" t="str">
-        <v>Partner 19</v>
+        <v>Partner 20</v>
       </c>
       <c r="D47" t="str">
-        <v>investor19@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E47" t="str">
-        <v>+919428216935</v>
+        <v>+918769140108</v>
       </c>
       <c r="F47" t="str">
         <v>Private Equity</v>
@@ -1930,7 +1960,7 @@
         <v>Germany</v>
       </c>
       <c r="I47" t="str">
-        <v>Berlin</v>
+        <v>Quebec</v>
       </c>
       <c r="J47" t="str">
         <v>Toronto</v>
@@ -1938,182 +1968,182 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="str">
-        <v>Investor 20</v>
+        <v>Investor 21</v>
       </c>
       <c r="C48" t="str">
-        <v>Partner 20</v>
+        <v>Partner 21</v>
       </c>
       <c r="D48" t="str">
-        <v>investor20@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E48" t="str">
-        <v>+918769140108</v>
+        <v>+917535520288</v>
       </c>
       <c r="F48" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G48" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H48" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I48" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J48" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="str">
-        <v>Investor 21</v>
+        <v>Investor 22</v>
       </c>
       <c r="C49" t="str">
-        <v>Partner 21</v>
+        <v>Partner 22</v>
       </c>
       <c r="D49" t="str">
-        <v>investor21@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E49" t="str">
-        <v>+917535520288</v>
+        <v>+919790702358</v>
       </c>
       <c r="F49" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G49" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H49" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I49" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J49" t="str">
-        <v>San Francisco</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="str">
-        <v>Investor 22</v>
+        <v>Investor 23</v>
       </c>
       <c r="C50" t="str">
-        <v>Partner 22</v>
+        <v>Partner 23</v>
       </c>
       <c r="D50" t="str">
-        <v>investor22@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E50" t="str">
-        <v>+919790702358</v>
+        <v>+918792543797</v>
       </c>
       <c r="F50" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G50" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H50" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I50" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J50" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="str">
-        <v>Investor 23</v>
+        <v>Investor 24</v>
       </c>
       <c r="C51" t="str">
-        <v>Partner 23</v>
+        <v>Partner 24</v>
       </c>
       <c r="D51" t="str">
-        <v>investor23@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E51" t="str">
-        <v>+918792543797</v>
+        <v>+919722499145</v>
       </c>
       <c r="F51" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G51" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H51" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I51" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J51" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="str">
-        <v>Investor 24</v>
+        <v>Investor 25</v>
       </c>
       <c r="C52" t="str">
-        <v>Partner 24</v>
+        <v>Partner 25</v>
       </c>
       <c r="D52" t="str">
-        <v>investor24@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E52" t="str">
-        <v>+919722499145</v>
+        <v>+917513411451</v>
       </c>
       <c r="F52" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G52" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H52" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I52" t="str">
-        <v>Quebec</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J52" t="str">
-        <v>Austin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="str">
-        <v>Investor 25</v>
+        <v>Investor 26</v>
       </c>
       <c r="C53" t="str">
-        <v>Partner 25</v>
+        <v>Partner 26</v>
       </c>
       <c r="D53" t="str">
-        <v>investor25@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E53" t="str">
-        <v>+917513411451</v>
+        <v>+918240603398</v>
       </c>
       <c r="F53" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G53" t="str">
         <v>Series A</v>
@@ -2122,91 +2152,91 @@
         <v>Canada</v>
       </c>
       <c r="I53" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="J53" t="str">
-        <v>London</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="str">
-        <v>Investor 26</v>
+        <v>Investor 27</v>
       </c>
       <c r="C54" t="str">
-        <v>Partner 26</v>
+        <v>Partner 27</v>
       </c>
       <c r="D54" t="str">
-        <v>investor26@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E54" t="str">
-        <v>+918240603398</v>
+        <v>+918169275812</v>
       </c>
       <c r="F54" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G54" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H54" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I54" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J54" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="str">
-        <v>Investor 27</v>
+        <v>Investor 28</v>
       </c>
       <c r="C55" t="str">
-        <v>Partner 27</v>
+        <v>Partner 28</v>
       </c>
       <c r="D55" t="str">
-        <v>investor27@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E55" t="str">
-        <v>+918169275812</v>
+        <v>+917995480118</v>
       </c>
       <c r="F55" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G55" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H55" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I55" t="str">
-        <v>Bavaria</v>
+        <v>Ontario</v>
       </c>
       <c r="J55" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="str">
-        <v>Investor 28</v>
+        <v>Investor 29</v>
       </c>
       <c r="C56" t="str">
-        <v>Partner 28</v>
+        <v>Partner 29</v>
       </c>
       <c r="D56" t="str">
-        <v>investor28@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E56" t="str">
-        <v>+917995480118</v>
+        <v>+919044015128</v>
       </c>
       <c r="F56" t="str">
         <v>Private Equity</v>
@@ -2215,237 +2245,237 @@
         <v>Series A</v>
       </c>
       <c r="H56" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I56" t="str">
-        <v>Ontario</v>
+        <v>New York</v>
       </c>
       <c r="J56" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="str">
-        <v>Investor 29</v>
+        <v>Investor 30</v>
       </c>
       <c r="C57" t="str">
-        <v>Partner 29</v>
+        <v>Partner 30</v>
       </c>
       <c r="D57" t="str">
-        <v>investor29@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E57" t="str">
-        <v>+919044015128</v>
+        <v>+919927955922</v>
       </c>
       <c r="F57" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G57" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H57" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I57" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J57" t="str">
-        <v>Austin</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>60</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Investor 30</v>
-      </c>
-      <c r="C58" t="str">
-        <v>Partner 30</v>
-      </c>
-      <c r="D58" t="str">
-        <v>investor30@example.com</v>
-      </c>
-      <c r="E58" t="str">
-        <v>+919927955922</v>
-      </c>
-      <c r="F58" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G58" t="str">
-        <v>Mature</v>
-      </c>
-      <c r="H58" t="str">
+        <v>61</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Priyanshu</v>
+      </c>
+      <c r="L58" t="str">
+        <v>abc</v>
+      </c>
+      <c r="M58" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N58" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O58" t="str">
+        <v>ozijvcsd</v>
+      </c>
+      <c r="P58" t="str">
+        <v>vkjxvnxc</v>
+      </c>
+      <c r="Q58" t="str">
         <v>India</v>
       </c>
-      <c r="I58" t="str">
-        <v>Quebec</v>
-      </c>
-      <c r="J58" t="str">
-        <v>Munich</v>
+      <c r="R58" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S58" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T58" t="str">
+        <v>27L</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>61</v>
-      </c>
-      <c r="K59" t="str">
-        <v>Priyanshu</v>
-      </c>
-      <c r="L59" t="str">
-        <v>abc</v>
-      </c>
-      <c r="M59" t="str">
-        <v>priyanshubanna2525@gmail.com</v>
-      </c>
-      <c r="N59" t="str">
-        <v>8103700703</v>
-      </c>
-      <c r="O59" t="str">
-        <v>ozijvcsd</v>
-      </c>
-      <c r="P59" t="str">
-        <v>vkjxvnxc</v>
-      </c>
-      <c r="Q59" t="str">
-        <v>India</v>
-      </c>
-      <c r="R59" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S59" t="str">
-        <v>Khargone Nagar</v>
-      </c>
-      <c r="T59" t="str">
-        <v>2324</v>
+        <v>62</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D59" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E59" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Toronto</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="str">
-        <v>Investor 1</v>
+        <v>Investor 2</v>
       </c>
       <c r="C60" t="str">
-        <v>Partner 1</v>
+        <v>Partner 2</v>
       </c>
       <c r="D60" t="str">
-        <v>investor1@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E60" t="str">
-        <v>+919047724970</v>
+        <v>+917620691166</v>
       </c>
       <c r="F60" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G60" t="str">
-        <v>Growth</v>
+        <v>Seed</v>
       </c>
       <c r="H60" t="str">
-        <v>Germany</v>
+        <v>Canada</v>
       </c>
       <c r="I60" t="str">
         <v>Texas</v>
       </c>
       <c r="J60" t="str">
-        <v>Toronto</v>
+        <v>London</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="str">
-        <v>Investor 2</v>
+        <v>Investor 3</v>
       </c>
       <c r="C61" t="str">
-        <v>Partner 2</v>
+        <v>Partner 3</v>
       </c>
       <c r="D61" t="str">
-        <v>investor2@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E61" t="str">
-        <v>+917620691166</v>
+        <v>+918322596794</v>
       </c>
       <c r="F61" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G61" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H61" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I61" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J61" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62" t="str">
-        <v>Investor 3</v>
+        <v>Investor 5</v>
       </c>
       <c r="C62" t="str">
-        <v>Partner 3</v>
+        <v>Partner 5</v>
       </c>
       <c r="D62" t="str">
-        <v>investor3@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E62" t="str">
-        <v>+918322596794</v>
+        <v>+917687937169</v>
       </c>
       <c r="F62" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G62" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H62" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I62" t="str">
-        <v>California</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J62" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="str">
-        <v>Investor 5</v>
+        <v>Investor 6</v>
       </c>
       <c r="C63" t="str">
-        <v>Partner 5</v>
+        <v>Partner 6</v>
       </c>
       <c r="D63" t="str">
-        <v>investor5@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E63" t="str">
-        <v>+917687937169</v>
+        <v>+917922030026</v>
       </c>
       <c r="F63" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G63" t="str">
         <v>Seed</v>
       </c>
       <c r="H63" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I63" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J63" t="str">
         <v>London</v>
@@ -2453,31 +2483,31 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="str">
-        <v>Investor 6</v>
+        <v>Investor 7</v>
       </c>
       <c r="C64" t="str">
-        <v>Partner 6</v>
+        <v>Partner 7</v>
       </c>
       <c r="D64" t="str">
-        <v>investor6@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E64" t="str">
-        <v>+917922030026</v>
+        <v>+917420830720</v>
       </c>
       <c r="F64" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G64" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H64" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I64" t="str">
-        <v>Bavaria</v>
+        <v>California</v>
       </c>
       <c r="J64" t="str">
         <v>London</v>
@@ -2485,211 +2515,211 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="str">
-        <v>Investor 7</v>
+        <v>Investor 8</v>
       </c>
       <c r="C65" t="str">
-        <v>Partner 7</v>
+        <v>Partner 8</v>
       </c>
       <c r="D65" t="str">
-        <v>investor7@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E65" t="str">
-        <v>+917420830720</v>
+        <v>+919754829773</v>
       </c>
       <c r="F65" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G65" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H65" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I65" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J65" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="str">
-        <v>Investor 8</v>
+        <v>Investor 9</v>
       </c>
       <c r="C66" t="str">
-        <v>Partner 8</v>
+        <v>Partner 9</v>
       </c>
       <c r="D66" t="str">
-        <v>investor8@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E66" t="str">
-        <v>+919754829773</v>
+        <v>+917917944002</v>
       </c>
       <c r="F66" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G66" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H66" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I66" t="str">
-        <v>Bavaria</v>
+        <v>Karnataka</v>
       </c>
       <c r="J66" t="str">
-        <v>Montreal</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="str">
-        <v>Investor 9</v>
+        <v>Investor 10</v>
       </c>
       <c r="C67" t="str">
-        <v>Partner 9</v>
+        <v>Partner 10</v>
       </c>
       <c r="D67" t="str">
-        <v>investor9@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E67" t="str">
-        <v>+917917944002</v>
+        <v>+919541494666</v>
       </c>
       <c r="F67" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G67" t="str">
         <v>Series A</v>
       </c>
       <c r="H67" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I67" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J67" t="str">
-        <v>Toronto</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="str">
-        <v>Investor 10</v>
+        <v>Investor 11</v>
       </c>
       <c r="C68" t="str">
-        <v>Partner 10</v>
+        <v>Partner 11</v>
       </c>
       <c r="D68" t="str">
-        <v>investor10@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E68" t="str">
-        <v>+919541494666</v>
+        <v>+919709142438</v>
       </c>
       <c r="F68" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G68" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H68" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I68" t="str">
-        <v>New York</v>
+        <v>Karnataka</v>
       </c>
       <c r="J68" t="str">
-        <v>Bangalore</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="str">
-        <v>Investor 11</v>
+        <v>Investor 12</v>
       </c>
       <c r="C69" t="str">
-        <v>Partner 11</v>
+        <v>Partner 12</v>
       </c>
       <c r="D69" t="str">
-        <v>investor11@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E69" t="str">
-        <v>+919709142438</v>
+        <v>+919928494502</v>
       </c>
       <c r="F69" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G69" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H69" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I69" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J69" t="str">
-        <v>San Francisco</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="str">
-        <v>Investor 12</v>
+        <v>Investor 13</v>
       </c>
       <c r="C70" t="str">
-        <v>Partner 12</v>
+        <v>Partner 13</v>
       </c>
       <c r="D70" t="str">
-        <v>investor12@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E70" t="str">
-        <v>+919928494502</v>
+        <v>+919840498515</v>
       </c>
       <c r="F70" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G70" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H70" t="str">
-        <v>Germany</v>
+        <v>UK</v>
       </c>
       <c r="I70" t="str">
         <v>London</v>
       </c>
       <c r="J70" t="str">
-        <v>Munich</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="str">
-        <v>Investor 13</v>
+        <v>Investor 14</v>
       </c>
       <c r="C71" t="str">
-        <v>Partner 13</v>
+        <v>Partner 14</v>
       </c>
       <c r="D71" t="str">
-        <v>investor13@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E71" t="str">
-        <v>+919840498515</v>
+        <v>+919668202693</v>
       </c>
       <c r="F71" t="str">
         <v>Hedge Fund</v>
@@ -2698,62 +2728,62 @@
         <v>Mature</v>
       </c>
       <c r="H71" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I71" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J71" t="str">
-        <v>Montreal</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="str">
-        <v>Investor 14</v>
+        <v>Investor 15</v>
       </c>
       <c r="C72" t="str">
-        <v>Partner 14</v>
+        <v>Partner 15</v>
       </c>
       <c r="D72" t="str">
-        <v>investor14@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E72" t="str">
-        <v>+919668202693</v>
+        <v>+917931611617</v>
       </c>
       <c r="F72" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G72" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H72" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I72" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J72" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="str">
-        <v>Investor 15</v>
+        <v>Investor 16</v>
       </c>
       <c r="C73" t="str">
-        <v>Partner 15</v>
+        <v>Partner 16</v>
       </c>
       <c r="D73" t="str">
-        <v>investor15@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E73" t="str">
-        <v>+917931611617</v>
+        <v>+917005717560</v>
       </c>
       <c r="F73" t="str">
         <v>Private Equity</v>
@@ -2765,123 +2795,123 @@
         <v>India</v>
       </c>
       <c r="I73" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J73" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="str">
-        <v>Investor 16</v>
+        <v>Investor 17</v>
       </c>
       <c r="C74" t="str">
-        <v>Partner 16</v>
+        <v>Partner 17</v>
       </c>
       <c r="D74" t="str">
-        <v>investor16@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E74" t="str">
-        <v>+917005717560</v>
+        <v>+919471731806</v>
       </c>
       <c r="F74" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G74" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H74" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I74" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J74" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="str">
-        <v>Investor 17</v>
+        <v>Investor 18</v>
       </c>
       <c r="C75" t="str">
-        <v>Partner 17</v>
+        <v>Partner 18</v>
       </c>
       <c r="D75" t="str">
-        <v>investor17@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E75" t="str">
-        <v>+919471731806</v>
+        <v>+917415441156</v>
       </c>
       <c r="F75" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G75" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H75" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I75" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J75" t="str">
-        <v>New York</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="str">
-        <v>Investor 18</v>
+        <v>Investor 19</v>
       </c>
       <c r="C76" t="str">
-        <v>Partner 18</v>
+        <v>Partner 19</v>
       </c>
       <c r="D76" t="str">
-        <v>investor18@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E76" t="str">
-        <v>+917415441156</v>
+        <v>+919428216935</v>
       </c>
       <c r="F76" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G76" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H76" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I76" t="str">
-        <v>Karnataka</v>
+        <v>Berlin</v>
       </c>
       <c r="J76" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="str">
-        <v>Investor 19</v>
+        <v>Investor 20</v>
       </c>
       <c r="C77" t="str">
-        <v>Partner 19</v>
+        <v>Partner 20</v>
       </c>
       <c r="D77" t="str">
-        <v>investor19@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E77" t="str">
-        <v>+919428216935</v>
+        <v>+918769140108</v>
       </c>
       <c r="F77" t="str">
         <v>Private Equity</v>
@@ -2893,7 +2923,7 @@
         <v>Germany</v>
       </c>
       <c r="I77" t="str">
-        <v>Berlin</v>
+        <v>Quebec</v>
       </c>
       <c r="J77" t="str">
         <v>Toronto</v>
@@ -2901,182 +2931,182 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="str">
-        <v>Investor 20</v>
+        <v>Investor 21</v>
       </c>
       <c r="C78" t="str">
-        <v>Partner 20</v>
+        <v>Partner 21</v>
       </c>
       <c r="D78" t="str">
-        <v>investor20@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E78" t="str">
-        <v>+918769140108</v>
+        <v>+917535520288</v>
       </c>
       <c r="F78" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G78" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H78" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I78" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J78" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="str">
-        <v>Investor 21</v>
+        <v>Investor 22</v>
       </c>
       <c r="C79" t="str">
-        <v>Partner 21</v>
+        <v>Partner 22</v>
       </c>
       <c r="D79" t="str">
-        <v>investor21@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E79" t="str">
-        <v>+917535520288</v>
+        <v>+919790702358</v>
       </c>
       <c r="F79" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G79" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H79" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I79" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J79" t="str">
-        <v>San Francisco</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="str">
-        <v>Investor 22</v>
+        <v>Investor 23</v>
       </c>
       <c r="C80" t="str">
-        <v>Partner 22</v>
+        <v>Partner 23</v>
       </c>
       <c r="D80" t="str">
-        <v>investor22@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E80" t="str">
-        <v>+919790702358</v>
+        <v>+918792543797</v>
       </c>
       <c r="F80" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G80" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H80" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I80" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J80" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="str">
-        <v>Investor 23</v>
+        <v>Investor 24</v>
       </c>
       <c r="C81" t="str">
-        <v>Partner 23</v>
+        <v>Partner 24</v>
       </c>
       <c r="D81" t="str">
-        <v>investor23@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E81" t="str">
-        <v>+918792543797</v>
+        <v>+919722499145</v>
       </c>
       <c r="F81" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G81" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H81" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I81" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J81" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="str">
-        <v>Investor 24</v>
+        <v>Investor 25</v>
       </c>
       <c r="C82" t="str">
-        <v>Partner 24</v>
+        <v>Partner 25</v>
       </c>
       <c r="D82" t="str">
-        <v>investor24@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E82" t="str">
-        <v>+919722499145</v>
+        <v>+917513411451</v>
       </c>
       <c r="F82" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G82" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H82" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I82" t="str">
-        <v>Quebec</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J82" t="str">
-        <v>Austin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="str">
-        <v>Investor 25</v>
+        <v>Investor 26</v>
       </c>
       <c r="C83" t="str">
-        <v>Partner 25</v>
+        <v>Partner 26</v>
       </c>
       <c r="D83" t="str">
-        <v>investor25@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E83" t="str">
-        <v>+917513411451</v>
+        <v>+918240603398</v>
       </c>
       <c r="F83" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G83" t="str">
         <v>Series A</v>
@@ -3085,91 +3115,91 @@
         <v>Canada</v>
       </c>
       <c r="I83" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="J83" t="str">
-        <v>London</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="str">
-        <v>Investor 26</v>
+        <v>Investor 27</v>
       </c>
       <c r="C84" t="str">
-        <v>Partner 26</v>
+        <v>Partner 27</v>
       </c>
       <c r="D84" t="str">
-        <v>investor26@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E84" t="str">
-        <v>+918240603398</v>
+        <v>+918169275812</v>
       </c>
       <c r="F84" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G84" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H84" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I84" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J84" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="str">
-        <v>Investor 27</v>
+        <v>Investor 28</v>
       </c>
       <c r="C85" t="str">
-        <v>Partner 27</v>
+        <v>Partner 28</v>
       </c>
       <c r="D85" t="str">
-        <v>investor27@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E85" t="str">
-        <v>+918169275812</v>
+        <v>+917995480118</v>
       </c>
       <c r="F85" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G85" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H85" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I85" t="str">
-        <v>Bavaria</v>
+        <v>Ontario</v>
       </c>
       <c r="J85" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="str">
-        <v>Investor 28</v>
+        <v>Investor 29</v>
       </c>
       <c r="C86" t="str">
-        <v>Partner 28</v>
+        <v>Partner 29</v>
       </c>
       <c r="D86" t="str">
-        <v>investor28@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E86" t="str">
-        <v>+917995480118</v>
+        <v>+919044015128</v>
       </c>
       <c r="F86" t="str">
         <v>Private Equity</v>
@@ -3178,266 +3208,266 @@
         <v>Series A</v>
       </c>
       <c r="H86" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I86" t="str">
-        <v>Ontario</v>
+        <v>New York</v>
       </c>
       <c r="J86" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="str">
-        <v>Investor 29</v>
+        <v>Investor 30</v>
       </c>
       <c r="C87" t="str">
-        <v>Partner 29</v>
+        <v>Partner 30</v>
       </c>
       <c r="D87" t="str">
-        <v>investor29@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E87" t="str">
-        <v>+919044015128</v>
+        <v>+919927955922</v>
       </c>
       <c r="F87" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G87" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H87" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I87" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J87" t="str">
-        <v>Austin</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>91</v>
-      </c>
-      <c r="B88" t="str">
-        <v>Investor 30</v>
-      </c>
-      <c r="C88" t="str">
-        <v>Partner 30</v>
-      </c>
-      <c r="D88" t="str">
-        <v>investor30@example.com</v>
-      </c>
-      <c r="E88" t="str">
-        <v>+919927955922</v>
-      </c>
-      <c r="F88" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G88" t="str">
-        <v>Mature</v>
-      </c>
-      <c r="H88" t="str">
+        <v>92</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Priyanshu</v>
+      </c>
+      <c r="L88" t="str">
+        <v>abc</v>
+      </c>
+      <c r="M88" t="str">
+        <v>priyanshuchouhan185@gmail.com</v>
+      </c>
+      <c r="N88" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O88" t="str">
+        <v>ozijvcsd</v>
+      </c>
+      <c r="P88" t="str">
+        <v>vkjxvnxc</v>
+      </c>
+      <c r="Q88" t="str">
         <v>India</v>
       </c>
-      <c r="I88" t="str">
-        <v>Quebec</v>
-      </c>
-      <c r="J88" t="str">
-        <v>Munich</v>
+      <c r="R88" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S88" t="str">
+        <v>Khargone</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>92</v>
-      </c>
-      <c r="K89" t="str">
-        <v>Priyanshu</v>
-      </c>
-      <c r="L89" t="str">
-        <v>abc</v>
-      </c>
-      <c r="M89" t="str">
-        <v>priyanshuchouhan185@gmail.com</v>
-      </c>
-      <c r="N89" t="str">
-        <v>8103700703</v>
-      </c>
-      <c r="O89" t="str">
-        <v>ozijvcsd</v>
-      </c>
-      <c r="P89" t="str">
-        <v>vkjxvnxc</v>
-      </c>
-      <c r="Q89" t="str">
-        <v>India</v>
-      </c>
-      <c r="R89" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S89" t="str">
-        <v>Khargone</v>
+        <v>93</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D89" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E89" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Toronto</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="str">
-        <v>Investor 1</v>
+        <v>Investor 2</v>
       </c>
       <c r="C90" t="str">
-        <v>Partner 1</v>
+        <v>Partner 2</v>
       </c>
       <c r="D90" t="str">
-        <v>investor1@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E90" t="str">
-        <v>+919047724970</v>
+        <v>+917620691166</v>
       </c>
       <c r="F90" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G90" t="str">
-        <v>Growth</v>
+        <v>Seed</v>
       </c>
       <c r="H90" t="str">
-        <v>Germany</v>
+        <v>Canada</v>
       </c>
       <c r="I90" t="str">
         <v>Texas</v>
       </c>
       <c r="J90" t="str">
-        <v>Toronto</v>
+        <v>London</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="str">
-        <v>Investor 2</v>
+        <v>Investor 3</v>
       </c>
       <c r="C91" t="str">
-        <v>Partner 2</v>
+        <v>Partner 3</v>
       </c>
       <c r="D91" t="str">
-        <v>investor2@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E91" t="str">
-        <v>+917620691166</v>
+        <v>+918322596794</v>
       </c>
       <c r="F91" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G91" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H91" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I91" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J91" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="str">
-        <v>Investor 3</v>
+        <v>Investor 4</v>
       </c>
       <c r="C92" t="str">
-        <v>Partner 3</v>
+        <v>Partner 4</v>
       </c>
       <c r="D92" t="str">
-        <v>investor3@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E92" t="str">
-        <v>+918322596794</v>
+        <v>+919091013248</v>
       </c>
       <c r="F92" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G92" t="str">
         <v>Series B</v>
       </c>
       <c r="H92" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I92" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J92" t="str">
-        <v>Munich</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="str">
-        <v>Investor 4</v>
+        <v>Investor 5</v>
       </c>
       <c r="C93" t="str">
-        <v>Partner 4</v>
+        <v>Partner 5</v>
       </c>
       <c r="D93" t="str">
-        <v>investor4@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E93" t="str">
-        <v>+919091013248</v>
+        <v>+917687937169</v>
       </c>
       <c r="F93" t="str">
         <v>Venture Capital</v>
       </c>
       <c r="G93" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H93" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I93" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J93" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="str">
-        <v>Investor 5</v>
+        <v>Investor 6</v>
       </c>
       <c r="C94" t="str">
-        <v>Partner 5</v>
+        <v>Partner 6</v>
       </c>
       <c r="D94" t="str">
-        <v>investor5@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E94" t="str">
-        <v>+917687937169</v>
+        <v>+917922030026</v>
       </c>
       <c r="F94" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G94" t="str">
         <v>Seed</v>
       </c>
       <c r="H94" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I94" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J94" t="str">
         <v>London</v>
@@ -3445,31 +3475,31 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="str">
-        <v>Investor 6</v>
+        <v>Investor 7</v>
       </c>
       <c r="C95" t="str">
-        <v>Partner 6</v>
+        <v>Partner 7</v>
       </c>
       <c r="D95" t="str">
-        <v>investor6@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E95" t="str">
-        <v>+917922030026</v>
+        <v>+917420830720</v>
       </c>
       <c r="F95" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G95" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H95" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I95" t="str">
-        <v>Bavaria</v>
+        <v>California</v>
       </c>
       <c r="J95" t="str">
         <v>London</v>
@@ -3477,211 +3507,211 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="str">
-        <v>Investor 7</v>
+        <v>Investor 8</v>
       </c>
       <c r="C96" t="str">
-        <v>Partner 7</v>
+        <v>Partner 8</v>
       </c>
       <c r="D96" t="str">
-        <v>investor7@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E96" t="str">
-        <v>+917420830720</v>
+        <v>+919754829773</v>
       </c>
       <c r="F96" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G96" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H96" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I96" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J96" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="str">
-        <v>Investor 8</v>
+        <v>Investor 9</v>
       </c>
       <c r="C97" t="str">
-        <v>Partner 8</v>
+        <v>Partner 9</v>
       </c>
       <c r="D97" t="str">
-        <v>investor8@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E97" t="str">
-        <v>+919754829773</v>
+        <v>+917917944002</v>
       </c>
       <c r="F97" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G97" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H97" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I97" t="str">
-        <v>Bavaria</v>
+        <v>Karnataka</v>
       </c>
       <c r="J97" t="str">
-        <v>Montreal</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="str">
-        <v>Investor 9</v>
+        <v>Investor 10</v>
       </c>
       <c r="C98" t="str">
-        <v>Partner 9</v>
+        <v>Partner 10</v>
       </c>
       <c r="D98" t="str">
-        <v>investor9@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E98" t="str">
-        <v>+917917944002</v>
+        <v>+919541494666</v>
       </c>
       <c r="F98" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G98" t="str">
         <v>Series A</v>
       </c>
       <c r="H98" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I98" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J98" t="str">
-        <v>Toronto</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="str">
-        <v>Investor 10</v>
+        <v>Investor 11</v>
       </c>
       <c r="C99" t="str">
-        <v>Partner 10</v>
+        <v>Partner 11</v>
       </c>
       <c r="D99" t="str">
-        <v>investor10@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E99" t="str">
-        <v>+919541494666</v>
+        <v>+919709142438</v>
       </c>
       <c r="F99" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G99" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H99" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I99" t="str">
-        <v>New York</v>
+        <v>Karnataka</v>
       </c>
       <c r="J99" t="str">
-        <v>Bangalore</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="str">
-        <v>Investor 11</v>
+        <v>Investor 12</v>
       </c>
       <c r="C100" t="str">
-        <v>Partner 11</v>
+        <v>Partner 12</v>
       </c>
       <c r="D100" t="str">
-        <v>investor11@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E100" t="str">
-        <v>+919709142438</v>
+        <v>+919928494502</v>
       </c>
       <c r="F100" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G100" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H100" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I100" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J100" t="str">
-        <v>San Francisco</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="str">
-        <v>Investor 12</v>
+        <v>Investor 13</v>
       </c>
       <c r="C101" t="str">
-        <v>Partner 12</v>
+        <v>Partner 13</v>
       </c>
       <c r="D101" t="str">
-        <v>investor12@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E101" t="str">
-        <v>+919928494502</v>
+        <v>+919840498515</v>
       </c>
       <c r="F101" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G101" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H101" t="str">
-        <v>Germany</v>
+        <v>UK</v>
       </c>
       <c r="I101" t="str">
         <v>London</v>
       </c>
       <c r="J101" t="str">
-        <v>Munich</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="str">
-        <v>Investor 13</v>
+        <v>Investor 14</v>
       </c>
       <c r="C102" t="str">
-        <v>Partner 13</v>
+        <v>Partner 14</v>
       </c>
       <c r="D102" t="str">
-        <v>investor13@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E102" t="str">
-        <v>+919840498515</v>
+        <v>+919668202693</v>
       </c>
       <c r="F102" t="str">
         <v>Hedge Fund</v>
@@ -3690,62 +3720,62 @@
         <v>Mature</v>
       </c>
       <c r="H102" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I102" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J102" t="str">
-        <v>Montreal</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="str">
-        <v>Investor 14</v>
+        <v>Investor 15</v>
       </c>
       <c r="C103" t="str">
-        <v>Partner 14</v>
+        <v>Partner 15</v>
       </c>
       <c r="D103" t="str">
-        <v>investor14@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E103" t="str">
-        <v>+919668202693</v>
+        <v>+917931611617</v>
       </c>
       <c r="F103" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G103" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H103" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I103" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J103" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="str">
-        <v>Investor 15</v>
+        <v>Investor 16</v>
       </c>
       <c r="C104" t="str">
-        <v>Partner 15</v>
+        <v>Partner 16</v>
       </c>
       <c r="D104" t="str">
-        <v>investor15@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E104" t="str">
-        <v>+917931611617</v>
+        <v>+917005717560</v>
       </c>
       <c r="F104" t="str">
         <v>Private Equity</v>
@@ -3757,123 +3787,123 @@
         <v>India</v>
       </c>
       <c r="I104" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J104" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="str">
-        <v>Investor 16</v>
+        <v>Investor 17</v>
       </c>
       <c r="C105" t="str">
-        <v>Partner 16</v>
+        <v>Partner 17</v>
       </c>
       <c r="D105" t="str">
-        <v>investor16@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E105" t="str">
-        <v>+917005717560</v>
+        <v>+919471731806</v>
       </c>
       <c r="F105" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G105" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H105" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I105" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J105" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="str">
-        <v>Investor 17</v>
+        <v>Investor 18</v>
       </c>
       <c r="C106" t="str">
-        <v>Partner 17</v>
+        <v>Partner 18</v>
       </c>
       <c r="D106" t="str">
-        <v>investor17@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E106" t="str">
-        <v>+919471731806</v>
+        <v>+917415441156</v>
       </c>
       <c r="F106" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G106" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H106" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I106" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J106" t="str">
-        <v>New York</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="str">
-        <v>Investor 18</v>
+        <v>Investor 19</v>
       </c>
       <c r="C107" t="str">
-        <v>Partner 18</v>
+        <v>Partner 19</v>
       </c>
       <c r="D107" t="str">
-        <v>investor18@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E107" t="str">
-        <v>+917415441156</v>
+        <v>+919428216935</v>
       </c>
       <c r="F107" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G107" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H107" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I107" t="str">
-        <v>Karnataka</v>
+        <v>Berlin</v>
       </c>
       <c r="J107" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="str">
-        <v>Investor 19</v>
+        <v>Investor 20</v>
       </c>
       <c r="C108" t="str">
-        <v>Partner 19</v>
+        <v>Partner 20</v>
       </c>
       <c r="D108" t="str">
-        <v>investor19@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E108" t="str">
-        <v>+919428216935</v>
+        <v>+918769140108</v>
       </c>
       <c r="F108" t="str">
         <v>Private Equity</v>
@@ -3885,7 +3915,7 @@
         <v>Germany</v>
       </c>
       <c r="I108" t="str">
-        <v>Berlin</v>
+        <v>Quebec</v>
       </c>
       <c r="J108" t="str">
         <v>Toronto</v>
@@ -3893,182 +3923,182 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="str">
-        <v>Investor 20</v>
+        <v>Investor 21</v>
       </c>
       <c r="C109" t="str">
-        <v>Partner 20</v>
+        <v>Partner 21</v>
       </c>
       <c r="D109" t="str">
-        <v>investor20@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E109" t="str">
-        <v>+918769140108</v>
+        <v>+917535520288</v>
       </c>
       <c r="F109" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G109" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H109" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I109" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J109" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="str">
-        <v>Investor 21</v>
+        <v>Investor 22</v>
       </c>
       <c r="C110" t="str">
-        <v>Partner 21</v>
+        <v>Partner 22</v>
       </c>
       <c r="D110" t="str">
-        <v>investor21@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E110" t="str">
-        <v>+917535520288</v>
+        <v>+919790702358</v>
       </c>
       <c r="F110" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G110" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H110" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I110" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J110" t="str">
-        <v>San Francisco</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="str">
-        <v>Investor 22</v>
+        <v>Investor 23</v>
       </c>
       <c r="C111" t="str">
-        <v>Partner 22</v>
+        <v>Partner 23</v>
       </c>
       <c r="D111" t="str">
-        <v>investor22@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E111" t="str">
-        <v>+919790702358</v>
+        <v>+918792543797</v>
       </c>
       <c r="F111" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G111" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H111" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I111" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J111" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="str">
-        <v>Investor 23</v>
+        <v>Investor 24</v>
       </c>
       <c r="C112" t="str">
-        <v>Partner 23</v>
+        <v>Partner 24</v>
       </c>
       <c r="D112" t="str">
-        <v>investor23@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E112" t="str">
-        <v>+918792543797</v>
+        <v>+919722499145</v>
       </c>
       <c r="F112" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G112" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H112" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I112" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J112" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" t="str">
-        <v>Investor 24</v>
+        <v>Investor 25</v>
       </c>
       <c r="C113" t="str">
-        <v>Partner 24</v>
+        <v>Partner 25</v>
       </c>
       <c r="D113" t="str">
-        <v>investor24@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E113" t="str">
-        <v>+919722499145</v>
+        <v>+917513411451</v>
       </c>
       <c r="F113" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G113" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H113" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I113" t="str">
-        <v>Quebec</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J113" t="str">
-        <v>Austin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" t="str">
-        <v>Investor 25</v>
+        <v>Investor 26</v>
       </c>
       <c r="C114" t="str">
-        <v>Partner 25</v>
+        <v>Partner 26</v>
       </c>
       <c r="D114" t="str">
-        <v>investor25@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E114" t="str">
-        <v>+917513411451</v>
+        <v>+918240603398</v>
       </c>
       <c r="F114" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G114" t="str">
         <v>Series A</v>
@@ -4077,91 +4107,91 @@
         <v>Canada</v>
       </c>
       <c r="I114" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="J114" t="str">
-        <v>London</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" t="str">
-        <v>Investor 26</v>
+        <v>Investor 27</v>
       </c>
       <c r="C115" t="str">
-        <v>Partner 26</v>
+        <v>Partner 27</v>
       </c>
       <c r="D115" t="str">
-        <v>investor26@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E115" t="str">
-        <v>+918240603398</v>
+        <v>+918169275812</v>
       </c>
       <c r="F115" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G115" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H115" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I115" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J115" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" t="str">
-        <v>Investor 27</v>
+        <v>Investor 28</v>
       </c>
       <c r="C116" t="str">
-        <v>Partner 27</v>
+        <v>Partner 28</v>
       </c>
       <c r="D116" t="str">
-        <v>investor27@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E116" t="str">
-        <v>+918169275812</v>
+        <v>+917995480118</v>
       </c>
       <c r="F116" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G116" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H116" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I116" t="str">
-        <v>Bavaria</v>
+        <v>Ontario</v>
       </c>
       <c r="J116" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" t="str">
-        <v>Investor 28</v>
+        <v>Investor 29</v>
       </c>
       <c r="C117" t="str">
-        <v>Partner 28</v>
+        <v>Partner 29</v>
       </c>
       <c r="D117" t="str">
-        <v>investor28@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E117" t="str">
-        <v>+917995480118</v>
+        <v>+919044015128</v>
       </c>
       <c r="F117" t="str">
         <v>Private Equity</v>
@@ -4170,82 +4200,1077 @@
         <v>Series A</v>
       </c>
       <c r="H117" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I117" t="str">
-        <v>Ontario</v>
+        <v>New York</v>
       </c>
       <c r="J117" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" t="str">
-        <v>Investor 29</v>
+        <v>Investor 30</v>
       </c>
       <c r="C118" t="str">
-        <v>Partner 29</v>
+        <v>Partner 30</v>
       </c>
       <c r="D118" t="str">
-        <v>investor29@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E118" t="str">
-        <v>+919044015128</v>
+        <v>+919927955922</v>
       </c>
       <c r="F118" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G118" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H118" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I118" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J118" t="str">
-        <v>Austin</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>122</v>
-      </c>
-      <c r="B119" t="str">
+        <v>123</v>
+      </c>
+      <c r="K119" t="str">
+        <v>ADASD</v>
+      </c>
+      <c r="L119" t="str">
+        <v>SDVDFV</v>
+      </c>
+      <c r="M119" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N119" t="str">
+        <v>08103700703</v>
+      </c>
+      <c r="O119" t="str">
+        <v>DVDFB</v>
+      </c>
+      <c r="P119" t="str">
+        <v>DVDF</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>India</v>
+      </c>
+      <c r="R119" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S119" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T119" t="str">
+        <v>30L</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>124</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="L120" t="str">
+        <v>Priyanshu Chouhan</v>
+      </c>
+      <c r="M120" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N120" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O120" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>India</v>
+      </c>
+      <c r="R120" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S120" t="str">
+        <v>Magriya</v>
+      </c>
+      <c r="T120" t="str">
+        <v>30K</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>125</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D121" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E121" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H121" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J121" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>126</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D122" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E122" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H122" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J122" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>127</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Partner 3</v>
+      </c>
+      <c r="D123" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="E123" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H123" t="str">
+        <v>India</v>
+      </c>
+      <c r="I123" t="str">
+        <v>California</v>
+      </c>
+      <c r="J123" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>128</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Investor 4</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Partner 4</v>
+      </c>
+      <c r="D124" t="str">
+        <v>investor4@example.com</v>
+      </c>
+      <c r="E124" t="str">
+        <v>+919091013248</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H124" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I124" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J124" t="str">
+        <v>Berlin</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>129</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Investor 5</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Partner 5</v>
+      </c>
+      <c r="D125" t="str">
+        <v>investor5@example.com</v>
+      </c>
+      <c r="E125" t="str">
+        <v>+917687937169</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H125" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I125" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J125" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>130</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Investor 6</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Partner 6</v>
+      </c>
+      <c r="D126" t="str">
+        <v>investor6@example.com</v>
+      </c>
+      <c r="E126" t="str">
+        <v>+917922030026</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H126" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I126" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J126" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>131</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Investor 7</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Partner 7</v>
+      </c>
+      <c r="D127" t="str">
+        <v>investor7@example.com</v>
+      </c>
+      <c r="E127" t="str">
+        <v>+917420830720</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H127" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I127" t="str">
+        <v>California</v>
+      </c>
+      <c r="J127" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>132</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Investor 8</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Partner 8</v>
+      </c>
+      <c r="D128" t="str">
+        <v>investor8@example.com</v>
+      </c>
+      <c r="E128" t="str">
+        <v>+919754829773</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H128" t="str">
+        <v>India</v>
+      </c>
+      <c r="I128" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>133</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Investor 9</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Partner 9</v>
+      </c>
+      <c r="D129" t="str">
+        <v>investor9@example.com</v>
+      </c>
+      <c r="E129" t="str">
+        <v>+917917944002</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H129" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I129" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J129" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>134</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Investor 10</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Partner 10</v>
+      </c>
+      <c r="D130" t="str">
+        <v>investor10@example.com</v>
+      </c>
+      <c r="E130" t="str">
+        <v>+919541494666</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H130" t="str">
+        <v>India</v>
+      </c>
+      <c r="I130" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J130" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>135</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Investor 11</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Partner 11</v>
+      </c>
+      <c r="D131" t="str">
+        <v>investor11@example.com</v>
+      </c>
+      <c r="E131" t="str">
+        <v>+919709142438</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H131" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I131" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J131" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>136</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Investor 12</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Partner 12</v>
+      </c>
+      <c r="D132" t="str">
+        <v>investor12@example.com</v>
+      </c>
+      <c r="E132" t="str">
+        <v>+919928494502</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H132" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I132" t="str">
+        <v>London</v>
+      </c>
+      <c r="J132" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>137</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Investor 13</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Partner 13</v>
+      </c>
+      <c r="D133" t="str">
+        <v>investor13@example.com</v>
+      </c>
+      <c r="E133" t="str">
+        <v>+919840498515</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H133" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I133" t="str">
+        <v>London</v>
+      </c>
+      <c r="J133" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>138</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Investor 14</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Partner 14</v>
+      </c>
+      <c r="D134" t="str">
+        <v>investor14@example.com</v>
+      </c>
+      <c r="E134" t="str">
+        <v>+919668202693</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H134" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I134" t="str">
+        <v>California</v>
+      </c>
+      <c r="J134" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>139</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Investor 15</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Partner 15</v>
+      </c>
+      <c r="D135" t="str">
+        <v>investor15@example.com</v>
+      </c>
+      <c r="E135" t="str">
+        <v>+917931611617</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H135" t="str">
+        <v>India</v>
+      </c>
+      <c r="I135" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J135" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>140</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Investor 16</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Partner 16</v>
+      </c>
+      <c r="D136" t="str">
+        <v>investor16@example.com</v>
+      </c>
+      <c r="E136" t="str">
+        <v>+917005717560</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G136" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H136" t="str">
+        <v>India</v>
+      </c>
+      <c r="I136" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J136" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>141</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Investor 17</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Partner 17</v>
+      </c>
+      <c r="D137" t="str">
+        <v>investor17@example.com</v>
+      </c>
+      <c r="E137" t="str">
+        <v>+919471731806</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H137" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I137" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J137" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>142</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Investor 18</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Partner 18</v>
+      </c>
+      <c r="D138" t="str">
+        <v>investor18@example.com</v>
+      </c>
+      <c r="E138" t="str">
+        <v>+917415441156</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G138" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H138" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I138" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J138" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>143</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Investor 19</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Partner 19</v>
+      </c>
+      <c r="D139" t="str">
+        <v>investor19@example.com</v>
+      </c>
+      <c r="E139" t="str">
+        <v>+919428216935</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H139" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I139" t="str">
+        <v>Berlin</v>
+      </c>
+      <c r="J139" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>144</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Investor 20</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Partner 20</v>
+      </c>
+      <c r="D140" t="str">
+        <v>investor20@example.com</v>
+      </c>
+      <c r="E140" t="str">
+        <v>+918769140108</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H140" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I140" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J140" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>145</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Investor 21</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Partner 21</v>
+      </c>
+      <c r="D141" t="str">
+        <v>investor21@example.com</v>
+      </c>
+      <c r="E141" t="str">
+        <v>+917535520288</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H141" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I141" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J141" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>146</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Investor 22</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Partner 22</v>
+      </c>
+      <c r="D142" t="str">
+        <v>investor22@example.com</v>
+      </c>
+      <c r="E142" t="str">
+        <v>+919790702358</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G142" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H142" t="str">
+        <v>India</v>
+      </c>
+      <c r="I142" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J142" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>147</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Investor 23</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Partner 23</v>
+      </c>
+      <c r="D143" t="str">
+        <v>investor23@example.com</v>
+      </c>
+      <c r="E143" t="str">
+        <v>+918792543797</v>
+      </c>
+      <c r="F143" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G143" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H143" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I143" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J143" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>148</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Investor 24</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Partner 24</v>
+      </c>
+      <c r="D144" t="str">
+        <v>investor24@example.com</v>
+      </c>
+      <c r="E144" t="str">
+        <v>+919722499145</v>
+      </c>
+      <c r="F144" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G144" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H144" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I144" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J144" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>149</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Investor 25</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Partner 25</v>
+      </c>
+      <c r="D145" t="str">
+        <v>investor25@example.com</v>
+      </c>
+      <c r="E145" t="str">
+        <v>+917513411451</v>
+      </c>
+      <c r="F145" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G145" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H145" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I145" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J145" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>150</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Investor 26</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Partner 26</v>
+      </c>
+      <c r="D146" t="str">
+        <v>investor26@example.com</v>
+      </c>
+      <c r="E146" t="str">
+        <v>+918240603398</v>
+      </c>
+      <c r="F146" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G146" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H146" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I146" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J146" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>151</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Investor 27</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Partner 27</v>
+      </c>
+      <c r="D147" t="str">
+        <v>investor27@example.com</v>
+      </c>
+      <c r="E147" t="str">
+        <v>+918169275812</v>
+      </c>
+      <c r="F147" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G147" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H147" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I147" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J147" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>152</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Investor 28</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Partner 28</v>
+      </c>
+      <c r="D148" t="str">
+        <v>investor28@example.com</v>
+      </c>
+      <c r="E148" t="str">
+        <v>+917995480118</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G148" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H148" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I148" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="J148" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>153</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Investor 29</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Partner 29</v>
+      </c>
+      <c r="D149" t="str">
+        <v>investor29@example.com</v>
+      </c>
+      <c r="E149" t="str">
+        <v>+919044015128</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H149" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I149" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J149" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>154</v>
+      </c>
+      <c r="B150" t="str">
         <v>Investor 30</v>
       </c>
-      <c r="C119" t="str">
+      <c r="C150" t="str">
         <v>Partner 30</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D150" t="str">
         <v>investor30@example.com</v>
       </c>
-      <c r="E119" t="str">
+      <c r="E150" t="str">
         <v>+919927955922</v>
       </c>
-      <c r="F119" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G119" t="str">
+      <c r="F150" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G150" t="str">
         <v>Mature</v>
       </c>
-      <c r="H119" t="str">
+      <c r="H150" t="str">
         <v>India</v>
       </c>
-      <c r="I119" t="str">
+      <c r="I150" t="str">
         <v>Quebec</v>
       </c>
-      <c r="J119" t="str">
+      <c r="J150" t="str">
         <v>Munich</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T150"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/investors.xlsx
+++ b/backend/data/investors.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T150"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +463,33 @@
       <c r="T1" t="str">
         <v>ticket_size</v>
       </c>
+      <c r="U1" t="str">
+        <v>Investor Name</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Partner Name</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Phone Number</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Fund Type</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Fund Stage</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>State (Optional)</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>City (Optional)</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Ticket Size (Optional)</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -3251,191 +3278,191 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>92</v>
-      </c>
-      <c r="K88" t="str">
-        <v>Priyanshu</v>
-      </c>
-      <c r="L88" t="str">
-        <v>abc</v>
-      </c>
-      <c r="M88" t="str">
-        <v>priyanshuchouhan185@gmail.com</v>
-      </c>
-      <c r="N88" t="str">
-        <v>8103700703</v>
-      </c>
-      <c r="O88" t="str">
-        <v>ozijvcsd</v>
-      </c>
-      <c r="P88" t="str">
-        <v>vkjxvnxc</v>
-      </c>
-      <c r="Q88" t="str">
-        <v>India</v>
-      </c>
-      <c r="R88" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S88" t="str">
-        <v>Khargone</v>
+        <v>93</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D88" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E88" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Toronto</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" t="str">
-        <v>Investor 1</v>
+        <v>Investor 2</v>
       </c>
       <c r="C89" t="str">
-        <v>Partner 1</v>
+        <v>Partner 2</v>
       </c>
       <c r="D89" t="str">
-        <v>investor1@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E89" t="str">
-        <v>+919047724970</v>
+        <v>+917620691166</v>
       </c>
       <c r="F89" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G89" t="str">
-        <v>Growth</v>
+        <v>Seed</v>
       </c>
       <c r="H89" t="str">
-        <v>Germany</v>
+        <v>Canada</v>
       </c>
       <c r="I89" t="str">
         <v>Texas</v>
       </c>
       <c r="J89" t="str">
-        <v>Toronto</v>
+        <v>London</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" t="str">
-        <v>Investor 2</v>
+        <v>Investor 3</v>
       </c>
       <c r="C90" t="str">
-        <v>Partner 2</v>
+        <v>Partner 3</v>
       </c>
       <c r="D90" t="str">
-        <v>investor2@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E90" t="str">
-        <v>+917620691166</v>
+        <v>+918322596794</v>
       </c>
       <c r="F90" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G90" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H90" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I90" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J90" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" t="str">
-        <v>Investor 3</v>
+        <v>Investor 4</v>
       </c>
       <c r="C91" t="str">
-        <v>Partner 3</v>
+        <v>Partner 4</v>
       </c>
       <c r="D91" t="str">
-        <v>investor3@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E91" t="str">
-        <v>+918322596794</v>
+        <v>+919091013248</v>
       </c>
       <c r="F91" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G91" t="str">
         <v>Series B</v>
       </c>
       <c r="H91" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I91" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J91" t="str">
-        <v>Munich</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" t="str">
-        <v>Investor 4</v>
+        <v>Investor 5</v>
       </c>
       <c r="C92" t="str">
-        <v>Partner 4</v>
+        <v>Partner 5</v>
       </c>
       <c r="D92" t="str">
-        <v>investor4@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E92" t="str">
-        <v>+919091013248</v>
+        <v>+917687937169</v>
       </c>
       <c r="F92" t="str">
         <v>Venture Capital</v>
       </c>
       <c r="G92" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H92" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I92" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J92" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" t="str">
-        <v>Investor 5</v>
+        <v>Investor 6</v>
       </c>
       <c r="C93" t="str">
-        <v>Partner 5</v>
+        <v>Partner 6</v>
       </c>
       <c r="D93" t="str">
-        <v>investor5@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E93" t="str">
-        <v>+917687937169</v>
+        <v>+917922030026</v>
       </c>
       <c r="F93" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G93" t="str">
         <v>Seed</v>
       </c>
       <c r="H93" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I93" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J93" t="str">
         <v>London</v>
@@ -3443,31 +3470,31 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" t="str">
-        <v>Investor 6</v>
+        <v>Investor 7</v>
       </c>
       <c r="C94" t="str">
-        <v>Partner 6</v>
+        <v>Partner 7</v>
       </c>
       <c r="D94" t="str">
-        <v>investor6@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E94" t="str">
-        <v>+917922030026</v>
+        <v>+917420830720</v>
       </c>
       <c r="F94" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G94" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H94" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I94" t="str">
-        <v>Bavaria</v>
+        <v>California</v>
       </c>
       <c r="J94" t="str">
         <v>London</v>
@@ -3475,211 +3502,211 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" t="str">
-        <v>Investor 7</v>
+        <v>Investor 8</v>
       </c>
       <c r="C95" t="str">
-        <v>Partner 7</v>
+        <v>Partner 8</v>
       </c>
       <c r="D95" t="str">
-        <v>investor7@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E95" t="str">
-        <v>+917420830720</v>
+        <v>+919754829773</v>
       </c>
       <c r="F95" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G95" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H95" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I95" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J95" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" t="str">
-        <v>Investor 8</v>
+        <v>Investor 9</v>
       </c>
       <c r="C96" t="str">
-        <v>Partner 8</v>
+        <v>Partner 9</v>
       </c>
       <c r="D96" t="str">
-        <v>investor8@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E96" t="str">
-        <v>+919754829773</v>
+        <v>+917917944002</v>
       </c>
       <c r="F96" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G96" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H96" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I96" t="str">
-        <v>Bavaria</v>
+        <v>Karnataka</v>
       </c>
       <c r="J96" t="str">
-        <v>Montreal</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" t="str">
-        <v>Investor 9</v>
+        <v>Investor 10</v>
       </c>
       <c r="C97" t="str">
-        <v>Partner 9</v>
+        <v>Partner 10</v>
       </c>
       <c r="D97" t="str">
-        <v>investor9@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E97" t="str">
-        <v>+917917944002</v>
+        <v>+919541494666</v>
       </c>
       <c r="F97" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G97" t="str">
         <v>Series A</v>
       </c>
       <c r="H97" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I97" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J97" t="str">
-        <v>Toronto</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" t="str">
-        <v>Investor 10</v>
+        <v>Investor 11</v>
       </c>
       <c r="C98" t="str">
-        <v>Partner 10</v>
+        <v>Partner 11</v>
       </c>
       <c r="D98" t="str">
-        <v>investor10@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E98" t="str">
-        <v>+919541494666</v>
+        <v>+919709142438</v>
       </c>
       <c r="F98" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G98" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H98" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I98" t="str">
-        <v>New York</v>
+        <v>Karnataka</v>
       </c>
       <c r="J98" t="str">
-        <v>Bangalore</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" t="str">
-        <v>Investor 11</v>
+        <v>Investor 12</v>
       </c>
       <c r="C99" t="str">
-        <v>Partner 11</v>
+        <v>Partner 12</v>
       </c>
       <c r="D99" t="str">
-        <v>investor11@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E99" t="str">
-        <v>+919709142438</v>
+        <v>+919928494502</v>
       </c>
       <c r="F99" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G99" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H99" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I99" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J99" t="str">
-        <v>San Francisco</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" t="str">
-        <v>Investor 12</v>
+        <v>Investor 13</v>
       </c>
       <c r="C100" t="str">
-        <v>Partner 12</v>
+        <v>Partner 13</v>
       </c>
       <c r="D100" t="str">
-        <v>investor12@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E100" t="str">
-        <v>+919928494502</v>
+        <v>+919840498515</v>
       </c>
       <c r="F100" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G100" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H100" t="str">
-        <v>Germany</v>
+        <v>UK</v>
       </c>
       <c r="I100" t="str">
         <v>London</v>
       </c>
       <c r="J100" t="str">
-        <v>Munich</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" t="str">
-        <v>Investor 13</v>
+        <v>Investor 14</v>
       </c>
       <c r="C101" t="str">
-        <v>Partner 13</v>
+        <v>Partner 14</v>
       </c>
       <c r="D101" t="str">
-        <v>investor13@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E101" t="str">
-        <v>+919840498515</v>
+        <v>+919668202693</v>
       </c>
       <c r="F101" t="str">
         <v>Hedge Fund</v>
@@ -3688,62 +3715,62 @@
         <v>Mature</v>
       </c>
       <c r="H101" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I101" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J101" t="str">
-        <v>Montreal</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" t="str">
-        <v>Investor 14</v>
+        <v>Investor 15</v>
       </c>
       <c r="C102" t="str">
-        <v>Partner 14</v>
+        <v>Partner 15</v>
       </c>
       <c r="D102" t="str">
-        <v>investor14@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E102" t="str">
-        <v>+919668202693</v>
+        <v>+917931611617</v>
       </c>
       <c r="F102" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G102" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H102" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I102" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J102" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" t="str">
-        <v>Investor 15</v>
+        <v>Investor 16</v>
       </c>
       <c r="C103" t="str">
-        <v>Partner 15</v>
+        <v>Partner 16</v>
       </c>
       <c r="D103" t="str">
-        <v>investor15@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E103" t="str">
-        <v>+917931611617</v>
+        <v>+917005717560</v>
       </c>
       <c r="F103" t="str">
         <v>Private Equity</v>
@@ -3755,123 +3782,123 @@
         <v>India</v>
       </c>
       <c r="I103" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J103" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" t="str">
-        <v>Investor 16</v>
+        <v>Investor 17</v>
       </c>
       <c r="C104" t="str">
-        <v>Partner 16</v>
+        <v>Partner 17</v>
       </c>
       <c r="D104" t="str">
-        <v>investor16@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E104" t="str">
-        <v>+917005717560</v>
+        <v>+919471731806</v>
       </c>
       <c r="F104" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G104" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H104" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I104" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J104" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" t="str">
-        <v>Investor 17</v>
+        <v>Investor 18</v>
       </c>
       <c r="C105" t="str">
-        <v>Partner 17</v>
+        <v>Partner 18</v>
       </c>
       <c r="D105" t="str">
-        <v>investor17@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E105" t="str">
-        <v>+919471731806</v>
+        <v>+917415441156</v>
       </c>
       <c r="F105" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G105" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H105" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I105" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J105" t="str">
-        <v>New York</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" t="str">
-        <v>Investor 18</v>
+        <v>Investor 19</v>
       </c>
       <c r="C106" t="str">
-        <v>Partner 18</v>
+        <v>Partner 19</v>
       </c>
       <c r="D106" t="str">
-        <v>investor18@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E106" t="str">
-        <v>+917415441156</v>
+        <v>+919428216935</v>
       </c>
       <c r="F106" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G106" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H106" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I106" t="str">
-        <v>Karnataka</v>
+        <v>Berlin</v>
       </c>
       <c r="J106" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" t="str">
-        <v>Investor 19</v>
+        <v>Investor 20</v>
       </c>
       <c r="C107" t="str">
-        <v>Partner 19</v>
+        <v>Partner 20</v>
       </c>
       <c r="D107" t="str">
-        <v>investor19@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E107" t="str">
-        <v>+919428216935</v>
+        <v>+918769140108</v>
       </c>
       <c r="F107" t="str">
         <v>Private Equity</v>
@@ -3883,7 +3910,7 @@
         <v>Germany</v>
       </c>
       <c r="I107" t="str">
-        <v>Berlin</v>
+        <v>Quebec</v>
       </c>
       <c r="J107" t="str">
         <v>Toronto</v>
@@ -3891,182 +3918,182 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" t="str">
-        <v>Investor 20</v>
+        <v>Investor 21</v>
       </c>
       <c r="C108" t="str">
-        <v>Partner 20</v>
+        <v>Partner 21</v>
       </c>
       <c r="D108" t="str">
-        <v>investor20@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E108" t="str">
-        <v>+918769140108</v>
+        <v>+917535520288</v>
       </c>
       <c r="F108" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G108" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H108" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I108" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J108" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" t="str">
-        <v>Investor 21</v>
+        <v>Investor 22</v>
       </c>
       <c r="C109" t="str">
-        <v>Partner 21</v>
+        <v>Partner 22</v>
       </c>
       <c r="D109" t="str">
-        <v>investor21@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E109" t="str">
-        <v>+917535520288</v>
+        <v>+919790702358</v>
       </c>
       <c r="F109" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G109" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H109" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I109" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J109" t="str">
-        <v>San Francisco</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" t="str">
-        <v>Investor 22</v>
+        <v>Investor 23</v>
       </c>
       <c r="C110" t="str">
-        <v>Partner 22</v>
+        <v>Partner 23</v>
       </c>
       <c r="D110" t="str">
-        <v>investor22@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E110" t="str">
-        <v>+919790702358</v>
+        <v>+918792543797</v>
       </c>
       <c r="F110" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G110" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H110" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I110" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J110" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" t="str">
-        <v>Investor 23</v>
+        <v>Investor 24</v>
       </c>
       <c r="C111" t="str">
-        <v>Partner 23</v>
+        <v>Partner 24</v>
       </c>
       <c r="D111" t="str">
-        <v>investor23@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E111" t="str">
-        <v>+918792543797</v>
+        <v>+919722499145</v>
       </c>
       <c r="F111" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G111" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H111" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I111" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J111" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" t="str">
-        <v>Investor 24</v>
+        <v>Investor 25</v>
       </c>
       <c r="C112" t="str">
-        <v>Partner 24</v>
+        <v>Partner 25</v>
       </c>
       <c r="D112" t="str">
-        <v>investor24@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E112" t="str">
-        <v>+919722499145</v>
+        <v>+917513411451</v>
       </c>
       <c r="F112" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G112" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H112" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I112" t="str">
-        <v>Quebec</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J112" t="str">
-        <v>Austin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" t="str">
-        <v>Investor 25</v>
+        <v>Investor 26</v>
       </c>
       <c r="C113" t="str">
-        <v>Partner 25</v>
+        <v>Partner 26</v>
       </c>
       <c r="D113" t="str">
-        <v>investor25@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E113" t="str">
-        <v>+917513411451</v>
+        <v>+918240603398</v>
       </c>
       <c r="F113" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G113" t="str">
         <v>Series A</v>
@@ -4075,91 +4102,91 @@
         <v>Canada</v>
       </c>
       <c r="I113" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="J113" t="str">
-        <v>London</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" t="str">
-        <v>Investor 26</v>
+        <v>Investor 27</v>
       </c>
       <c r="C114" t="str">
-        <v>Partner 26</v>
+        <v>Partner 27</v>
       </c>
       <c r="D114" t="str">
-        <v>investor26@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E114" t="str">
-        <v>+918240603398</v>
+        <v>+918169275812</v>
       </c>
       <c r="F114" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G114" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H114" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I114" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J114" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" t="str">
-        <v>Investor 27</v>
+        <v>Investor 28</v>
       </c>
       <c r="C115" t="str">
-        <v>Partner 27</v>
+        <v>Partner 28</v>
       </c>
       <c r="D115" t="str">
-        <v>investor27@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E115" t="str">
-        <v>+918169275812</v>
+        <v>+917995480118</v>
       </c>
       <c r="F115" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G115" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H115" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I115" t="str">
-        <v>Bavaria</v>
+        <v>Ontario</v>
       </c>
       <c r="J115" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" t="str">
-        <v>Investor 28</v>
+        <v>Investor 29</v>
       </c>
       <c r="C116" t="str">
-        <v>Partner 28</v>
+        <v>Partner 29</v>
       </c>
       <c r="D116" t="str">
-        <v>investor28@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E116" t="str">
-        <v>+917995480118</v>
+        <v>+919044015128</v>
       </c>
       <c r="F116" t="str">
         <v>Private Equity</v>
@@ -4168,100 +4195,100 @@
         <v>Series A</v>
       </c>
       <c r="H116" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I116" t="str">
-        <v>Ontario</v>
+        <v>New York</v>
       </c>
       <c r="J116" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" t="str">
-        <v>Investor 29</v>
+        <v>Investor 30</v>
       </c>
       <c r="C117" t="str">
-        <v>Partner 29</v>
+        <v>Partner 30</v>
       </c>
       <c r="D117" t="str">
-        <v>investor29@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E117" t="str">
-        <v>+919044015128</v>
+        <v>+919927955922</v>
       </c>
       <c r="F117" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G117" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H117" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I117" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J117" t="str">
-        <v>Austin</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>122</v>
-      </c>
-      <c r="B118" t="str">
-        <v>Investor 30</v>
-      </c>
-      <c r="C118" t="str">
-        <v>Partner 30</v>
-      </c>
-      <c r="D118" t="str">
-        <v>investor30@example.com</v>
-      </c>
-      <c r="E118" t="str">
-        <v>+919927955922</v>
-      </c>
-      <c r="F118" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G118" t="str">
-        <v>Mature</v>
-      </c>
-      <c r="H118" t="str">
+        <v>123</v>
+      </c>
+      <c r="K118" t="str">
+        <v>ADASD</v>
+      </c>
+      <c r="L118" t="str">
+        <v>SDVDFV</v>
+      </c>
+      <c r="M118" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N118" t="str">
+        <v>08103700703</v>
+      </c>
+      <c r="O118" t="str">
+        <v>DVDFB</v>
+      </c>
+      <c r="P118" t="str">
+        <v>DVDF</v>
+      </c>
+      <c r="Q118" t="str">
         <v>India</v>
       </c>
-      <c r="I118" t="str">
-        <v>Quebec</v>
-      </c>
-      <c r="J118" t="str">
-        <v>Munich</v>
+      <c r="R118" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S118" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T118" t="str">
+        <v>30L</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K119" t="str">
-        <v>ADASD</v>
+        <v>Investor 3</v>
       </c>
       <c r="L119" t="str">
-        <v>SDVDFV</v>
+        <v>Priyanshu Chouhan</v>
       </c>
       <c r="M119" t="str">
         <v>priyanshubanna2525@gmail.com</v>
       </c>
       <c r="N119" t="str">
-        <v>08103700703</v>
+        <v>8103700703</v>
       </c>
       <c r="O119" t="str">
-        <v>DVDFB</v>
-      </c>
-      <c r="P119" t="str">
-        <v>DVDF</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="Q119" t="str">
         <v>India</v>
@@ -4270,199 +4297,199 @@
         <v>Madhya Pradesh</v>
       </c>
       <c r="S119" t="str">
-        <v>Khargone Nagar</v>
+        <v>Magriya</v>
       </c>
       <c r="T119" t="str">
-        <v>30L</v>
+        <v>30K</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>124</v>
-      </c>
-      <c r="K120" t="str">
-        <v>Investor 3</v>
-      </c>
-      <c r="L120" t="str">
-        <v>Priyanshu Chouhan</v>
-      </c>
-      <c r="M120" t="str">
-        <v>priyanshubanna2525@gmail.com</v>
-      </c>
-      <c r="N120" t="str">
-        <v>8103700703</v>
-      </c>
-      <c r="O120" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="Q120" t="str">
-        <v>India</v>
-      </c>
-      <c r="R120" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S120" t="str">
-        <v>Magriya</v>
-      </c>
-      <c r="T120" t="str">
-        <v>30K</v>
+        <v>125</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D120" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E120" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H120" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Toronto</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" t="str">
-        <v>Investor 1</v>
+        <v>Investor 2</v>
       </c>
       <c r="C121" t="str">
-        <v>Partner 1</v>
+        <v>Partner 2</v>
       </c>
       <c r="D121" t="str">
-        <v>investor1@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E121" t="str">
-        <v>+919047724970</v>
+        <v>+917620691166</v>
       </c>
       <c r="F121" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G121" t="str">
-        <v>Growth</v>
+        <v>Seed</v>
       </c>
       <c r="H121" t="str">
-        <v>Germany</v>
+        <v>Canada</v>
       </c>
       <c r="I121" t="str">
         <v>Texas</v>
       </c>
       <c r="J121" t="str">
-        <v>Toronto</v>
+        <v>London</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B122" t="str">
-        <v>Investor 2</v>
+        <v>Investor 3</v>
       </c>
       <c r="C122" t="str">
-        <v>Partner 2</v>
+        <v>Partner 3</v>
       </c>
       <c r="D122" t="str">
-        <v>investor2@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E122" t="str">
-        <v>+917620691166</v>
+        <v>+918322596794</v>
       </c>
       <c r="F122" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G122" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H122" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I122" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J122" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B123" t="str">
-        <v>Investor 3</v>
+        <v>Investor 4</v>
       </c>
       <c r="C123" t="str">
-        <v>Partner 3</v>
+        <v>Partner 4</v>
       </c>
       <c r="D123" t="str">
-        <v>investor3@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E123" t="str">
-        <v>+918322596794</v>
+        <v>+919091013248</v>
       </c>
       <c r="F123" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G123" t="str">
         <v>Series B</v>
       </c>
       <c r="H123" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I123" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J123" t="str">
-        <v>Munich</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B124" t="str">
-        <v>Investor 4</v>
+        <v>Investor 5</v>
       </c>
       <c r="C124" t="str">
-        <v>Partner 4</v>
+        <v>Partner 5</v>
       </c>
       <c r="D124" t="str">
-        <v>investor4@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E124" t="str">
-        <v>+919091013248</v>
+        <v>+917687937169</v>
       </c>
       <c r="F124" t="str">
         <v>Venture Capital</v>
       </c>
       <c r="G124" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H124" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I124" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J124" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B125" t="str">
-        <v>Investor 5</v>
+        <v>Investor 6</v>
       </c>
       <c r="C125" t="str">
-        <v>Partner 5</v>
+        <v>Partner 6</v>
       </c>
       <c r="D125" t="str">
-        <v>investor5@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E125" t="str">
-        <v>+917687937169</v>
+        <v>+917922030026</v>
       </c>
       <c r="F125" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G125" t="str">
         <v>Seed</v>
       </c>
       <c r="H125" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I125" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J125" t="str">
         <v>London</v>
@@ -4470,31 +4497,31 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B126" t="str">
-        <v>Investor 6</v>
+        <v>Investor 7</v>
       </c>
       <c r="C126" t="str">
-        <v>Partner 6</v>
+        <v>Partner 7</v>
       </c>
       <c r="D126" t="str">
-        <v>investor6@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E126" t="str">
-        <v>+917922030026</v>
+        <v>+917420830720</v>
       </c>
       <c r="F126" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G126" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H126" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I126" t="str">
-        <v>Bavaria</v>
+        <v>California</v>
       </c>
       <c r="J126" t="str">
         <v>London</v>
@@ -4502,211 +4529,211 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" t="str">
-        <v>Investor 7</v>
+        <v>Investor 8</v>
       </c>
       <c r="C127" t="str">
-        <v>Partner 7</v>
+        <v>Partner 8</v>
       </c>
       <c r="D127" t="str">
-        <v>investor7@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E127" t="str">
-        <v>+917420830720</v>
+        <v>+919754829773</v>
       </c>
       <c r="F127" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G127" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H127" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I127" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J127" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B128" t="str">
-        <v>Investor 8</v>
+        <v>Investor 9</v>
       </c>
       <c r="C128" t="str">
-        <v>Partner 8</v>
+        <v>Partner 9</v>
       </c>
       <c r="D128" t="str">
-        <v>investor8@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E128" t="str">
-        <v>+919754829773</v>
+        <v>+917917944002</v>
       </c>
       <c r="F128" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G128" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H128" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I128" t="str">
-        <v>Bavaria</v>
+        <v>Karnataka</v>
       </c>
       <c r="J128" t="str">
-        <v>Montreal</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B129" t="str">
-        <v>Investor 9</v>
+        <v>Investor 10</v>
       </c>
       <c r="C129" t="str">
-        <v>Partner 9</v>
+        <v>Partner 10</v>
       </c>
       <c r="D129" t="str">
-        <v>investor9@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E129" t="str">
-        <v>+917917944002</v>
+        <v>+919541494666</v>
       </c>
       <c r="F129" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G129" t="str">
         <v>Series A</v>
       </c>
       <c r="H129" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I129" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J129" t="str">
-        <v>Toronto</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B130" t="str">
-        <v>Investor 10</v>
+        <v>Investor 11</v>
       </c>
       <c r="C130" t="str">
-        <v>Partner 10</v>
+        <v>Partner 11</v>
       </c>
       <c r="D130" t="str">
-        <v>investor10@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E130" t="str">
-        <v>+919541494666</v>
+        <v>+919709142438</v>
       </c>
       <c r="F130" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G130" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H130" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I130" t="str">
-        <v>New York</v>
+        <v>Karnataka</v>
       </c>
       <c r="J130" t="str">
-        <v>Bangalore</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B131" t="str">
-        <v>Investor 11</v>
+        <v>Investor 12</v>
       </c>
       <c r="C131" t="str">
-        <v>Partner 11</v>
+        <v>Partner 12</v>
       </c>
       <c r="D131" t="str">
-        <v>investor11@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E131" t="str">
-        <v>+919709142438</v>
+        <v>+919928494502</v>
       </c>
       <c r="F131" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G131" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H131" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I131" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J131" t="str">
-        <v>San Francisco</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B132" t="str">
-        <v>Investor 12</v>
+        <v>Investor 13</v>
       </c>
       <c r="C132" t="str">
-        <v>Partner 12</v>
+        <v>Partner 13</v>
       </c>
       <c r="D132" t="str">
-        <v>investor12@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E132" t="str">
-        <v>+919928494502</v>
+        <v>+919840498515</v>
       </c>
       <c r="F132" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G132" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H132" t="str">
-        <v>Germany</v>
+        <v>UK</v>
       </c>
       <c r="I132" t="str">
         <v>London</v>
       </c>
       <c r="J132" t="str">
-        <v>Munich</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B133" t="str">
-        <v>Investor 13</v>
+        <v>Investor 14</v>
       </c>
       <c r="C133" t="str">
-        <v>Partner 13</v>
+        <v>Partner 14</v>
       </c>
       <c r="D133" t="str">
-        <v>investor13@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E133" t="str">
-        <v>+919840498515</v>
+        <v>+919668202693</v>
       </c>
       <c r="F133" t="str">
         <v>Hedge Fund</v>
@@ -4715,62 +4742,62 @@
         <v>Mature</v>
       </c>
       <c r="H133" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I133" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J133" t="str">
-        <v>Montreal</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B134" t="str">
-        <v>Investor 14</v>
+        <v>Investor 15</v>
       </c>
       <c r="C134" t="str">
-        <v>Partner 14</v>
+        <v>Partner 15</v>
       </c>
       <c r="D134" t="str">
-        <v>investor14@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E134" t="str">
-        <v>+919668202693</v>
+        <v>+917931611617</v>
       </c>
       <c r="F134" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G134" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H134" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I134" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J134" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B135" t="str">
-        <v>Investor 15</v>
+        <v>Investor 16</v>
       </c>
       <c r="C135" t="str">
-        <v>Partner 15</v>
+        <v>Partner 16</v>
       </c>
       <c r="D135" t="str">
-        <v>investor15@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E135" t="str">
-        <v>+917931611617</v>
+        <v>+917005717560</v>
       </c>
       <c r="F135" t="str">
         <v>Private Equity</v>
@@ -4782,123 +4809,123 @@
         <v>India</v>
       </c>
       <c r="I135" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J135" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B136" t="str">
-        <v>Investor 16</v>
+        <v>Investor 17</v>
       </c>
       <c r="C136" t="str">
-        <v>Partner 16</v>
+        <v>Partner 17</v>
       </c>
       <c r="D136" t="str">
-        <v>investor16@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E136" t="str">
-        <v>+917005717560</v>
+        <v>+919471731806</v>
       </c>
       <c r="F136" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G136" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H136" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I136" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J136" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B137" t="str">
-        <v>Investor 17</v>
+        <v>Investor 18</v>
       </c>
       <c r="C137" t="str">
-        <v>Partner 17</v>
+        <v>Partner 18</v>
       </c>
       <c r="D137" t="str">
-        <v>investor17@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E137" t="str">
-        <v>+919471731806</v>
+        <v>+917415441156</v>
       </c>
       <c r="F137" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G137" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H137" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I137" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J137" t="str">
-        <v>New York</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" t="str">
-        <v>Investor 18</v>
+        <v>Investor 19</v>
       </c>
       <c r="C138" t="str">
-        <v>Partner 18</v>
+        <v>Partner 19</v>
       </c>
       <c r="D138" t="str">
-        <v>investor18@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E138" t="str">
-        <v>+917415441156</v>
+        <v>+919428216935</v>
       </c>
       <c r="F138" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G138" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H138" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I138" t="str">
-        <v>Karnataka</v>
+        <v>Berlin</v>
       </c>
       <c r="J138" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" t="str">
-        <v>Investor 19</v>
+        <v>Investor 20</v>
       </c>
       <c r="C139" t="str">
-        <v>Partner 19</v>
+        <v>Partner 20</v>
       </c>
       <c r="D139" t="str">
-        <v>investor19@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E139" t="str">
-        <v>+919428216935</v>
+        <v>+918769140108</v>
       </c>
       <c r="F139" t="str">
         <v>Private Equity</v>
@@ -4910,7 +4937,7 @@
         <v>Germany</v>
       </c>
       <c r="I139" t="str">
-        <v>Berlin</v>
+        <v>Quebec</v>
       </c>
       <c r="J139" t="str">
         <v>Toronto</v>
@@ -4918,182 +4945,182 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" t="str">
-        <v>Investor 20</v>
+        <v>Investor 21</v>
       </c>
       <c r="C140" t="str">
-        <v>Partner 20</v>
+        <v>Partner 21</v>
       </c>
       <c r="D140" t="str">
-        <v>investor20@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E140" t="str">
-        <v>+918769140108</v>
+        <v>+917535520288</v>
       </c>
       <c r="F140" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G140" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H140" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I140" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J140" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B141" t="str">
-        <v>Investor 21</v>
+        <v>Investor 22</v>
       </c>
       <c r="C141" t="str">
-        <v>Partner 21</v>
+        <v>Partner 22</v>
       </c>
       <c r="D141" t="str">
-        <v>investor21@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E141" t="str">
-        <v>+917535520288</v>
+        <v>+919790702358</v>
       </c>
       <c r="F141" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G141" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H141" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I141" t="str">
-        <v>Karnataka</v>
+        <v>New York</v>
       </c>
       <c r="J141" t="str">
-        <v>San Francisco</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B142" t="str">
-        <v>Investor 22</v>
+        <v>Investor 23</v>
       </c>
       <c r="C142" t="str">
-        <v>Partner 22</v>
+        <v>Partner 23</v>
       </c>
       <c r="D142" t="str">
-        <v>investor22@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E142" t="str">
-        <v>+919790702358</v>
+        <v>+918792543797</v>
       </c>
       <c r="F142" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G142" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H142" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I142" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J142" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B143" t="str">
-        <v>Investor 23</v>
+        <v>Investor 24</v>
       </c>
       <c r="C143" t="str">
-        <v>Partner 23</v>
+        <v>Partner 24</v>
       </c>
       <c r="D143" t="str">
-        <v>investor23@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E143" t="str">
-        <v>+918792543797</v>
+        <v>+919722499145</v>
       </c>
       <c r="F143" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G143" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H143" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I143" t="str">
-        <v>Texas</v>
+        <v>Quebec</v>
       </c>
       <c r="J143" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B144" t="str">
-        <v>Investor 24</v>
+        <v>Investor 25</v>
       </c>
       <c r="C144" t="str">
-        <v>Partner 24</v>
+        <v>Partner 25</v>
       </c>
       <c r="D144" t="str">
-        <v>investor24@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E144" t="str">
-        <v>+919722499145</v>
+        <v>+917513411451</v>
       </c>
       <c r="F144" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G144" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H144" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I144" t="str">
-        <v>Quebec</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J144" t="str">
-        <v>Austin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B145" t="str">
-        <v>Investor 25</v>
+        <v>Investor 26</v>
       </c>
       <c r="C145" t="str">
-        <v>Partner 25</v>
+        <v>Partner 26</v>
       </c>
       <c r="D145" t="str">
-        <v>investor25@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E145" t="str">
-        <v>+917513411451</v>
+        <v>+918240603398</v>
       </c>
       <c r="F145" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G145" t="str">
         <v>Series A</v>
@@ -5102,91 +5129,91 @@
         <v>Canada</v>
       </c>
       <c r="I145" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="J145" t="str">
-        <v>London</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" t="str">
-        <v>Investor 26</v>
+        <v>Investor 27</v>
       </c>
       <c r="C146" t="str">
-        <v>Partner 26</v>
+        <v>Partner 27</v>
       </c>
       <c r="D146" t="str">
-        <v>investor26@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E146" t="str">
-        <v>+918240603398</v>
+        <v>+918169275812</v>
       </c>
       <c r="F146" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G146" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H146" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I146" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J146" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B147" t="str">
-        <v>Investor 27</v>
+        <v>Investor 28</v>
       </c>
       <c r="C147" t="str">
-        <v>Partner 27</v>
+        <v>Partner 28</v>
       </c>
       <c r="D147" t="str">
-        <v>investor27@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E147" t="str">
-        <v>+918169275812</v>
+        <v>+917995480118</v>
       </c>
       <c r="F147" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G147" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H147" t="str">
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="I147" t="str">
-        <v>Bavaria</v>
+        <v>Ontario</v>
       </c>
       <c r="J147" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B148" t="str">
-        <v>Investor 28</v>
+        <v>Investor 29</v>
       </c>
       <c r="C148" t="str">
-        <v>Partner 28</v>
+        <v>Partner 29</v>
       </c>
       <c r="D148" t="str">
-        <v>investor28@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E148" t="str">
-        <v>+917995480118</v>
+        <v>+919044015128</v>
       </c>
       <c r="F148" t="str">
         <v>Private Equity</v>
@@ -5195,82 +5222,1220 @@
         <v>Series A</v>
       </c>
       <c r="H148" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I148" t="str">
-        <v>Ontario</v>
+        <v>New York</v>
       </c>
       <c r="J148" t="str">
-        <v>London</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149" t="str">
-        <v>Investor 29</v>
+        <v>Investor 30</v>
       </c>
       <c r="C149" t="str">
-        <v>Partner 29</v>
+        <v>Partner 30</v>
       </c>
       <c r="D149" t="str">
-        <v>investor29@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E149" t="str">
-        <v>+919044015128</v>
+        <v>+919927955922</v>
       </c>
       <c r="F149" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G149" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H149" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I149" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J149" t="str">
-        <v>Austin</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>154</v>
-      </c>
-      <c r="B150" t="str">
+        <v>155</v>
+      </c>
+      <c r="K150" t="str">
+        <v>Priyanshi</v>
+      </c>
+      <c r="L150" t="str">
+        <v xml:space="preserve">Priya </v>
+      </c>
+      <c r="M150" t="str">
+        <v>priya@gmail.com</v>
+      </c>
+      <c r="N150" t="str">
+        <v>12356789</v>
+      </c>
+      <c r="O150" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="P150" t="str">
+        <v>Series C</v>
+      </c>
+      <c r="Q150" t="str">
+        <v>India</v>
+      </c>
+      <c r="R150" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S150" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T150" t="str">
+        <v>30K</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>156</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D151" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E151" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H151" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I151" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J151" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>157</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D152" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E152" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F152" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G152" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H152" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I152" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J152" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>158</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Partner 3</v>
+      </c>
+      <c r="D153" t="str">
+        <v>investor3@example.com</v>
+      </c>
+      <c r="E153" t="str">
+        <v>+918322596794</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H153" t="str">
+        <v>India</v>
+      </c>
+      <c r="I153" t="str">
+        <v>California</v>
+      </c>
+      <c r="J153" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>159</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Investor 4</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Partner 4</v>
+      </c>
+      <c r="D154" t="str">
+        <v>investor4@example.com</v>
+      </c>
+      <c r="E154" t="str">
+        <v>+919091013248</v>
+      </c>
+      <c r="F154" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G154" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H154" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I154" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J154" t="str">
+        <v>Berlin</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>160</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Investor 5</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Partner 5</v>
+      </c>
+      <c r="D155" t="str">
+        <v>investor5@example.com</v>
+      </c>
+      <c r="E155" t="str">
+        <v>+917687937169</v>
+      </c>
+      <c r="F155" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G155" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H155" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I155" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J155" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>161</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Investor 6</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Partner 6</v>
+      </c>
+      <c r="D156" t="str">
+        <v>investor6@example.com</v>
+      </c>
+      <c r="E156" t="str">
+        <v>+917922030026</v>
+      </c>
+      <c r="F156" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G156" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H156" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I156" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J156" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>162</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Investor 7</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Partner 7</v>
+      </c>
+      <c r="D157" t="str">
+        <v>investor7@example.com</v>
+      </c>
+      <c r="E157" t="str">
+        <v>+917420830720</v>
+      </c>
+      <c r="F157" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G157" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H157" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I157" t="str">
+        <v>California</v>
+      </c>
+      <c r="J157" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>163</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Investor 8</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Partner 8</v>
+      </c>
+      <c r="D158" t="str">
+        <v>investor8@example.com</v>
+      </c>
+      <c r="E158" t="str">
+        <v>+919754829773</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G158" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H158" t="str">
+        <v>India</v>
+      </c>
+      <c r="I158" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J158" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>164</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Investor 9</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Partner 9</v>
+      </c>
+      <c r="D159" t="str">
+        <v>investor9@example.com</v>
+      </c>
+      <c r="E159" t="str">
+        <v>+917917944002</v>
+      </c>
+      <c r="F159" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G159" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H159" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I159" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J159" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>165</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Investor 10</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Partner 10</v>
+      </c>
+      <c r="D160" t="str">
+        <v>investor10@example.com</v>
+      </c>
+      <c r="E160" t="str">
+        <v>+919541494666</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G160" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H160" t="str">
+        <v>India</v>
+      </c>
+      <c r="I160" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J160" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>166</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Investor 11</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Partner 11</v>
+      </c>
+      <c r="D161" t="str">
+        <v>investor11@example.com</v>
+      </c>
+      <c r="E161" t="str">
+        <v>+919709142438</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G161" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H161" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I161" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J161" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>167</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Investor 12</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Partner 12</v>
+      </c>
+      <c r="D162" t="str">
+        <v>investor12@example.com</v>
+      </c>
+      <c r="E162" t="str">
+        <v>+919928494502</v>
+      </c>
+      <c r="F162" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G162" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H162" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I162" t="str">
+        <v>London</v>
+      </c>
+      <c r="J162" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>168</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Investor 13</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Partner 13</v>
+      </c>
+      <c r="D163" t="str">
+        <v>investor13@example.com</v>
+      </c>
+      <c r="E163" t="str">
+        <v>+919840498515</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G163" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H163" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I163" t="str">
+        <v>London</v>
+      </c>
+      <c r="J163" t="str">
+        <v>Montreal</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>169</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Investor 14</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Partner 14</v>
+      </c>
+      <c r="D164" t="str">
+        <v>investor14@example.com</v>
+      </c>
+      <c r="E164" t="str">
+        <v>+919668202693</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G164" t="str">
+        <v>Mature</v>
+      </c>
+      <c r="H164" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I164" t="str">
+        <v>California</v>
+      </c>
+      <c r="J164" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>170</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Investor 15</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Partner 15</v>
+      </c>
+      <c r="D165" t="str">
+        <v>investor15@example.com</v>
+      </c>
+      <c r="E165" t="str">
+        <v>+917931611617</v>
+      </c>
+      <c r="F165" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G165" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H165" t="str">
+        <v>India</v>
+      </c>
+      <c r="I165" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J165" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>171</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Investor 16</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Partner 16</v>
+      </c>
+      <c r="D166" t="str">
+        <v>investor16@example.com</v>
+      </c>
+      <c r="E166" t="str">
+        <v>+917005717560</v>
+      </c>
+      <c r="F166" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G166" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H166" t="str">
+        <v>India</v>
+      </c>
+      <c r="I166" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J166" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>172</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Investor 17</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Partner 17</v>
+      </c>
+      <c r="D167" t="str">
+        <v>investor17@example.com</v>
+      </c>
+      <c r="E167" t="str">
+        <v>+919471731806</v>
+      </c>
+      <c r="F167" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G167" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H167" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I167" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J167" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>173</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Investor 18</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Partner 18</v>
+      </c>
+      <c r="D168" t="str">
+        <v>investor18@example.com</v>
+      </c>
+      <c r="E168" t="str">
+        <v>+917415441156</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G168" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H168" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I168" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J168" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>174</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Investor 19</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Partner 19</v>
+      </c>
+      <c r="D169" t="str">
+        <v>investor19@example.com</v>
+      </c>
+      <c r="E169" t="str">
+        <v>+919428216935</v>
+      </c>
+      <c r="F169" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G169" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H169" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I169" t="str">
+        <v>Berlin</v>
+      </c>
+      <c r="J169" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>175</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Investor 20</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Partner 20</v>
+      </c>
+      <c r="D170" t="str">
+        <v>investor20@example.com</v>
+      </c>
+      <c r="E170" t="str">
+        <v>+918769140108</v>
+      </c>
+      <c r="F170" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G170" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H170" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I170" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J170" t="str">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>176</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Investor 21</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Partner 21</v>
+      </c>
+      <c r="D171" t="str">
+        <v>investor21@example.com</v>
+      </c>
+      <c r="E171" t="str">
+        <v>+917535520288</v>
+      </c>
+      <c r="F171" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G171" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H171" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I171" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J171" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>177</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Investor 22</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Partner 22</v>
+      </c>
+      <c r="D172" t="str">
+        <v>investor22@example.com</v>
+      </c>
+      <c r="E172" t="str">
+        <v>+919790702358</v>
+      </c>
+      <c r="F172" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G172" t="str">
+        <v>Series B</v>
+      </c>
+      <c r="H172" t="str">
+        <v>India</v>
+      </c>
+      <c r="I172" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J172" t="str">
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>178</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Investor 23</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Partner 23</v>
+      </c>
+      <c r="D173" t="str">
+        <v>investor23@example.com</v>
+      </c>
+      <c r="E173" t="str">
+        <v>+918792543797</v>
+      </c>
+      <c r="F173" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G173" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H173" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I173" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J173" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>179</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Investor 24</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Partner 24</v>
+      </c>
+      <c r="D174" t="str">
+        <v>investor24@example.com</v>
+      </c>
+      <c r="E174" t="str">
+        <v>+919722499145</v>
+      </c>
+      <c r="F174" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G174" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H174" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I174" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="J174" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>180</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Investor 25</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Partner 25</v>
+      </c>
+      <c r="D175" t="str">
+        <v>investor25@example.com</v>
+      </c>
+      <c r="E175" t="str">
+        <v>+917513411451</v>
+      </c>
+      <c r="F175" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G175" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H175" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I175" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="J175" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>181</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Investor 26</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Partner 26</v>
+      </c>
+      <c r="D176" t="str">
+        <v>investor26@example.com</v>
+      </c>
+      <c r="E176" t="str">
+        <v>+918240603398</v>
+      </c>
+      <c r="F176" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G176" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H176" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I176" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="J176" t="str">
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>182</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Investor 27</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Partner 27</v>
+      </c>
+      <c r="D177" t="str">
+        <v>investor27@example.com</v>
+      </c>
+      <c r="E177" t="str">
+        <v>+918169275812</v>
+      </c>
+      <c r="F177" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="G177" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H177" t="str">
+        <v>UK</v>
+      </c>
+      <c r="I177" t="str">
+        <v>Bavaria</v>
+      </c>
+      <c r="J177" t="str">
+        <v>Munich</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>183</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Investor 28</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Partner 28</v>
+      </c>
+      <c r="D178" t="str">
+        <v>investor28@example.com</v>
+      </c>
+      <c r="E178" t="str">
+        <v>+917995480118</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G178" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H178" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I178" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="J178" t="str">
+        <v>London</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>184</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Investor 29</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Partner 29</v>
+      </c>
+      <c r="D179" t="str">
+        <v>investor29@example.com</v>
+      </c>
+      <c r="E179" t="str">
+        <v>+919044015128</v>
+      </c>
+      <c r="F179" t="str">
+        <v>Private Equity</v>
+      </c>
+      <c r="G179" t="str">
+        <v>Series A</v>
+      </c>
+      <c r="H179" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I179" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J179" t="str">
+        <v>Austin</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>185</v>
+      </c>
+      <c r="B180" t="str">
         <v>Investor 30</v>
       </c>
-      <c r="C150" t="str">
+      <c r="C180" t="str">
         <v>Partner 30</v>
       </c>
-      <c r="D150" t="str">
+      <c r="D180" t="str">
         <v>investor30@example.com</v>
       </c>
-      <c r="E150" t="str">
+      <c r="E180" t="str">
         <v>+919927955922</v>
       </c>
-      <c r="F150" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G150" t="str">
+      <c r="F180" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G180" t="str">
         <v>Mature</v>
       </c>
-      <c r="H150" t="str">
+      <c r="H180" t="str">
         <v>India</v>
       </c>
-      <c r="I150" t="str">
+      <c r="I180" t="str">
         <v>Quebec</v>
       </c>
-      <c r="J150" t="str">
+      <c r="J180" t="str">
         <v>Munich</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>186</v>
+      </c>
+      <c r="H181" t="str">
+        <v>India</v>
+      </c>
+      <c r="U181" t="str">
+        <v>Sequoia Capital India</v>
+      </c>
+      <c r="V181" t="str">
+        <v>Shailendra Singh</v>
+      </c>
+      <c r="W181" t="str">
+        <v>shailendra@sequoiacap.com</v>
+      </c>
+      <c r="X181" t="str">
+        <v>+91-9876543210</v>
+      </c>
+      <c r="Y181" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z181" t="str">
+        <v>Seed, Series A, Series B</v>
+      </c>
+      <c r="AA181" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="AB181" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="AC181" t="str">
+        <v>USD 500K - 20M</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>187</v>
+      </c>
+      <c r="H182" t="str">
+        <v>India</v>
+      </c>
+      <c r="U182" t="str">
+        <v>Accel Partners</v>
+      </c>
+      <c r="V182" t="str">
+        <v>Prashanth Prakash</v>
+      </c>
+      <c r="W182" t="str">
+        <v>prashanth@accel.com</v>
+      </c>
+      <c r="X182" t="str">
+        <v>+91-9988776655</v>
+      </c>
+      <c r="Y182" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z182" t="str">
+        <v>Seed, Early Stage</v>
+      </c>
+      <c r="AA182" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="AB182" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="AC182" t="str">
+        <v>USD 300K - 15M</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>188</v>
+      </c>
+      <c r="H183" t="str">
+        <v>India</v>
+      </c>
+      <c r="U183" t="str">
+        <v>Lightspeed India Partners</v>
+      </c>
+      <c r="V183" t="str">
+        <v>Dev Khare</v>
+      </c>
+      <c r="W183" t="str">
+        <v>dev@lsvp.com</v>
+      </c>
+      <c r="X183" t="str">
+        <v>+91-9123456780</v>
+      </c>
+      <c r="Y183" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z183" t="str">
+        <v>Seed, Series A, Series B</v>
+      </c>
+      <c r="AA183" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="AB183" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="AC183" t="str">
+        <v>USD 500K - 25M</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>189</v>
+      </c>
+      <c r="H184" t="str">
+        <v>India</v>
+      </c>
+      <c r="U184" t="str">
+        <v>Matrix Partners India</v>
+      </c>
+      <c r="V184" t="str">
+        <v>Avnish Bajaj</v>
+      </c>
+      <c r="W184" t="str">
+        <v>avnish@matrixpartners.in</v>
+      </c>
+      <c r="X184" t="str">
+        <v>+91-9765432109</v>
+      </c>
+      <c r="Y184" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z184" t="str">
+        <v>Seed, Early Stage</v>
+      </c>
+      <c r="AA184" t="str">
+        <v>Maharashtra</v>
+      </c>
+      <c r="AB184" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="AC184" t="str">
+        <v>USD 200K - 10M</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>190</v>
+      </c>
+      <c r="H185" t="str">
+        <v>India</v>
+      </c>
+      <c r="U185" t="str">
+        <v>Kalaari Capital</v>
+      </c>
+      <c r="V185" t="str">
+        <v>Vani Kola</v>
+      </c>
+      <c r="W185" t="str">
+        <v>vani@kalaari.com</v>
+      </c>
+      <c r="X185" t="str">
+        <v>+91-9012345678</v>
+      </c>
+      <c r="Y185" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z185" t="str">
+        <v>Seed, Early Stage, Growth</v>
+      </c>
+      <c r="AA185" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="AB185" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="AC185" t="str">
+        <v>USD 250K - 12M</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T150"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC185"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/investors.xlsx
+++ b/backend/data/investors.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,93 +493,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="str">
-        <v>Investor 3</v>
+        <v>Investor 6</v>
       </c>
       <c r="C2" t="str">
-        <v>Partner 3</v>
+        <v>Partner 6</v>
       </c>
       <c r="D2" t="str">
-        <v>investor3@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E2" t="str">
-        <v>+918322596794</v>
+        <v>+917922030026</v>
       </c>
       <c r="F2" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G2" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H2" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I2" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J2" t="str">
-        <v>Munich</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Investor 3</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Partner 3</v>
-      </c>
-      <c r="M2" t="str">
-        <v>investor3@example.com</v>
-      </c>
-      <c r="N2" t="str">
-        <v>+918322596794</v>
-      </c>
-      <c r="O2" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Series B</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>India</v>
-      </c>
-      <c r="R2" t="str">
-        <v>California</v>
-      </c>
-      <c r="S2" t="str">
-        <v>Kharogne</v>
-      </c>
-      <c r="T2" t="str">
-        <v>30k</v>
+        <v>London</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="str">
-        <v>Investor 5</v>
+        <v>Investor 7</v>
       </c>
       <c r="C3" t="str">
-        <v>Partner 5</v>
+        <v>Partner 7</v>
       </c>
       <c r="D3" t="str">
-        <v>investor5@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E3" t="str">
-        <v>+917687937169</v>
+        <v>+917420830720</v>
       </c>
       <c r="F3" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G3" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H3" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I3" t="str">
-        <v>Maharashtra</v>
+        <v>California</v>
       </c>
       <c r="J3" t="str">
         <v>London</v>
@@ -587,534 +557,534 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="str">
-        <v>Investor 6</v>
+        <v>Investor 8</v>
       </c>
       <c r="C4" t="str">
-        <v>Partner 6</v>
+        <v>Partner 8</v>
       </c>
       <c r="D4" t="str">
-        <v>investor6@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E4" t="str">
-        <v>+917922030026</v>
+        <v>+919754829773</v>
       </c>
       <c r="F4" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G4" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H4" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I4" t="str">
         <v>Bavaria</v>
       </c>
       <c r="J4" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="str">
-        <v>Investor 7</v>
+        <v>Investor 9</v>
       </c>
       <c r="C5" t="str">
-        <v>Partner 7</v>
+        <v>Partner 9</v>
       </c>
       <c r="D5" t="str">
-        <v>investor7@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E5" t="str">
-        <v>+917420830720</v>
+        <v>+917917944002</v>
       </c>
       <c r="F5" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G5" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H5" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I5" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J5" t="str">
-        <v>London</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="str">
-        <v>Investor 8</v>
+        <v>Investor 10</v>
       </c>
       <c r="C6" t="str">
-        <v>Partner 8</v>
+        <v>Partner 10</v>
       </c>
       <c r="D6" t="str">
-        <v>investor8@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E6" t="str">
-        <v>+919754829773</v>
+        <v>+919541494666</v>
       </c>
       <c r="F6" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G6" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H6" t="str">
         <v>India</v>
       </c>
       <c r="I6" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J6" t="str">
-        <v>Montreal</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="str">
-        <v>Investor 9</v>
+        <v>Investor 11</v>
       </c>
       <c r="C7" t="str">
-        <v>Partner 9</v>
+        <v>Partner 11</v>
       </c>
       <c r="D7" t="str">
-        <v>investor9@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E7" t="str">
-        <v>+917917944002</v>
+        <v>+919709142438</v>
       </c>
       <c r="F7" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G7" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H7" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I7" t="str">
         <v>Karnataka</v>
       </c>
       <c r="J7" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="str">
-        <v>Investor 10</v>
+        <v>Investor 13</v>
       </c>
       <c r="C8" t="str">
-        <v>Partner 10</v>
+        <v>Partner 13</v>
       </c>
       <c r="D8" t="str">
-        <v>investor10@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E8" t="str">
-        <v>+919541494666</v>
+        <v>+919840498515</v>
       </c>
       <c r="F8" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G8" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H8" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I8" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="J8" t="str">
-        <v>Bangalore</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="str">
-        <v>Investor 11</v>
+        <v>Investor 14</v>
       </c>
       <c r="C9" t="str">
-        <v>Partner 11</v>
+        <v>Partner 14</v>
       </c>
       <c r="D9" t="str">
-        <v>investor11@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E9" t="str">
-        <v>+919709142438</v>
+        <v>+919668202693</v>
       </c>
       <c r="F9" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G9" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H9" t="str">
         <v>USA</v>
       </c>
       <c r="I9" t="str">
-        <v>Karnataka</v>
+        <v>California</v>
       </c>
       <c r="J9" t="str">
-        <v>San Francisco</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="str">
-        <v>Investor 13</v>
+        <v>Investor 15</v>
       </c>
       <c r="C10" t="str">
-        <v>Partner 13</v>
+        <v>Partner 15</v>
       </c>
       <c r="D10" t="str">
-        <v>investor13@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E10" t="str">
-        <v>+919840498515</v>
+        <v>+917931611617</v>
       </c>
       <c r="F10" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G10" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H10" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I10" t="str">
-        <v>London</v>
+        <v>Karnataka</v>
       </c>
       <c r="J10" t="str">
-        <v>Montreal</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="str">
-        <v>Investor 14</v>
+        <v>Investor 16</v>
       </c>
       <c r="C11" t="str">
-        <v>Partner 14</v>
+        <v>Partner 16</v>
       </c>
       <c r="D11" t="str">
-        <v>investor14@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E11" t="str">
-        <v>+919668202693</v>
+        <v>+917005717560</v>
       </c>
       <c r="F11" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G11" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H11" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I11" t="str">
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="J11" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="str">
-        <v>Investor 15</v>
+        <v>Investor 17</v>
       </c>
       <c r="C12" t="str">
-        <v>Partner 15</v>
+        <v>Partner 17</v>
       </c>
       <c r="D12" t="str">
-        <v>investor15@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E12" t="str">
-        <v>+917931611617</v>
+        <v>+919471731806</v>
       </c>
       <c r="F12" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G12" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H12" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I12" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J12" t="str">
-        <v>Austin</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="str">
-        <v>Investor 16</v>
+        <v>Investor 18</v>
       </c>
       <c r="C13" t="str">
-        <v>Partner 16</v>
+        <v>Partner 18</v>
       </c>
       <c r="D13" t="str">
-        <v>investor16@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E13" t="str">
-        <v>+917005717560</v>
+        <v>+917415441156</v>
       </c>
       <c r="F13" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G13" t="str">
         <v>Seed</v>
       </c>
       <c r="H13" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I13" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J13" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="str">
-        <v>Investor 17</v>
+        <v>Investor 19</v>
       </c>
       <c r="C14" t="str">
-        <v>Partner 17</v>
+        <v>Partner 19</v>
       </c>
       <c r="D14" t="str">
-        <v>investor17@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E14" t="str">
-        <v>+919471731806</v>
+        <v>+919428216935</v>
       </c>
       <c r="F14" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G14" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H14" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I14" t="str">
-        <v>Quebec</v>
+        <v>Berlin</v>
       </c>
       <c r="J14" t="str">
-        <v>New York</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="str">
-        <v>Investor 18</v>
+        <v>Investor 20</v>
       </c>
       <c r="C15" t="str">
-        <v>Partner 18</v>
+        <v>Partner 20</v>
       </c>
       <c r="D15" t="str">
-        <v>investor18@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E15" t="str">
-        <v>+917415441156</v>
+        <v>+918769140108</v>
       </c>
       <c r="F15" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G15" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H15" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I15" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J15" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="str">
-        <v>Investor 19</v>
+        <v>Investor 21</v>
       </c>
       <c r="C16" t="str">
-        <v>Partner 19</v>
+        <v>Partner 21</v>
       </c>
       <c r="D16" t="str">
-        <v>investor19@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E16" t="str">
-        <v>+919428216935</v>
+        <v>+917535520288</v>
       </c>
       <c r="F16" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G16" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H16" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I16" t="str">
-        <v>Berlin</v>
+        <v>Karnataka</v>
       </c>
       <c r="J16" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="str">
-        <v>Investor 20</v>
+        <v>Investor 22</v>
       </c>
       <c r="C17" t="str">
-        <v>Partner 20</v>
+        <v>Partner 22</v>
       </c>
       <c r="D17" t="str">
-        <v>investor20@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E17" t="str">
-        <v>+918769140108</v>
+        <v>+919790702358</v>
       </c>
       <c r="F17" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G17" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H17" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I17" t="str">
-        <v>Quebec</v>
+        <v>New York</v>
       </c>
       <c r="J17" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="str">
-        <v>Investor 21</v>
+        <v>Investor 23</v>
       </c>
       <c r="C18" t="str">
-        <v>Partner 21</v>
+        <v>Partner 23</v>
       </c>
       <c r="D18" t="str">
-        <v>investor21@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E18" t="str">
-        <v>+917535520288</v>
+        <v>+918792543797</v>
       </c>
       <c r="F18" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G18" t="str">
         <v>Series A</v>
       </c>
       <c r="H18" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I18" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J18" t="str">
-        <v>San Francisco</v>
+        <v>London</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="str">
-        <v>Investor 22</v>
+        <v>Investor 24</v>
       </c>
       <c r="C19" t="str">
-        <v>Partner 22</v>
+        <v>Partner 24</v>
       </c>
       <c r="D19" t="str">
-        <v>investor22@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E19" t="str">
-        <v>+919790702358</v>
+        <v>+919722499145</v>
       </c>
       <c r="F19" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G19" t="str">
-        <v>Series B</v>
+        <v>Growth</v>
       </c>
       <c r="H19" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I19" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J19" t="str">
-        <v>New York</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="str">
-        <v>Investor 23</v>
+        <v>Investor 25</v>
       </c>
       <c r="C20" t="str">
-        <v>Partner 23</v>
+        <v>Partner 25</v>
       </c>
       <c r="D20" t="str">
-        <v>investor23@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E20" t="str">
-        <v>+918792543797</v>
+        <v>+917513411451</v>
       </c>
       <c r="F20" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G20" t="str">
         <v>Series A</v>
@@ -1123,7 +1093,7 @@
         <v>Canada</v>
       </c>
       <c r="I20" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J20" t="str">
         <v>London</v>
@@ -1131,383 +1101,383 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="str">
-        <v>Investor 24</v>
+        <v>Investor 26</v>
       </c>
       <c r="C21" t="str">
-        <v>Partner 24</v>
+        <v>Partner 26</v>
       </c>
       <c r="D21" t="str">
-        <v>investor24@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E21" t="str">
-        <v>+919722499145</v>
+        <v>+918240603398</v>
       </c>
       <c r="F21" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G21" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H21" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I21" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J21" t="str">
-        <v>Austin</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="str">
-        <v>Investor 25</v>
+        <v>Investor 27</v>
       </c>
       <c r="C22" t="str">
-        <v>Partner 25</v>
+        <v>Partner 27</v>
       </c>
       <c r="D22" t="str">
-        <v>investor25@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E22" t="str">
-        <v>+917513411451</v>
+        <v>+918169275812</v>
       </c>
       <c r="F22" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G22" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H22" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I22" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J22" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="str">
-        <v>Investor 26</v>
+        <v>Investor 28</v>
       </c>
       <c r="C23" t="str">
-        <v>Partner 26</v>
+        <v>Partner 28</v>
       </c>
       <c r="D23" t="str">
-        <v>investor26@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E23" t="str">
-        <v>+918240603398</v>
+        <v>+917995480118</v>
       </c>
       <c r="F23" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G23" t="str">
         <v>Series A</v>
       </c>
       <c r="H23" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I23" t="str">
-        <v>Karnataka</v>
+        <v>Ontario</v>
       </c>
       <c r="J23" t="str">
-        <v>Bangalore</v>
+        <v>London</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="str">
-        <v>Investor 27</v>
+        <v>Investor 29</v>
       </c>
       <c r="C24" t="str">
-        <v>Partner 27</v>
+        <v>Partner 29</v>
       </c>
       <c r="D24" t="str">
-        <v>investor27@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E24" t="str">
-        <v>+918169275812</v>
+        <v>+919044015128</v>
       </c>
       <c r="F24" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G24" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H24" t="str">
-        <v>UK</v>
+        <v>Canada</v>
       </c>
       <c r="I24" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J24" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="str">
-        <v>Investor 28</v>
+        <v>Investor 30</v>
       </c>
       <c r="C25" t="str">
-        <v>Partner 28</v>
+        <v>Partner 30</v>
       </c>
       <c r="D25" t="str">
-        <v>investor28@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E25" t="str">
-        <v>+917995480118</v>
+        <v>+919927955922</v>
       </c>
       <c r="F25" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G25" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H25" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I25" t="str">
-        <v>Ontario</v>
+        <v>Quebec</v>
       </c>
       <c r="J25" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="str">
-        <v>Investor 29</v>
+        <v>Investor 1</v>
       </c>
       <c r="C26" t="str">
-        <v>Partner 29</v>
+        <v>Partner 1</v>
       </c>
       <c r="D26" t="str">
-        <v>investor29@example.com</v>
+        <v>investor1@example.com</v>
       </c>
       <c r="E26" t="str">
-        <v>+919044015128</v>
+        <v>+919047724970</v>
       </c>
       <c r="F26" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G26" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H26" t="str">
-        <v>Canada</v>
+        <v>Germany</v>
       </c>
       <c r="I26" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J26" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" t="str">
-        <v>Investor 30</v>
+        <v>Investor 2</v>
       </c>
       <c r="C27" t="str">
-        <v>Partner 30</v>
+        <v>Partner 2</v>
       </c>
       <c r="D27" t="str">
-        <v>investor30@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E27" t="str">
-        <v>+919927955922</v>
+        <v>+917620691166</v>
       </c>
       <c r="F27" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G27" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H27" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I27" t="str">
-        <v>Quebec</v>
+        <v>Texas</v>
       </c>
       <c r="J27" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="str">
-        <v>Investor 1</v>
+        <v>Investor 3</v>
       </c>
       <c r="C28" t="str">
-        <v>Partner 1</v>
+        <v>Partner 3</v>
       </c>
       <c r="D28" t="str">
-        <v>investor1@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E28" t="str">
-        <v>+919047724970</v>
+        <v>+918322596794</v>
       </c>
       <c r="F28" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G28" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H28" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I28" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J28" t="str">
-        <v>Toronto</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="str">
-        <v>Investor 2</v>
+        <v>Investor 4</v>
       </c>
       <c r="C29" t="str">
-        <v>Partner 2</v>
+        <v>Partner 4</v>
       </c>
       <c r="D29" t="str">
-        <v>investor2@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E29" t="str">
-        <v>+917620691166</v>
+        <v>+919091013248</v>
       </c>
       <c r="F29" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G29" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H29" t="str">
         <v>Canada</v>
       </c>
       <c r="I29" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J29" t="str">
-        <v>London</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="str">
-        <v>Investor 3</v>
+        <v>Investor 5</v>
       </c>
       <c r="C30" t="str">
-        <v>Partner 3</v>
+        <v>Partner 5</v>
       </c>
       <c r="D30" t="str">
-        <v>investor3@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E30" t="str">
-        <v>+918322596794</v>
+        <v>+917687937169</v>
       </c>
       <c r="F30" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G30" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H30" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I30" t="str">
-        <v>California</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J30" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="str">
-        <v>Investor 4</v>
+        <v>Investor 6</v>
       </c>
       <c r="C31" t="str">
-        <v>Partner 4</v>
+        <v>Partner 6</v>
       </c>
       <c r="D31" t="str">
-        <v>investor4@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E31" t="str">
-        <v>+919091013248</v>
+        <v>+917922030026</v>
       </c>
       <c r="F31" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G31" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H31" t="str">
         <v>Canada</v>
       </c>
       <c r="I31" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J31" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="str">
-        <v>Investor 5</v>
+        <v>Investor 7</v>
       </c>
       <c r="C32" t="str">
-        <v>Partner 5</v>
+        <v>Partner 7</v>
       </c>
       <c r="D32" t="str">
-        <v>investor5@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E32" t="str">
-        <v>+917687937169</v>
+        <v>+917420830720</v>
       </c>
       <c r="F32" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G32" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H32" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I32" t="str">
-        <v>Maharashtra</v>
+        <v>California</v>
       </c>
       <c r="J32" t="str">
         <v>London</v>
@@ -1515,223 +1485,223 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="str">
-        <v>Investor 6</v>
+        <v>Investor 8</v>
       </c>
       <c r="C33" t="str">
-        <v>Partner 6</v>
+        <v>Partner 8</v>
       </c>
       <c r="D33" t="str">
-        <v>investor6@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E33" t="str">
-        <v>+917922030026</v>
+        <v>+919754829773</v>
       </c>
       <c r="F33" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G33" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H33" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I33" t="str">
         <v>Bavaria</v>
       </c>
       <c r="J33" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="str">
-        <v>Investor 7</v>
+        <v>Investor 9</v>
       </c>
       <c r="C34" t="str">
-        <v>Partner 7</v>
+        <v>Partner 9</v>
       </c>
       <c r="D34" t="str">
-        <v>investor7@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E34" t="str">
-        <v>+917420830720</v>
+        <v>+917917944002</v>
       </c>
       <c r="F34" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G34" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H34" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I34" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J34" t="str">
-        <v>London</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="str">
-        <v>Investor 8</v>
+        <v>Investor 10</v>
       </c>
       <c r="C35" t="str">
-        <v>Partner 8</v>
+        <v>Partner 10</v>
       </c>
       <c r="D35" t="str">
-        <v>investor8@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E35" t="str">
-        <v>+919754829773</v>
+        <v>+919541494666</v>
       </c>
       <c r="F35" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G35" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H35" t="str">
         <v>India</v>
       </c>
       <c r="I35" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J35" t="str">
-        <v>Montreal</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="str">
-        <v>Investor 9</v>
+        <v>Investor 11</v>
       </c>
       <c r="C36" t="str">
-        <v>Partner 9</v>
+        <v>Partner 11</v>
       </c>
       <c r="D36" t="str">
-        <v>investor9@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E36" t="str">
-        <v>+917917944002</v>
+        <v>+919709142438</v>
       </c>
       <c r="F36" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G36" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H36" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I36" t="str">
         <v>Karnataka</v>
       </c>
       <c r="J36" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="str">
-        <v>Investor 10</v>
+        <v>Investor 12</v>
       </c>
       <c r="C37" t="str">
-        <v>Partner 10</v>
+        <v>Partner 12</v>
       </c>
       <c r="D37" t="str">
-        <v>investor10@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E37" t="str">
-        <v>+919541494666</v>
+        <v>+919928494502</v>
       </c>
       <c r="F37" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G37" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H37" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I37" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="J37" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="str">
-        <v>Investor 11</v>
+        <v>Investor 13</v>
       </c>
       <c r="C38" t="str">
-        <v>Partner 11</v>
+        <v>Partner 13</v>
       </c>
       <c r="D38" t="str">
-        <v>investor11@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E38" t="str">
-        <v>+919709142438</v>
+        <v>+919840498515</v>
       </c>
       <c r="F38" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G38" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H38" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I38" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J38" t="str">
-        <v>San Francisco</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="str">
-        <v>Investor 12</v>
+        <v>Investor 14</v>
       </c>
       <c r="C39" t="str">
-        <v>Partner 12</v>
+        <v>Partner 14</v>
       </c>
       <c r="D39" t="str">
-        <v>investor12@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E39" t="str">
-        <v>+919928494502</v>
+        <v>+919668202693</v>
       </c>
       <c r="F39" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G39" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H39" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I39" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J39" t="str">
         <v>Munich</v>
@@ -1739,342 +1709,342 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="str">
-        <v>Investor 13</v>
+        <v>Investor 15</v>
       </c>
       <c r="C40" t="str">
-        <v>Partner 13</v>
+        <v>Partner 15</v>
       </c>
       <c r="D40" t="str">
-        <v>investor13@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E40" t="str">
-        <v>+919840498515</v>
+        <v>+917931611617</v>
       </c>
       <c r="F40" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G40" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H40" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I40" t="str">
-        <v>London</v>
+        <v>Karnataka</v>
       </c>
       <c r="J40" t="str">
-        <v>Montreal</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="str">
-        <v>Investor 14</v>
+        <v>Investor 16</v>
       </c>
       <c r="C41" t="str">
-        <v>Partner 14</v>
+        <v>Partner 16</v>
       </c>
       <c r="D41" t="str">
-        <v>investor14@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E41" t="str">
-        <v>+919668202693</v>
+        <v>+917005717560</v>
       </c>
       <c r="F41" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G41" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H41" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I41" t="str">
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="J41" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="str">
-        <v>Investor 15</v>
+        <v>Investor 17</v>
       </c>
       <c r="C42" t="str">
-        <v>Partner 15</v>
+        <v>Partner 17</v>
       </c>
       <c r="D42" t="str">
-        <v>investor15@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E42" t="str">
-        <v>+917931611617</v>
+        <v>+919471731806</v>
       </c>
       <c r="F42" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G42" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H42" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I42" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J42" t="str">
-        <v>Austin</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="str">
-        <v>Investor 16</v>
+        <v>Investor 18</v>
       </c>
       <c r="C43" t="str">
-        <v>Partner 16</v>
+        <v>Partner 18</v>
       </c>
       <c r="D43" t="str">
-        <v>investor16@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E43" t="str">
-        <v>+917005717560</v>
+        <v>+917415441156</v>
       </c>
       <c r="F43" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G43" t="str">
         <v>Seed</v>
       </c>
       <c r="H43" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I43" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J43" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="str">
-        <v>Investor 17</v>
+        <v>Investor 19</v>
       </c>
       <c r="C44" t="str">
-        <v>Partner 17</v>
+        <v>Partner 19</v>
       </c>
       <c r="D44" t="str">
-        <v>investor17@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E44" t="str">
-        <v>+919471731806</v>
+        <v>+919428216935</v>
       </c>
       <c r="F44" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G44" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H44" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I44" t="str">
-        <v>Quebec</v>
+        <v>Berlin</v>
       </c>
       <c r="J44" t="str">
-        <v>New York</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" t="str">
-        <v>Investor 18</v>
+        <v>Investor 20</v>
       </c>
       <c r="C45" t="str">
-        <v>Partner 18</v>
+        <v>Partner 20</v>
       </c>
       <c r="D45" t="str">
-        <v>investor18@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E45" t="str">
-        <v>+917415441156</v>
+        <v>+918769140108</v>
       </c>
       <c r="F45" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G45" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H45" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I45" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J45" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="str">
-        <v>Investor 19</v>
+        <v>Investor 21</v>
       </c>
       <c r="C46" t="str">
-        <v>Partner 19</v>
+        <v>Partner 21</v>
       </c>
       <c r="D46" t="str">
-        <v>investor19@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E46" t="str">
-        <v>+919428216935</v>
+        <v>+917535520288</v>
       </c>
       <c r="F46" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G46" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H46" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I46" t="str">
-        <v>Berlin</v>
+        <v>Karnataka</v>
       </c>
       <c r="J46" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="str">
-        <v>Investor 20</v>
+        <v>Investor 22</v>
       </c>
       <c r="C47" t="str">
-        <v>Partner 20</v>
+        <v>Partner 22</v>
       </c>
       <c r="D47" t="str">
-        <v>investor20@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E47" t="str">
-        <v>+918769140108</v>
+        <v>+919790702358</v>
       </c>
       <c r="F47" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G47" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H47" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I47" t="str">
-        <v>Quebec</v>
+        <v>New York</v>
       </c>
       <c r="J47" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="str">
-        <v>Investor 21</v>
+        <v>Investor 23</v>
       </c>
       <c r="C48" t="str">
-        <v>Partner 21</v>
+        <v>Partner 23</v>
       </c>
       <c r="D48" t="str">
-        <v>investor21@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E48" t="str">
-        <v>+917535520288</v>
+        <v>+918792543797</v>
       </c>
       <c r="F48" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G48" t="str">
         <v>Series A</v>
       </c>
       <c r="H48" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I48" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J48" t="str">
-        <v>San Francisco</v>
+        <v>London</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="str">
-        <v>Investor 22</v>
+        <v>Investor 24</v>
       </c>
       <c r="C49" t="str">
-        <v>Partner 22</v>
+        <v>Partner 24</v>
       </c>
       <c r="D49" t="str">
-        <v>investor22@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E49" t="str">
-        <v>+919790702358</v>
+        <v>+919722499145</v>
       </c>
       <c r="F49" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G49" t="str">
-        <v>Series B</v>
+        <v>Growth</v>
       </c>
       <c r="H49" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I49" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J49" t="str">
-        <v>New York</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="str">
-        <v>Investor 23</v>
+        <v>Investor 25</v>
       </c>
       <c r="C50" t="str">
-        <v>Partner 23</v>
+        <v>Partner 25</v>
       </c>
       <c r="D50" t="str">
-        <v>investor23@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E50" t="str">
-        <v>+918792543797</v>
+        <v>+917513411451</v>
       </c>
       <c r="F50" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G50" t="str">
         <v>Series A</v>
@@ -2083,7 +2053,7 @@
         <v>Canada</v>
       </c>
       <c r="I50" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J50" t="str">
         <v>London</v>
@@ -2091,322 +2061,322 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="str">
-        <v>Investor 24</v>
+        <v>Investor 26</v>
       </c>
       <c r="C51" t="str">
-        <v>Partner 24</v>
+        <v>Partner 26</v>
       </c>
       <c r="D51" t="str">
-        <v>investor24@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E51" t="str">
-        <v>+919722499145</v>
+        <v>+918240603398</v>
       </c>
       <c r="F51" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G51" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H51" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I51" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J51" t="str">
-        <v>Austin</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>Investor 25</v>
+        <v>Investor 27</v>
       </c>
       <c r="C52" t="str">
-        <v>Partner 25</v>
+        <v>Partner 27</v>
       </c>
       <c r="D52" t="str">
-        <v>investor25@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E52" t="str">
-        <v>+917513411451</v>
+        <v>+918169275812</v>
       </c>
       <c r="F52" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G52" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H52" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I52" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J52" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>Investor 26</v>
+        <v>Investor 28</v>
       </c>
       <c r="C53" t="str">
-        <v>Partner 26</v>
+        <v>Partner 28</v>
       </c>
       <c r="D53" t="str">
-        <v>investor26@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E53" t="str">
-        <v>+918240603398</v>
+        <v>+917995480118</v>
       </c>
       <c r="F53" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G53" t="str">
         <v>Series A</v>
       </c>
       <c r="H53" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I53" t="str">
-        <v>Karnataka</v>
+        <v>Ontario</v>
       </c>
       <c r="J53" t="str">
-        <v>Bangalore</v>
+        <v>London</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>Investor 27</v>
+        <v>Investor 29</v>
       </c>
       <c r="C54" t="str">
-        <v>Partner 27</v>
+        <v>Partner 29</v>
       </c>
       <c r="D54" t="str">
-        <v>investor27@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E54" t="str">
-        <v>+918169275812</v>
+        <v>+919044015128</v>
       </c>
       <c r="F54" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G54" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H54" t="str">
-        <v>UK</v>
+        <v>Canada</v>
       </c>
       <c r="I54" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J54" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>Investor 28</v>
+        <v>Investor 30</v>
       </c>
       <c r="C55" t="str">
-        <v>Partner 28</v>
+        <v>Partner 30</v>
       </c>
       <c r="D55" t="str">
-        <v>investor28@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E55" t="str">
-        <v>+917995480118</v>
+        <v>+919927955922</v>
       </c>
       <c r="F55" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G55" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H55" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I55" t="str">
-        <v>Ontario</v>
+        <v>Quebec</v>
       </c>
       <c r="J55" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>59</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Investor 29</v>
-      </c>
-      <c r="C56" t="str">
-        <v>Partner 29</v>
-      </c>
-      <c r="D56" t="str">
-        <v>investor29@example.com</v>
-      </c>
-      <c r="E56" t="str">
-        <v>+919044015128</v>
-      </c>
-      <c r="F56" t="str">
-        <v>Private Equity</v>
-      </c>
-      <c r="G56" t="str">
-        <v>Series A</v>
-      </c>
-      <c r="H56" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I56" t="str">
-        <v>New York</v>
-      </c>
-      <c r="J56" t="str">
-        <v>Austin</v>
+        <v>61</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Priyanshu</v>
+      </c>
+      <c r="L56" t="str">
+        <v>abc</v>
+      </c>
+      <c r="M56" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N56" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O56" t="str">
+        <v>ozijvcsd</v>
+      </c>
+      <c r="P56" t="str">
+        <v>vkjxvnxc</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>India</v>
+      </c>
+      <c r="R56" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S56" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T56" t="str">
+        <v>27L</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>Investor 30</v>
+        <v>Investor 1</v>
       </c>
       <c r="C57" t="str">
-        <v>Partner 30</v>
+        <v>Partner 1</v>
       </c>
       <c r="D57" t="str">
-        <v>investor30@example.com</v>
+        <v>investor1@example.com</v>
       </c>
       <c r="E57" t="str">
-        <v>+919927955922</v>
+        <v>+919047724970</v>
       </c>
       <c r="F57" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G57" t="str">
-        <v>Mature</v>
+        <v>Growth</v>
       </c>
       <c r="H57" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I57" t="str">
-        <v>Quebec</v>
+        <v>Texas</v>
       </c>
       <c r="J57" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>61</v>
-      </c>
-      <c r="K58" t="str">
-        <v>Priyanshu</v>
-      </c>
-      <c r="L58" t="str">
-        <v>abc</v>
-      </c>
-      <c r="M58" t="str">
-        <v>priyanshubanna2525@gmail.com</v>
-      </c>
-      <c r="N58" t="str">
-        <v>8103700703</v>
-      </c>
-      <c r="O58" t="str">
-        <v>ozijvcsd</v>
-      </c>
-      <c r="P58" t="str">
-        <v>vkjxvnxc</v>
-      </c>
-      <c r="Q58" t="str">
-        <v>India</v>
-      </c>
-      <c r="R58" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S58" t="str">
-        <v>Khargone Nagar</v>
-      </c>
-      <c r="T58" t="str">
-        <v>27L</v>
+        <v>63</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D58" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E58" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J58" t="str">
+        <v>London</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>Investor 1</v>
+        <v>Investor 3</v>
       </c>
       <c r="C59" t="str">
-        <v>Partner 1</v>
+        <v>Partner 3</v>
       </c>
       <c r="D59" t="str">
-        <v>investor1@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E59" t="str">
-        <v>+919047724970</v>
+        <v>+918322596794</v>
       </c>
       <c r="F59" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G59" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H59" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I59" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J59" t="str">
-        <v>Toronto</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60" t="str">
-        <v>Investor 2</v>
+        <v>Investor 5</v>
       </c>
       <c r="C60" t="str">
-        <v>Partner 2</v>
+        <v>Partner 5</v>
       </c>
       <c r="D60" t="str">
-        <v>investor2@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E60" t="str">
-        <v>+917620691166</v>
+        <v>+917687937169</v>
       </c>
       <c r="F60" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G60" t="str">
         <v>Seed</v>
       </c>
       <c r="H60" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I60" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J60" t="str">
         <v>London</v>
@@ -2414,63 +2384,63 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61" t="str">
-        <v>Investor 3</v>
+        <v>Investor 6</v>
       </c>
       <c r="C61" t="str">
-        <v>Partner 3</v>
+        <v>Partner 6</v>
       </c>
       <c r="D61" t="str">
-        <v>investor3@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E61" t="str">
-        <v>+918322596794</v>
+        <v>+917922030026</v>
       </c>
       <c r="F61" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G61" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H61" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I61" t="str">
-        <v>California</v>
+        <v>Bavaria</v>
       </c>
       <c r="J61" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" t="str">
-        <v>Investor 5</v>
+        <v>Investor 7</v>
       </c>
       <c r="C62" t="str">
-        <v>Partner 5</v>
+        <v>Partner 7</v>
       </c>
       <c r="D62" t="str">
-        <v>investor5@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E62" t="str">
-        <v>+917687937169</v>
+        <v>+917420830720</v>
       </c>
       <c r="F62" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G62" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H62" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I62" t="str">
-        <v>Maharashtra</v>
+        <v>California</v>
       </c>
       <c r="J62" t="str">
         <v>London</v>
@@ -2478,223 +2448,223 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63" t="str">
-        <v>Investor 6</v>
+        <v>Investor 8</v>
       </c>
       <c r="C63" t="str">
-        <v>Partner 6</v>
+        <v>Partner 8</v>
       </c>
       <c r="D63" t="str">
-        <v>investor6@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E63" t="str">
-        <v>+917922030026</v>
+        <v>+919754829773</v>
       </c>
       <c r="F63" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G63" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H63" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I63" t="str">
         <v>Bavaria</v>
       </c>
       <c r="J63" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" t="str">
-        <v>Investor 7</v>
+        <v>Investor 9</v>
       </c>
       <c r="C64" t="str">
-        <v>Partner 7</v>
+        <v>Partner 9</v>
       </c>
       <c r="D64" t="str">
-        <v>investor7@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E64" t="str">
-        <v>+917420830720</v>
+        <v>+917917944002</v>
       </c>
       <c r="F64" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G64" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H64" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I64" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J64" t="str">
-        <v>London</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" t="str">
-        <v>Investor 8</v>
+        <v>Investor 10</v>
       </c>
       <c r="C65" t="str">
-        <v>Partner 8</v>
+        <v>Partner 10</v>
       </c>
       <c r="D65" t="str">
-        <v>investor8@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E65" t="str">
-        <v>+919754829773</v>
+        <v>+919541494666</v>
       </c>
       <c r="F65" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G65" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H65" t="str">
         <v>India</v>
       </c>
       <c r="I65" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J65" t="str">
-        <v>Montreal</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66" t="str">
-        <v>Investor 9</v>
+        <v>Investor 11</v>
       </c>
       <c r="C66" t="str">
-        <v>Partner 9</v>
+        <v>Partner 11</v>
       </c>
       <c r="D66" t="str">
-        <v>investor9@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E66" t="str">
-        <v>+917917944002</v>
+        <v>+919709142438</v>
       </c>
       <c r="F66" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G66" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H66" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I66" t="str">
         <v>Karnataka</v>
       </c>
       <c r="J66" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67" t="str">
-        <v>Investor 10</v>
+        <v>Investor 12</v>
       </c>
       <c r="C67" t="str">
-        <v>Partner 10</v>
+        <v>Partner 12</v>
       </c>
       <c r="D67" t="str">
-        <v>investor10@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E67" t="str">
-        <v>+919541494666</v>
+        <v>+919928494502</v>
       </c>
       <c r="F67" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G67" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H67" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I67" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="J67" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" t="str">
-        <v>Investor 11</v>
+        <v>Investor 13</v>
       </c>
       <c r="C68" t="str">
-        <v>Partner 11</v>
+        <v>Partner 13</v>
       </c>
       <c r="D68" t="str">
-        <v>investor11@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E68" t="str">
-        <v>+919709142438</v>
+        <v>+919840498515</v>
       </c>
       <c r="F68" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G68" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H68" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I68" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J68" t="str">
-        <v>San Francisco</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69" t="str">
-        <v>Investor 12</v>
+        <v>Investor 14</v>
       </c>
       <c r="C69" t="str">
-        <v>Partner 12</v>
+        <v>Partner 14</v>
       </c>
       <c r="D69" t="str">
-        <v>investor12@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E69" t="str">
-        <v>+919928494502</v>
+        <v>+919668202693</v>
       </c>
       <c r="F69" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G69" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H69" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I69" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J69" t="str">
         <v>Munich</v>
@@ -2702,342 +2672,342 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="str">
-        <v>Investor 13</v>
+        <v>Investor 15</v>
       </c>
       <c r="C70" t="str">
-        <v>Partner 13</v>
+        <v>Partner 15</v>
       </c>
       <c r="D70" t="str">
-        <v>investor13@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E70" t="str">
-        <v>+919840498515</v>
+        <v>+917931611617</v>
       </c>
       <c r="F70" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G70" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H70" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I70" t="str">
-        <v>London</v>
+        <v>Karnataka</v>
       </c>
       <c r="J70" t="str">
-        <v>Montreal</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" t="str">
-        <v>Investor 14</v>
+        <v>Investor 16</v>
       </c>
       <c r="C71" t="str">
-        <v>Partner 14</v>
+        <v>Partner 16</v>
       </c>
       <c r="D71" t="str">
-        <v>investor14@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E71" t="str">
-        <v>+919668202693</v>
+        <v>+917005717560</v>
       </c>
       <c r="F71" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G71" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H71" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I71" t="str">
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="J71" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" t="str">
-        <v>Investor 15</v>
+        <v>Investor 17</v>
       </c>
       <c r="C72" t="str">
-        <v>Partner 15</v>
+        <v>Partner 17</v>
       </c>
       <c r="D72" t="str">
-        <v>investor15@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E72" t="str">
-        <v>+917931611617</v>
+        <v>+919471731806</v>
       </c>
       <c r="F72" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G72" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H72" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I72" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J72" t="str">
-        <v>Austin</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" t="str">
-        <v>Investor 16</v>
+        <v>Investor 18</v>
       </c>
       <c r="C73" t="str">
-        <v>Partner 16</v>
+        <v>Partner 18</v>
       </c>
       <c r="D73" t="str">
-        <v>investor16@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E73" t="str">
-        <v>+917005717560</v>
+        <v>+917415441156</v>
       </c>
       <c r="F73" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G73" t="str">
         <v>Seed</v>
       </c>
       <c r="H73" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I73" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J73" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" t="str">
-        <v>Investor 17</v>
+        <v>Investor 19</v>
       </c>
       <c r="C74" t="str">
-        <v>Partner 17</v>
+        <v>Partner 19</v>
       </c>
       <c r="D74" t="str">
-        <v>investor17@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E74" t="str">
-        <v>+919471731806</v>
+        <v>+919428216935</v>
       </c>
       <c r="F74" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G74" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H74" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I74" t="str">
-        <v>Quebec</v>
+        <v>Berlin</v>
       </c>
       <c r="J74" t="str">
-        <v>New York</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" t="str">
-        <v>Investor 18</v>
+        <v>Investor 20</v>
       </c>
       <c r="C75" t="str">
-        <v>Partner 18</v>
+        <v>Partner 20</v>
       </c>
       <c r="D75" t="str">
-        <v>investor18@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E75" t="str">
-        <v>+917415441156</v>
+        <v>+918769140108</v>
       </c>
       <c r="F75" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G75" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H75" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I75" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J75" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" t="str">
-        <v>Investor 19</v>
+        <v>Investor 21</v>
       </c>
       <c r="C76" t="str">
-        <v>Partner 19</v>
+        <v>Partner 21</v>
       </c>
       <c r="D76" t="str">
-        <v>investor19@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E76" t="str">
-        <v>+919428216935</v>
+        <v>+917535520288</v>
       </c>
       <c r="F76" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G76" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H76" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I76" t="str">
-        <v>Berlin</v>
+        <v>Karnataka</v>
       </c>
       <c r="J76" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" t="str">
-        <v>Investor 20</v>
+        <v>Investor 22</v>
       </c>
       <c r="C77" t="str">
-        <v>Partner 20</v>
+        <v>Partner 22</v>
       </c>
       <c r="D77" t="str">
-        <v>investor20@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E77" t="str">
-        <v>+918769140108</v>
+        <v>+919790702358</v>
       </c>
       <c r="F77" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G77" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H77" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I77" t="str">
-        <v>Quebec</v>
+        <v>New York</v>
       </c>
       <c r="J77" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" t="str">
-        <v>Investor 21</v>
+        <v>Investor 23</v>
       </c>
       <c r="C78" t="str">
-        <v>Partner 21</v>
+        <v>Partner 23</v>
       </c>
       <c r="D78" t="str">
-        <v>investor21@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E78" t="str">
-        <v>+917535520288</v>
+        <v>+918792543797</v>
       </c>
       <c r="F78" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G78" t="str">
         <v>Series A</v>
       </c>
       <c r="H78" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I78" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J78" t="str">
-        <v>San Francisco</v>
+        <v>London</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" t="str">
-        <v>Investor 22</v>
+        <v>Investor 24</v>
       </c>
       <c r="C79" t="str">
-        <v>Partner 22</v>
+        <v>Partner 24</v>
       </c>
       <c r="D79" t="str">
-        <v>investor22@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E79" t="str">
-        <v>+919790702358</v>
+        <v>+919722499145</v>
       </c>
       <c r="F79" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G79" t="str">
-        <v>Series B</v>
+        <v>Growth</v>
       </c>
       <c r="H79" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I79" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J79" t="str">
-        <v>New York</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" t="str">
-        <v>Investor 23</v>
+        <v>Investor 25</v>
       </c>
       <c r="C80" t="str">
-        <v>Partner 23</v>
+        <v>Partner 25</v>
       </c>
       <c r="D80" t="str">
-        <v>investor23@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E80" t="str">
-        <v>+918792543797</v>
+        <v>+917513411451</v>
       </c>
       <c r="F80" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G80" t="str">
         <v>Series A</v>
@@ -3046,7 +3016,7 @@
         <v>Canada</v>
       </c>
       <c r="I80" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J80" t="str">
         <v>London</v>
@@ -3054,383 +3024,383 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" t="str">
-        <v>Investor 24</v>
+        <v>Investor 26</v>
       </c>
       <c r="C81" t="str">
-        <v>Partner 24</v>
+        <v>Partner 26</v>
       </c>
       <c r="D81" t="str">
-        <v>investor24@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E81" t="str">
-        <v>+919722499145</v>
+        <v>+918240603398</v>
       </c>
       <c r="F81" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G81" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H81" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I81" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J81" t="str">
-        <v>Austin</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" t="str">
-        <v>Investor 25</v>
+        <v>Investor 27</v>
       </c>
       <c r="C82" t="str">
-        <v>Partner 25</v>
+        <v>Partner 27</v>
       </c>
       <c r="D82" t="str">
-        <v>investor25@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E82" t="str">
-        <v>+917513411451</v>
+        <v>+918169275812</v>
       </c>
       <c r="F82" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G82" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H82" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I82" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J82" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" t="str">
-        <v>Investor 26</v>
+        <v>Investor 28</v>
       </c>
       <c r="C83" t="str">
-        <v>Partner 26</v>
+        <v>Partner 28</v>
       </c>
       <c r="D83" t="str">
-        <v>investor26@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E83" t="str">
-        <v>+918240603398</v>
+        <v>+917995480118</v>
       </c>
       <c r="F83" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G83" t="str">
         <v>Series A</v>
       </c>
       <c r="H83" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I83" t="str">
-        <v>Karnataka</v>
+        <v>Ontario</v>
       </c>
       <c r="J83" t="str">
-        <v>Bangalore</v>
+        <v>London</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" t="str">
-        <v>Investor 27</v>
+        <v>Investor 29</v>
       </c>
       <c r="C84" t="str">
-        <v>Partner 27</v>
+        <v>Partner 29</v>
       </c>
       <c r="D84" t="str">
-        <v>investor27@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E84" t="str">
-        <v>+918169275812</v>
+        <v>+919044015128</v>
       </c>
       <c r="F84" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G84" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H84" t="str">
-        <v>UK</v>
+        <v>Canada</v>
       </c>
       <c r="I84" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J84" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" t="str">
-        <v>Investor 28</v>
+        <v>Investor 30</v>
       </c>
       <c r="C85" t="str">
-        <v>Partner 28</v>
+        <v>Partner 30</v>
       </c>
       <c r="D85" t="str">
-        <v>investor28@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E85" t="str">
-        <v>+917995480118</v>
+        <v>+919927955922</v>
       </c>
       <c r="F85" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G85" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H85" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I85" t="str">
-        <v>Ontario</v>
+        <v>Quebec</v>
       </c>
       <c r="J85" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86" t="str">
-        <v>Investor 29</v>
+        <v>Investor 1</v>
       </c>
       <c r="C86" t="str">
-        <v>Partner 29</v>
+        <v>Partner 1</v>
       </c>
       <c r="D86" t="str">
-        <v>investor29@example.com</v>
+        <v>investor1@example.com</v>
       </c>
       <c r="E86" t="str">
-        <v>+919044015128</v>
+        <v>+919047724970</v>
       </c>
       <c r="F86" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G86" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H86" t="str">
-        <v>Canada</v>
+        <v>Germany</v>
       </c>
       <c r="I86" t="str">
-        <v>New York</v>
+        <v>Texas</v>
       </c>
       <c r="J86" t="str">
-        <v>Austin</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" t="str">
-        <v>Investor 30</v>
+        <v>Investor 2</v>
       </c>
       <c r="C87" t="str">
-        <v>Partner 30</v>
+        <v>Partner 2</v>
       </c>
       <c r="D87" t="str">
-        <v>investor30@example.com</v>
+        <v>investor2@example.com</v>
       </c>
       <c r="E87" t="str">
-        <v>+919927955922</v>
+        <v>+917620691166</v>
       </c>
       <c r="F87" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G87" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H87" t="str">
-        <v>India</v>
+        <v>Canada</v>
       </c>
       <c r="I87" t="str">
-        <v>Quebec</v>
+        <v>Texas</v>
       </c>
       <c r="J87" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" t="str">
-        <v>Investor 1</v>
+        <v>Investor 3</v>
       </c>
       <c r="C88" t="str">
-        <v>Partner 1</v>
+        <v>Partner 3</v>
       </c>
       <c r="D88" t="str">
-        <v>investor1@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E88" t="str">
-        <v>+919047724970</v>
+        <v>+918322596794</v>
       </c>
       <c r="F88" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G88" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H88" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I88" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J88" t="str">
-        <v>Toronto</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" t="str">
-        <v>Investor 2</v>
+        <v>Investor 4</v>
       </c>
       <c r="C89" t="str">
-        <v>Partner 2</v>
+        <v>Partner 4</v>
       </c>
       <c r="D89" t="str">
-        <v>investor2@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E89" t="str">
-        <v>+917620691166</v>
+        <v>+919091013248</v>
       </c>
       <c r="F89" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G89" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H89" t="str">
         <v>Canada</v>
       </c>
       <c r="I89" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J89" t="str">
-        <v>London</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90" t="str">
-        <v>Investor 3</v>
+        <v>Investor 5</v>
       </c>
       <c r="C90" t="str">
-        <v>Partner 3</v>
+        <v>Partner 5</v>
       </c>
       <c r="D90" t="str">
-        <v>investor3@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E90" t="str">
-        <v>+918322596794</v>
+        <v>+917687937169</v>
       </c>
       <c r="F90" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G90" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H90" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I90" t="str">
-        <v>California</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J90" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="str">
-        <v>Investor 4</v>
+        <v>Investor 6</v>
       </c>
       <c r="C91" t="str">
-        <v>Partner 4</v>
+        <v>Partner 6</v>
       </c>
       <c r="D91" t="str">
-        <v>investor4@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E91" t="str">
-        <v>+919091013248</v>
+        <v>+917922030026</v>
       </c>
       <c r="F91" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G91" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H91" t="str">
         <v>Canada</v>
       </c>
       <c r="I91" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J91" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="str">
-        <v>Investor 5</v>
+        <v>Investor 7</v>
       </c>
       <c r="C92" t="str">
-        <v>Partner 5</v>
+        <v>Partner 7</v>
       </c>
       <c r="D92" t="str">
-        <v>investor5@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E92" t="str">
-        <v>+917687937169</v>
+        <v>+917420830720</v>
       </c>
       <c r="F92" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G92" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H92" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I92" t="str">
-        <v>Maharashtra</v>
+        <v>California</v>
       </c>
       <c r="J92" t="str">
         <v>London</v>
@@ -3438,223 +3408,223 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="str">
-        <v>Investor 6</v>
+        <v>Investor 8</v>
       </c>
       <c r="C93" t="str">
-        <v>Partner 6</v>
+        <v>Partner 8</v>
       </c>
       <c r="D93" t="str">
-        <v>investor6@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E93" t="str">
-        <v>+917922030026</v>
+        <v>+919754829773</v>
       </c>
       <c r="F93" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G93" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H93" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I93" t="str">
         <v>Bavaria</v>
       </c>
       <c r="J93" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" t="str">
-        <v>Investor 7</v>
+        <v>Investor 9</v>
       </c>
       <c r="C94" t="str">
-        <v>Partner 7</v>
+        <v>Partner 9</v>
       </c>
       <c r="D94" t="str">
-        <v>investor7@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E94" t="str">
-        <v>+917420830720</v>
+        <v>+917917944002</v>
       </c>
       <c r="F94" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G94" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H94" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I94" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J94" t="str">
-        <v>London</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" t="str">
-        <v>Investor 8</v>
+        <v>Investor 10</v>
       </c>
       <c r="C95" t="str">
-        <v>Partner 8</v>
+        <v>Partner 10</v>
       </c>
       <c r="D95" t="str">
-        <v>investor8@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E95" t="str">
-        <v>+919754829773</v>
+        <v>+919541494666</v>
       </c>
       <c r="F95" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G95" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H95" t="str">
         <v>India</v>
       </c>
       <c r="I95" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J95" t="str">
-        <v>Montreal</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" t="str">
-        <v>Investor 9</v>
+        <v>Investor 11</v>
       </c>
       <c r="C96" t="str">
-        <v>Partner 9</v>
+        <v>Partner 11</v>
       </c>
       <c r="D96" t="str">
-        <v>investor9@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E96" t="str">
-        <v>+917917944002</v>
+        <v>+919709142438</v>
       </c>
       <c r="F96" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G96" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H96" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I96" t="str">
         <v>Karnataka</v>
       </c>
       <c r="J96" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" t="str">
-        <v>Investor 10</v>
+        <v>Investor 12</v>
       </c>
       <c r="C97" t="str">
-        <v>Partner 10</v>
+        <v>Partner 12</v>
       </c>
       <c r="D97" t="str">
-        <v>investor10@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E97" t="str">
-        <v>+919541494666</v>
+        <v>+919928494502</v>
       </c>
       <c r="F97" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G97" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H97" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I97" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="J97" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" t="str">
-        <v>Investor 11</v>
+        <v>Investor 13</v>
       </c>
       <c r="C98" t="str">
-        <v>Partner 11</v>
+        <v>Partner 13</v>
       </c>
       <c r="D98" t="str">
-        <v>investor11@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E98" t="str">
-        <v>+919709142438</v>
+        <v>+919840498515</v>
       </c>
       <c r="F98" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G98" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H98" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I98" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J98" t="str">
-        <v>San Francisco</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" t="str">
-        <v>Investor 12</v>
+        <v>Investor 14</v>
       </c>
       <c r="C99" t="str">
-        <v>Partner 12</v>
+        <v>Partner 14</v>
       </c>
       <c r="D99" t="str">
-        <v>investor12@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E99" t="str">
-        <v>+919928494502</v>
+        <v>+919668202693</v>
       </c>
       <c r="F99" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G99" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H99" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I99" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J99" t="str">
         <v>Munich</v>
@@ -3662,342 +3632,342 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" t="str">
-        <v>Investor 13</v>
+        <v>Investor 15</v>
       </c>
       <c r="C100" t="str">
-        <v>Partner 13</v>
+        <v>Partner 15</v>
       </c>
       <c r="D100" t="str">
-        <v>investor13@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E100" t="str">
-        <v>+919840498515</v>
+        <v>+917931611617</v>
       </c>
       <c r="F100" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G100" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H100" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I100" t="str">
-        <v>London</v>
+        <v>Karnataka</v>
       </c>
       <c r="J100" t="str">
-        <v>Montreal</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" t="str">
-        <v>Investor 14</v>
+        <v>Investor 16</v>
       </c>
       <c r="C101" t="str">
-        <v>Partner 14</v>
+        <v>Partner 16</v>
       </c>
       <c r="D101" t="str">
-        <v>investor14@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E101" t="str">
-        <v>+919668202693</v>
+        <v>+917005717560</v>
       </c>
       <c r="F101" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G101" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H101" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I101" t="str">
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="J101" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" t="str">
-        <v>Investor 15</v>
+        <v>Investor 17</v>
       </c>
       <c r="C102" t="str">
-        <v>Partner 15</v>
+        <v>Partner 17</v>
       </c>
       <c r="D102" t="str">
-        <v>investor15@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E102" t="str">
-        <v>+917931611617</v>
+        <v>+919471731806</v>
       </c>
       <c r="F102" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G102" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H102" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I102" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J102" t="str">
-        <v>Austin</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" t="str">
-        <v>Investor 16</v>
+        <v>Investor 18</v>
       </c>
       <c r="C103" t="str">
-        <v>Partner 16</v>
+        <v>Partner 18</v>
       </c>
       <c r="D103" t="str">
-        <v>investor16@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E103" t="str">
-        <v>+917005717560</v>
+        <v>+917415441156</v>
       </c>
       <c r="F103" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G103" t="str">
         <v>Seed</v>
       </c>
       <c r="H103" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I103" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J103" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" t="str">
-        <v>Investor 17</v>
+        <v>Investor 19</v>
       </c>
       <c r="C104" t="str">
-        <v>Partner 17</v>
+        <v>Partner 19</v>
       </c>
       <c r="D104" t="str">
-        <v>investor17@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E104" t="str">
-        <v>+919471731806</v>
+        <v>+919428216935</v>
       </c>
       <c r="F104" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G104" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H104" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I104" t="str">
-        <v>Quebec</v>
+        <v>Berlin</v>
       </c>
       <c r="J104" t="str">
-        <v>New York</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" t="str">
-        <v>Investor 18</v>
+        <v>Investor 20</v>
       </c>
       <c r="C105" t="str">
-        <v>Partner 18</v>
+        <v>Partner 20</v>
       </c>
       <c r="D105" t="str">
-        <v>investor18@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E105" t="str">
-        <v>+917415441156</v>
+        <v>+918769140108</v>
       </c>
       <c r="F105" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G105" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H105" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I105" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J105" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" t="str">
-        <v>Investor 19</v>
+        <v>Investor 21</v>
       </c>
       <c r="C106" t="str">
-        <v>Partner 19</v>
+        <v>Partner 21</v>
       </c>
       <c r="D106" t="str">
-        <v>investor19@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E106" t="str">
-        <v>+919428216935</v>
+        <v>+917535520288</v>
       </c>
       <c r="F106" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G106" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H106" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I106" t="str">
-        <v>Berlin</v>
+        <v>Karnataka</v>
       </c>
       <c r="J106" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" t="str">
-        <v>Investor 20</v>
+        <v>Investor 22</v>
       </c>
       <c r="C107" t="str">
-        <v>Partner 20</v>
+        <v>Partner 22</v>
       </c>
       <c r="D107" t="str">
-        <v>investor20@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E107" t="str">
-        <v>+918769140108</v>
+        <v>+919790702358</v>
       </c>
       <c r="F107" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G107" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H107" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I107" t="str">
-        <v>Quebec</v>
+        <v>New York</v>
       </c>
       <c r="J107" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" t="str">
-        <v>Investor 21</v>
+        <v>Investor 23</v>
       </c>
       <c r="C108" t="str">
-        <v>Partner 21</v>
+        <v>Partner 23</v>
       </c>
       <c r="D108" t="str">
-        <v>investor21@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E108" t="str">
-        <v>+917535520288</v>
+        <v>+918792543797</v>
       </c>
       <c r="F108" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G108" t="str">
         <v>Series A</v>
       </c>
       <c r="H108" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I108" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J108" t="str">
-        <v>San Francisco</v>
+        <v>London</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" t="str">
-        <v>Investor 22</v>
+        <v>Investor 24</v>
       </c>
       <c r="C109" t="str">
-        <v>Partner 22</v>
+        <v>Partner 24</v>
       </c>
       <c r="D109" t="str">
-        <v>investor22@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E109" t="str">
-        <v>+919790702358</v>
+        <v>+919722499145</v>
       </c>
       <c r="F109" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G109" t="str">
-        <v>Series B</v>
+        <v>Growth</v>
       </c>
       <c r="H109" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I109" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J109" t="str">
-        <v>New York</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" t="str">
-        <v>Investor 23</v>
+        <v>Investor 25</v>
       </c>
       <c r="C110" t="str">
-        <v>Partner 23</v>
+        <v>Partner 25</v>
       </c>
       <c r="D110" t="str">
-        <v>investor23@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E110" t="str">
-        <v>+918792543797</v>
+        <v>+917513411451</v>
       </c>
       <c r="F110" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G110" t="str">
         <v>Series A</v>
@@ -4006,7 +3976,7 @@
         <v>Canada</v>
       </c>
       <c r="I110" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J110" t="str">
         <v>London</v>
@@ -4014,450 +3984,450 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" t="str">
-        <v>Investor 24</v>
+        <v>Investor 26</v>
       </c>
       <c r="C111" t="str">
-        <v>Partner 24</v>
+        <v>Partner 26</v>
       </c>
       <c r="D111" t="str">
-        <v>investor24@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E111" t="str">
-        <v>+919722499145</v>
+        <v>+918240603398</v>
       </c>
       <c r="F111" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G111" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H111" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I111" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J111" t="str">
-        <v>Austin</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" t="str">
-        <v>Investor 25</v>
+        <v>Investor 27</v>
       </c>
       <c r="C112" t="str">
-        <v>Partner 25</v>
+        <v>Partner 27</v>
       </c>
       <c r="D112" t="str">
-        <v>investor25@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E112" t="str">
-        <v>+917513411451</v>
+        <v>+918169275812</v>
       </c>
       <c r="F112" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G112" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H112" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I112" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J112" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" t="str">
-        <v>Investor 26</v>
+        <v>Investor 28</v>
       </c>
       <c r="C113" t="str">
-        <v>Partner 26</v>
+        <v>Partner 28</v>
       </c>
       <c r="D113" t="str">
-        <v>investor26@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E113" t="str">
-        <v>+918240603398</v>
+        <v>+917995480118</v>
       </c>
       <c r="F113" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G113" t="str">
         <v>Series A</v>
       </c>
       <c r="H113" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I113" t="str">
-        <v>Karnataka</v>
+        <v>Ontario</v>
       </c>
       <c r="J113" t="str">
-        <v>Bangalore</v>
+        <v>London</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" t="str">
-        <v>Investor 27</v>
+        <v>Investor 29</v>
       </c>
       <c r="C114" t="str">
-        <v>Partner 27</v>
+        <v>Partner 29</v>
       </c>
       <c r="D114" t="str">
-        <v>investor27@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E114" t="str">
-        <v>+918169275812</v>
+        <v>+919044015128</v>
       </c>
       <c r="F114" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G114" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H114" t="str">
-        <v>UK</v>
+        <v>Canada</v>
       </c>
       <c r="I114" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J114" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" t="str">
-        <v>Investor 28</v>
+        <v>Investor 30</v>
       </c>
       <c r="C115" t="str">
-        <v>Partner 28</v>
+        <v>Partner 30</v>
       </c>
       <c r="D115" t="str">
-        <v>investor28@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E115" t="str">
-        <v>+917995480118</v>
+        <v>+919927955922</v>
       </c>
       <c r="F115" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G115" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H115" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I115" t="str">
-        <v>Ontario</v>
+        <v>Quebec</v>
       </c>
       <c r="J115" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>121</v>
-      </c>
-      <c r="B116" t="str">
-        <v>Investor 29</v>
-      </c>
-      <c r="C116" t="str">
-        <v>Partner 29</v>
-      </c>
-      <c r="D116" t="str">
-        <v>investor29@example.com</v>
-      </c>
-      <c r="E116" t="str">
-        <v>+919044015128</v>
-      </c>
-      <c r="F116" t="str">
-        <v>Private Equity</v>
-      </c>
-      <c r="G116" t="str">
-        <v>Series A</v>
-      </c>
-      <c r="H116" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I116" t="str">
-        <v>New York</v>
-      </c>
-      <c r="J116" t="str">
-        <v>Austin</v>
+        <v>123</v>
+      </c>
+      <c r="K116" t="str">
+        <v>ADASD</v>
+      </c>
+      <c r="L116" t="str">
+        <v>SDVDFV</v>
+      </c>
+      <c r="M116" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N116" t="str">
+        <v>08103700703</v>
+      </c>
+      <c r="O116" t="str">
+        <v>DVDFB</v>
+      </c>
+      <c r="P116" t="str">
+        <v>DVDF</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>India</v>
+      </c>
+      <c r="R116" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S116" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T116" t="str">
+        <v>30L</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>122</v>
-      </c>
-      <c r="B117" t="str">
-        <v>Investor 30</v>
-      </c>
-      <c r="C117" t="str">
-        <v>Partner 30</v>
-      </c>
-      <c r="D117" t="str">
-        <v>investor30@example.com</v>
-      </c>
-      <c r="E117" t="str">
-        <v>+919927955922</v>
-      </c>
-      <c r="F117" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G117" t="str">
-        <v>Mature</v>
-      </c>
-      <c r="H117" t="str">
+        <v>124</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Investor 3</v>
+      </c>
+      <c r="L117" t="str">
+        <v>Priyanshu Chouhan</v>
+      </c>
+      <c r="M117" t="str">
+        <v>priyanshubanna2525@gmail.com</v>
+      </c>
+      <c r="N117" t="str">
+        <v>8103700703</v>
+      </c>
+      <c r="O117" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="Q117" t="str">
         <v>India</v>
       </c>
-      <c r="I117" t="str">
-        <v>Quebec</v>
-      </c>
-      <c r="J117" t="str">
-        <v>Munich</v>
+      <c r="R117" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S117" t="str">
+        <v>Magriya</v>
+      </c>
+      <c r="T117" t="str">
+        <v>30K</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>123</v>
-      </c>
-      <c r="K118" t="str">
-        <v>ADASD</v>
-      </c>
-      <c r="L118" t="str">
-        <v>SDVDFV</v>
-      </c>
-      <c r="M118" t="str">
-        <v>priyanshubanna2525@gmail.com</v>
-      </c>
-      <c r="N118" t="str">
-        <v>08103700703</v>
-      </c>
-      <c r="O118" t="str">
-        <v>DVDFB</v>
-      </c>
-      <c r="P118" t="str">
-        <v>DVDF</v>
-      </c>
-      <c r="Q118" t="str">
-        <v>India</v>
-      </c>
-      <c r="R118" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S118" t="str">
-        <v>Khargone Nagar</v>
-      </c>
-      <c r="T118" t="str">
-        <v>30L</v>
+        <v>125</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Investor 1</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Partner 1</v>
+      </c>
+      <c r="D118" t="str">
+        <v>investor1@example.com</v>
+      </c>
+      <c r="E118" t="str">
+        <v>+919047724970</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Hedge Fund</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Growth</v>
+      </c>
+      <c r="H118" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Toronto</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>124</v>
-      </c>
-      <c r="K119" t="str">
-        <v>Investor 3</v>
-      </c>
-      <c r="L119" t="str">
-        <v>Priyanshu Chouhan</v>
-      </c>
-      <c r="M119" t="str">
-        <v>priyanshubanna2525@gmail.com</v>
-      </c>
-      <c r="N119" t="str">
-        <v>8103700703</v>
-      </c>
-      <c r="O119" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="Q119" t="str">
-        <v>India</v>
-      </c>
-      <c r="R119" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S119" t="str">
-        <v>Magriya</v>
-      </c>
-      <c r="T119" t="str">
-        <v>30K</v>
+        <v>126</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D119" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E119" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H119" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J119" t="str">
+        <v>London</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" t="str">
-        <v>Investor 1</v>
+        <v>Investor 3</v>
       </c>
       <c r="C120" t="str">
-        <v>Partner 1</v>
+        <v>Partner 3</v>
       </c>
       <c r="D120" t="str">
-        <v>investor1@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E120" t="str">
-        <v>+919047724970</v>
+        <v>+918322596794</v>
       </c>
       <c r="F120" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G120" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H120" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I120" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J120" t="str">
-        <v>Toronto</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B121" t="str">
-        <v>Investor 2</v>
+        <v>Investor 4</v>
       </c>
       <c r="C121" t="str">
-        <v>Partner 2</v>
+        <v>Partner 4</v>
       </c>
       <c r="D121" t="str">
-        <v>investor2@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E121" t="str">
-        <v>+917620691166</v>
+        <v>+919091013248</v>
       </c>
       <c r="F121" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G121" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H121" t="str">
         <v>Canada</v>
       </c>
       <c r="I121" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J121" t="str">
-        <v>London</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" t="str">
-        <v>Investor 3</v>
+        <v>Investor 5</v>
       </c>
       <c r="C122" t="str">
-        <v>Partner 3</v>
+        <v>Partner 5</v>
       </c>
       <c r="D122" t="str">
-        <v>investor3@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E122" t="str">
-        <v>+918322596794</v>
+        <v>+917687937169</v>
       </c>
       <c r="F122" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G122" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H122" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I122" t="str">
-        <v>California</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J122" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" t="str">
-        <v>Investor 4</v>
+        <v>Investor 6</v>
       </c>
       <c r="C123" t="str">
-        <v>Partner 4</v>
+        <v>Partner 6</v>
       </c>
       <c r="D123" t="str">
-        <v>investor4@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E123" t="str">
-        <v>+919091013248</v>
+        <v>+917922030026</v>
       </c>
       <c r="F123" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G123" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H123" t="str">
         <v>Canada</v>
       </c>
       <c r="I123" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J123" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" t="str">
-        <v>Investor 5</v>
+        <v>Investor 7</v>
       </c>
       <c r="C124" t="str">
-        <v>Partner 5</v>
+        <v>Partner 7</v>
       </c>
       <c r="D124" t="str">
-        <v>investor5@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E124" t="str">
-        <v>+917687937169</v>
+        <v>+917420830720</v>
       </c>
       <c r="F124" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G124" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H124" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I124" t="str">
-        <v>Maharashtra</v>
+        <v>California</v>
       </c>
       <c r="J124" t="str">
         <v>London</v>
@@ -4465,223 +4435,223 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" t="str">
-        <v>Investor 6</v>
+        <v>Investor 8</v>
       </c>
       <c r="C125" t="str">
-        <v>Partner 6</v>
+        <v>Partner 8</v>
       </c>
       <c r="D125" t="str">
-        <v>investor6@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E125" t="str">
-        <v>+917922030026</v>
+        <v>+919754829773</v>
       </c>
       <c r="F125" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G125" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H125" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I125" t="str">
         <v>Bavaria</v>
       </c>
       <c r="J125" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" t="str">
-        <v>Investor 7</v>
+        <v>Investor 9</v>
       </c>
       <c r="C126" t="str">
-        <v>Partner 7</v>
+        <v>Partner 9</v>
       </c>
       <c r="D126" t="str">
-        <v>investor7@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E126" t="str">
-        <v>+917420830720</v>
+        <v>+917917944002</v>
       </c>
       <c r="F126" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G126" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H126" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I126" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J126" t="str">
-        <v>London</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" t="str">
-        <v>Investor 8</v>
+        <v>Investor 10</v>
       </c>
       <c r="C127" t="str">
-        <v>Partner 8</v>
+        <v>Partner 10</v>
       </c>
       <c r="D127" t="str">
-        <v>investor8@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E127" t="str">
-        <v>+919754829773</v>
+        <v>+919541494666</v>
       </c>
       <c r="F127" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G127" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H127" t="str">
         <v>India</v>
       </c>
       <c r="I127" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J127" t="str">
-        <v>Montreal</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" t="str">
-        <v>Investor 9</v>
+        <v>Investor 11</v>
       </c>
       <c r="C128" t="str">
-        <v>Partner 9</v>
+        <v>Partner 11</v>
       </c>
       <c r="D128" t="str">
-        <v>investor9@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E128" t="str">
-        <v>+917917944002</v>
+        <v>+919709142438</v>
       </c>
       <c r="F128" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G128" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H128" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I128" t="str">
         <v>Karnataka</v>
       </c>
       <c r="J128" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" t="str">
-        <v>Investor 10</v>
+        <v>Investor 12</v>
       </c>
       <c r="C129" t="str">
-        <v>Partner 10</v>
+        <v>Partner 12</v>
       </c>
       <c r="D129" t="str">
-        <v>investor10@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E129" t="str">
-        <v>+919541494666</v>
+        <v>+919928494502</v>
       </c>
       <c r="F129" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G129" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H129" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I129" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="J129" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B130" t="str">
-        <v>Investor 11</v>
+        <v>Investor 13</v>
       </c>
       <c r="C130" t="str">
-        <v>Partner 11</v>
+        <v>Partner 13</v>
       </c>
       <c r="D130" t="str">
-        <v>investor11@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E130" t="str">
-        <v>+919709142438</v>
+        <v>+919840498515</v>
       </c>
       <c r="F130" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G130" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H130" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I130" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J130" t="str">
-        <v>San Francisco</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" t="str">
-        <v>Investor 12</v>
+        <v>Investor 14</v>
       </c>
       <c r="C131" t="str">
-        <v>Partner 12</v>
+        <v>Partner 14</v>
       </c>
       <c r="D131" t="str">
-        <v>investor12@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E131" t="str">
-        <v>+919928494502</v>
+        <v>+919668202693</v>
       </c>
       <c r="F131" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G131" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H131" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I131" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J131" t="str">
         <v>Munich</v>
@@ -4689,342 +4659,342 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" t="str">
-        <v>Investor 13</v>
+        <v>Investor 15</v>
       </c>
       <c r="C132" t="str">
-        <v>Partner 13</v>
+        <v>Partner 15</v>
       </c>
       <c r="D132" t="str">
-        <v>investor13@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E132" t="str">
-        <v>+919840498515</v>
+        <v>+917931611617</v>
       </c>
       <c r="F132" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G132" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H132" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I132" t="str">
-        <v>London</v>
+        <v>Karnataka</v>
       </c>
       <c r="J132" t="str">
-        <v>Montreal</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" t="str">
-        <v>Investor 14</v>
+        <v>Investor 16</v>
       </c>
       <c r="C133" t="str">
-        <v>Partner 14</v>
+        <v>Partner 16</v>
       </c>
       <c r="D133" t="str">
-        <v>investor14@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E133" t="str">
-        <v>+919668202693</v>
+        <v>+917005717560</v>
       </c>
       <c r="F133" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G133" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H133" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I133" t="str">
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="J133" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" t="str">
-        <v>Investor 15</v>
+        <v>Investor 17</v>
       </c>
       <c r="C134" t="str">
-        <v>Partner 15</v>
+        <v>Partner 17</v>
       </c>
       <c r="D134" t="str">
-        <v>investor15@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E134" t="str">
-        <v>+917931611617</v>
+        <v>+919471731806</v>
       </c>
       <c r="F134" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G134" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H134" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I134" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J134" t="str">
-        <v>Austin</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" t="str">
-        <v>Investor 16</v>
+        <v>Investor 18</v>
       </c>
       <c r="C135" t="str">
-        <v>Partner 16</v>
+        <v>Partner 18</v>
       </c>
       <c r="D135" t="str">
-        <v>investor16@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E135" t="str">
-        <v>+917005717560</v>
+        <v>+917415441156</v>
       </c>
       <c r="F135" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G135" t="str">
         <v>Seed</v>
       </c>
       <c r="H135" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I135" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J135" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" t="str">
-        <v>Investor 17</v>
+        <v>Investor 19</v>
       </c>
       <c r="C136" t="str">
-        <v>Partner 17</v>
+        <v>Partner 19</v>
       </c>
       <c r="D136" t="str">
-        <v>investor17@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E136" t="str">
-        <v>+919471731806</v>
+        <v>+919428216935</v>
       </c>
       <c r="F136" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G136" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H136" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I136" t="str">
-        <v>Quebec</v>
+        <v>Berlin</v>
       </c>
       <c r="J136" t="str">
-        <v>New York</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B137" t="str">
-        <v>Investor 18</v>
+        <v>Investor 20</v>
       </c>
       <c r="C137" t="str">
-        <v>Partner 18</v>
+        <v>Partner 20</v>
       </c>
       <c r="D137" t="str">
-        <v>investor18@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E137" t="str">
-        <v>+917415441156</v>
+        <v>+918769140108</v>
       </c>
       <c r="F137" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G137" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H137" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I137" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J137" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B138" t="str">
-        <v>Investor 19</v>
+        <v>Investor 21</v>
       </c>
       <c r="C138" t="str">
-        <v>Partner 19</v>
+        <v>Partner 21</v>
       </c>
       <c r="D138" t="str">
-        <v>investor19@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E138" t="str">
-        <v>+919428216935</v>
+        <v>+917535520288</v>
       </c>
       <c r="F138" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G138" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H138" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I138" t="str">
-        <v>Berlin</v>
+        <v>Karnataka</v>
       </c>
       <c r="J138" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" t="str">
-        <v>Investor 20</v>
+        <v>Investor 22</v>
       </c>
       <c r="C139" t="str">
-        <v>Partner 20</v>
+        <v>Partner 22</v>
       </c>
       <c r="D139" t="str">
-        <v>investor20@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E139" t="str">
-        <v>+918769140108</v>
+        <v>+919790702358</v>
       </c>
       <c r="F139" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G139" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H139" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I139" t="str">
-        <v>Quebec</v>
+        <v>New York</v>
       </c>
       <c r="J139" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" t="str">
-        <v>Investor 21</v>
+        <v>Investor 23</v>
       </c>
       <c r="C140" t="str">
-        <v>Partner 21</v>
+        <v>Partner 23</v>
       </c>
       <c r="D140" t="str">
-        <v>investor21@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E140" t="str">
-        <v>+917535520288</v>
+        <v>+918792543797</v>
       </c>
       <c r="F140" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G140" t="str">
         <v>Series A</v>
       </c>
       <c r="H140" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I140" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J140" t="str">
-        <v>San Francisco</v>
+        <v>London</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141" t="str">
-        <v>Investor 22</v>
+        <v>Investor 24</v>
       </c>
       <c r="C141" t="str">
-        <v>Partner 22</v>
+        <v>Partner 24</v>
       </c>
       <c r="D141" t="str">
-        <v>investor22@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E141" t="str">
-        <v>+919790702358</v>
+        <v>+919722499145</v>
       </c>
       <c r="F141" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G141" t="str">
-        <v>Series B</v>
+        <v>Growth</v>
       </c>
       <c r="H141" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I141" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J141" t="str">
-        <v>New York</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" t="str">
-        <v>Investor 23</v>
+        <v>Investor 25</v>
       </c>
       <c r="C142" t="str">
-        <v>Partner 23</v>
+        <v>Partner 25</v>
       </c>
       <c r="D142" t="str">
-        <v>investor23@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E142" t="str">
-        <v>+918792543797</v>
+        <v>+917513411451</v>
       </c>
       <c r="F142" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G142" t="str">
         <v>Series A</v>
@@ -5033,7 +5003,7 @@
         <v>Canada</v>
       </c>
       <c r="I142" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J142" t="str">
         <v>London</v>
@@ -5041,418 +5011,418 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" t="str">
-        <v>Investor 24</v>
+        <v>Investor 26</v>
       </c>
       <c r="C143" t="str">
-        <v>Partner 24</v>
+        <v>Partner 26</v>
       </c>
       <c r="D143" t="str">
-        <v>investor24@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E143" t="str">
-        <v>+919722499145</v>
+        <v>+918240603398</v>
       </c>
       <c r="F143" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G143" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H143" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I143" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J143" t="str">
-        <v>Austin</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144" t="str">
-        <v>Investor 25</v>
+        <v>Investor 27</v>
       </c>
       <c r="C144" t="str">
-        <v>Partner 25</v>
+        <v>Partner 27</v>
       </c>
       <c r="D144" t="str">
-        <v>investor25@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E144" t="str">
-        <v>+917513411451</v>
+        <v>+918169275812</v>
       </c>
       <c r="F144" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G144" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H144" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I144" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J144" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" t="str">
-        <v>Investor 26</v>
+        <v>Investor 28</v>
       </c>
       <c r="C145" t="str">
-        <v>Partner 26</v>
+        <v>Partner 28</v>
       </c>
       <c r="D145" t="str">
-        <v>investor26@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E145" t="str">
-        <v>+918240603398</v>
+        <v>+917995480118</v>
       </c>
       <c r="F145" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G145" t="str">
         <v>Series A</v>
       </c>
       <c r="H145" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I145" t="str">
-        <v>Karnataka</v>
+        <v>Ontario</v>
       </c>
       <c r="J145" t="str">
-        <v>Bangalore</v>
+        <v>London</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B146" t="str">
-        <v>Investor 27</v>
+        <v>Investor 29</v>
       </c>
       <c r="C146" t="str">
-        <v>Partner 27</v>
+        <v>Partner 29</v>
       </c>
       <c r="D146" t="str">
-        <v>investor27@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E146" t="str">
-        <v>+918169275812</v>
+        <v>+919044015128</v>
       </c>
       <c r="F146" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G146" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H146" t="str">
-        <v>UK</v>
+        <v>Canada</v>
       </c>
       <c r="I146" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J146" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B147" t="str">
-        <v>Investor 28</v>
+        <v>Investor 30</v>
       </c>
       <c r="C147" t="str">
-        <v>Partner 28</v>
+        <v>Partner 30</v>
       </c>
       <c r="D147" t="str">
-        <v>investor28@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E147" t="str">
-        <v>+917995480118</v>
+        <v>+919927955922</v>
       </c>
       <c r="F147" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G147" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H147" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I147" t="str">
-        <v>Ontario</v>
+        <v>Quebec</v>
       </c>
       <c r="J147" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>153</v>
-      </c>
-      <c r="B148" t="str">
-        <v>Investor 29</v>
-      </c>
-      <c r="C148" t="str">
-        <v>Partner 29</v>
-      </c>
-      <c r="D148" t="str">
-        <v>investor29@example.com</v>
-      </c>
-      <c r="E148" t="str">
-        <v>+919044015128</v>
-      </c>
-      <c r="F148" t="str">
-        <v>Private Equity</v>
-      </c>
-      <c r="G148" t="str">
-        <v>Series A</v>
-      </c>
-      <c r="H148" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I148" t="str">
-        <v>New York</v>
-      </c>
-      <c r="J148" t="str">
-        <v>Austin</v>
+        <v>155</v>
+      </c>
+      <c r="K148" t="str">
+        <v>Priyanshi</v>
+      </c>
+      <c r="L148" t="str">
+        <v xml:space="preserve">Priya </v>
+      </c>
+      <c r="M148" t="str">
+        <v>priya@gmail.com</v>
+      </c>
+      <c r="N148" t="str">
+        <v>12356789</v>
+      </c>
+      <c r="O148" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="P148" t="str">
+        <v>Series C</v>
+      </c>
+      <c r="Q148" t="str">
+        <v>India</v>
+      </c>
+      <c r="R148" t="str">
+        <v>Madhya Pradesh</v>
+      </c>
+      <c r="S148" t="str">
+        <v>Khargone Nagar</v>
+      </c>
+      <c r="T148" t="str">
+        <v>30K</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B149" t="str">
-        <v>Investor 30</v>
+        <v>Investor 1</v>
       </c>
       <c r="C149" t="str">
-        <v>Partner 30</v>
+        <v>Partner 1</v>
       </c>
       <c r="D149" t="str">
-        <v>investor30@example.com</v>
+        <v>investor1@example.com</v>
       </c>
       <c r="E149" t="str">
-        <v>+919927955922</v>
+        <v>+919047724970</v>
       </c>
       <c r="F149" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G149" t="str">
-        <v>Mature</v>
+        <v>Growth</v>
       </c>
       <c r="H149" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I149" t="str">
-        <v>Quebec</v>
+        <v>Texas</v>
       </c>
       <c r="J149" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>155</v>
-      </c>
-      <c r="K150" t="str">
-        <v>Priyanshi</v>
-      </c>
-      <c r="L150" t="str">
-        <v xml:space="preserve">Priya </v>
-      </c>
-      <c r="M150" t="str">
-        <v>priya@gmail.com</v>
-      </c>
-      <c r="N150" t="str">
-        <v>12356789</v>
-      </c>
-      <c r="O150" t="str">
-        <v>XYZ</v>
-      </c>
-      <c r="P150" t="str">
-        <v>Series C</v>
-      </c>
-      <c r="Q150" t="str">
-        <v>India</v>
-      </c>
-      <c r="R150" t="str">
-        <v>Madhya Pradesh</v>
-      </c>
-      <c r="S150" t="str">
-        <v>Khargone Nagar</v>
-      </c>
-      <c r="T150" t="str">
-        <v>30K</v>
+        <v>157</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Investor 2</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Partner 2</v>
+      </c>
+      <c r="D150" t="str">
+        <v>investor2@example.com</v>
+      </c>
+      <c r="E150" t="str">
+        <v>+917620691166</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Angel Fund</v>
+      </c>
+      <c r="G150" t="str">
+        <v>Seed</v>
+      </c>
+      <c r="H150" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="I150" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="J150" t="str">
+        <v>London</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" t="str">
-        <v>Investor 1</v>
+        <v>Investor 3</v>
       </c>
       <c r="C151" t="str">
-        <v>Partner 1</v>
+        <v>Partner 3</v>
       </c>
       <c r="D151" t="str">
-        <v>investor1@example.com</v>
+        <v>investor3@example.com</v>
       </c>
       <c r="E151" t="str">
-        <v>+919047724970</v>
+        <v>+918322596794</v>
       </c>
       <c r="F151" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G151" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H151" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I151" t="str">
-        <v>Texas</v>
+        <v>California</v>
       </c>
       <c r="J151" t="str">
-        <v>Toronto</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" t="str">
-        <v>Investor 2</v>
+        <v>Investor 4</v>
       </c>
       <c r="C152" t="str">
-        <v>Partner 2</v>
+        <v>Partner 4</v>
       </c>
       <c r="D152" t="str">
-        <v>investor2@example.com</v>
+        <v>investor4@example.com</v>
       </c>
       <c r="E152" t="str">
-        <v>+917620691166</v>
+        <v>+919091013248</v>
       </c>
       <c r="F152" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G152" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H152" t="str">
         <v>Canada</v>
       </c>
       <c r="I152" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J152" t="str">
-        <v>London</v>
+        <v>Berlin</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153" t="str">
-        <v>Investor 3</v>
+        <v>Investor 5</v>
       </c>
       <c r="C153" t="str">
-        <v>Partner 3</v>
+        <v>Partner 5</v>
       </c>
       <c r="D153" t="str">
-        <v>investor3@example.com</v>
+        <v>investor5@example.com</v>
       </c>
       <c r="E153" t="str">
-        <v>+918322596794</v>
+        <v>+917687937169</v>
       </c>
       <c r="F153" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G153" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H153" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I153" t="str">
-        <v>California</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J153" t="str">
-        <v>Munich</v>
+        <v>London</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B154" t="str">
-        <v>Investor 4</v>
+        <v>Investor 6</v>
       </c>
       <c r="C154" t="str">
-        <v>Partner 4</v>
+        <v>Partner 6</v>
       </c>
       <c r="D154" t="str">
-        <v>investor4@example.com</v>
+        <v>investor6@example.com</v>
       </c>
       <c r="E154" t="str">
-        <v>+919091013248</v>
+        <v>+917922030026</v>
       </c>
       <c r="F154" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G154" t="str">
-        <v>Series B</v>
+        <v>Seed</v>
       </c>
       <c r="H154" t="str">
         <v>Canada</v>
       </c>
       <c r="I154" t="str">
-        <v>Karnataka</v>
+        <v>Bavaria</v>
       </c>
       <c r="J154" t="str">
-        <v>Berlin</v>
+        <v>London</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B155" t="str">
-        <v>Investor 5</v>
+        <v>Investor 7</v>
       </c>
       <c r="C155" t="str">
-        <v>Partner 5</v>
+        <v>Partner 7</v>
       </c>
       <c r="D155" t="str">
-        <v>investor5@example.com</v>
+        <v>investor7@example.com</v>
       </c>
       <c r="E155" t="str">
-        <v>+917687937169</v>
+        <v>+917420830720</v>
       </c>
       <c r="F155" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G155" t="str">
-        <v>Seed</v>
+        <v>Series B</v>
       </c>
       <c r="H155" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I155" t="str">
-        <v>Maharashtra</v>
+        <v>California</v>
       </c>
       <c r="J155" t="str">
         <v>London</v>
@@ -5460,223 +5430,223 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B156" t="str">
-        <v>Investor 6</v>
+        <v>Investor 8</v>
       </c>
       <c r="C156" t="str">
-        <v>Partner 6</v>
+        <v>Partner 8</v>
       </c>
       <c r="D156" t="str">
-        <v>investor6@example.com</v>
+        <v>investor8@example.com</v>
       </c>
       <c r="E156" t="str">
-        <v>+917922030026</v>
+        <v>+919754829773</v>
       </c>
       <c r="F156" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G156" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H156" t="str">
-        <v>Canada</v>
+        <v>India</v>
       </c>
       <c r="I156" t="str">
         <v>Bavaria</v>
       </c>
       <c r="J156" t="str">
-        <v>London</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B157" t="str">
-        <v>Investor 7</v>
+        <v>Investor 9</v>
       </c>
       <c r="C157" t="str">
-        <v>Partner 7</v>
+        <v>Partner 9</v>
       </c>
       <c r="D157" t="str">
-        <v>investor7@example.com</v>
+        <v>investor9@example.com</v>
       </c>
       <c r="E157" t="str">
-        <v>+917420830720</v>
+        <v>+917917944002</v>
       </c>
       <c r="F157" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G157" t="str">
-        <v>Series B</v>
+        <v>Series A</v>
       </c>
       <c r="H157" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I157" t="str">
-        <v>California</v>
+        <v>Karnataka</v>
       </c>
       <c r="J157" t="str">
-        <v>London</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B158" t="str">
-        <v>Investor 8</v>
+        <v>Investor 10</v>
       </c>
       <c r="C158" t="str">
-        <v>Partner 8</v>
+        <v>Partner 10</v>
       </c>
       <c r="D158" t="str">
-        <v>investor8@example.com</v>
+        <v>investor10@example.com</v>
       </c>
       <c r="E158" t="str">
-        <v>+919754829773</v>
+        <v>+919541494666</v>
       </c>
       <c r="F158" t="str">
-        <v>Hedge Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G158" t="str">
-        <v>Mature</v>
+        <v>Series A</v>
       </c>
       <c r="H158" t="str">
         <v>India</v>
       </c>
       <c r="I158" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J158" t="str">
-        <v>Montreal</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B159" t="str">
-        <v>Investor 9</v>
+        <v>Investor 11</v>
       </c>
       <c r="C159" t="str">
-        <v>Partner 9</v>
+        <v>Partner 11</v>
       </c>
       <c r="D159" t="str">
-        <v>investor9@example.com</v>
+        <v>investor11@example.com</v>
       </c>
       <c r="E159" t="str">
-        <v>+917917944002</v>
+        <v>+919709142438</v>
       </c>
       <c r="F159" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G159" t="str">
-        <v>Series A</v>
+        <v>Series B</v>
       </c>
       <c r="H159" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I159" t="str">
         <v>Karnataka</v>
       </c>
       <c r="J159" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B160" t="str">
-        <v>Investor 10</v>
+        <v>Investor 12</v>
       </c>
       <c r="C160" t="str">
-        <v>Partner 10</v>
+        <v>Partner 12</v>
       </c>
       <c r="D160" t="str">
-        <v>investor10@example.com</v>
+        <v>investor12@example.com</v>
       </c>
       <c r="E160" t="str">
-        <v>+919541494666</v>
+        <v>+919928494502</v>
       </c>
       <c r="F160" t="str">
-        <v>Venture Capital</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G160" t="str">
-        <v>Series A</v>
+        <v>Seed</v>
       </c>
       <c r="H160" t="str">
-        <v>India</v>
+        <v>Germany</v>
       </c>
       <c r="I160" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="J160" t="str">
-        <v>Bangalore</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B161" t="str">
-        <v>Investor 11</v>
+        <v>Investor 13</v>
       </c>
       <c r="C161" t="str">
-        <v>Partner 11</v>
+        <v>Partner 13</v>
       </c>
       <c r="D161" t="str">
-        <v>investor11@example.com</v>
+        <v>investor13@example.com</v>
       </c>
       <c r="E161" t="str">
-        <v>+919709142438</v>
+        <v>+919840498515</v>
       </c>
       <c r="F161" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G161" t="str">
-        <v>Series B</v>
+        <v>Mature</v>
       </c>
       <c r="H161" t="str">
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="I161" t="str">
-        <v>Karnataka</v>
+        <v>London</v>
       </c>
       <c r="J161" t="str">
-        <v>San Francisco</v>
+        <v>Montreal</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B162" t="str">
-        <v>Investor 12</v>
+        <v>Investor 14</v>
       </c>
       <c r="C162" t="str">
-        <v>Partner 12</v>
+        <v>Partner 14</v>
       </c>
       <c r="D162" t="str">
-        <v>investor12@example.com</v>
+        <v>investor14@example.com</v>
       </c>
       <c r="E162" t="str">
-        <v>+919928494502</v>
+        <v>+919668202693</v>
       </c>
       <c r="F162" t="str">
         <v>Hedge Fund</v>
       </c>
       <c r="G162" t="str">
-        <v>Seed</v>
+        <v>Mature</v>
       </c>
       <c r="H162" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I162" t="str">
-        <v>London</v>
+        <v>California</v>
       </c>
       <c r="J162" t="str">
         <v>Munich</v>
@@ -5684,342 +5654,342 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B163" t="str">
-        <v>Investor 13</v>
+        <v>Investor 15</v>
       </c>
       <c r="C163" t="str">
-        <v>Partner 13</v>
+        <v>Partner 15</v>
       </c>
       <c r="D163" t="str">
-        <v>investor13@example.com</v>
+        <v>investor15@example.com</v>
       </c>
       <c r="E163" t="str">
-        <v>+919840498515</v>
+        <v>+917931611617</v>
       </c>
       <c r="F163" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G163" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H163" t="str">
-        <v>UK</v>
+        <v>India</v>
       </c>
       <c r="I163" t="str">
-        <v>London</v>
+        <v>Karnataka</v>
       </c>
       <c r="J163" t="str">
-        <v>Montreal</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B164" t="str">
-        <v>Investor 14</v>
+        <v>Investor 16</v>
       </c>
       <c r="C164" t="str">
-        <v>Partner 14</v>
+        <v>Partner 16</v>
       </c>
       <c r="D164" t="str">
-        <v>investor14@example.com</v>
+        <v>investor16@example.com</v>
       </c>
       <c r="E164" t="str">
-        <v>+919668202693</v>
+        <v>+917005717560</v>
       </c>
       <c r="F164" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G164" t="str">
-        <v>Mature</v>
+        <v>Seed</v>
       </c>
       <c r="H164" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I164" t="str">
-        <v>California</v>
+        <v>Texas</v>
       </c>
       <c r="J164" t="str">
-        <v>Munich</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B165" t="str">
-        <v>Investor 15</v>
+        <v>Investor 17</v>
       </c>
       <c r="C165" t="str">
-        <v>Partner 15</v>
+        <v>Partner 17</v>
       </c>
       <c r="D165" t="str">
-        <v>investor15@example.com</v>
+        <v>investor17@example.com</v>
       </c>
       <c r="E165" t="str">
-        <v>+917931611617</v>
+        <v>+919471731806</v>
       </c>
       <c r="F165" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G165" t="str">
-        <v>Seed</v>
+        <v>Series A</v>
       </c>
       <c r="H165" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I165" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J165" t="str">
-        <v>Austin</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B166" t="str">
-        <v>Investor 16</v>
+        <v>Investor 18</v>
       </c>
       <c r="C166" t="str">
-        <v>Partner 16</v>
+        <v>Partner 18</v>
       </c>
       <c r="D166" t="str">
-        <v>investor16@example.com</v>
+        <v>investor18@example.com</v>
       </c>
       <c r="E166" t="str">
-        <v>+917005717560</v>
+        <v>+917415441156</v>
       </c>
       <c r="F166" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G166" t="str">
         <v>Seed</v>
       </c>
       <c r="H166" t="str">
-        <v>India</v>
+        <v>UK</v>
       </c>
       <c r="I166" t="str">
-        <v>Texas</v>
+        <v>Karnataka</v>
       </c>
       <c r="J166" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B167" t="str">
-        <v>Investor 17</v>
+        <v>Investor 19</v>
       </c>
       <c r="C167" t="str">
-        <v>Partner 17</v>
+        <v>Partner 19</v>
       </c>
       <c r="D167" t="str">
-        <v>investor17@example.com</v>
+        <v>investor19@example.com</v>
       </c>
       <c r="E167" t="str">
-        <v>+919471731806</v>
+        <v>+919428216935</v>
       </c>
       <c r="F167" t="str">
         <v>Private Equity</v>
       </c>
       <c r="G167" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H167" t="str">
-        <v>USA</v>
+        <v>Germany</v>
       </c>
       <c r="I167" t="str">
-        <v>Quebec</v>
+        <v>Berlin</v>
       </c>
       <c r="J167" t="str">
-        <v>New York</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B168" t="str">
-        <v>Investor 18</v>
+        <v>Investor 20</v>
       </c>
       <c r="C168" t="str">
-        <v>Partner 18</v>
+        <v>Partner 20</v>
       </c>
       <c r="D168" t="str">
-        <v>investor18@example.com</v>
+        <v>investor20@example.com</v>
       </c>
       <c r="E168" t="str">
-        <v>+917415441156</v>
+        <v>+918769140108</v>
       </c>
       <c r="F168" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G168" t="str">
-        <v>Seed</v>
+        <v>Growth</v>
       </c>
       <c r="H168" t="str">
-        <v>UK</v>
+        <v>Germany</v>
       </c>
       <c r="I168" t="str">
-        <v>Karnataka</v>
+        <v>Quebec</v>
       </c>
       <c r="J168" t="str">
-        <v>San Francisco</v>
+        <v>Toronto</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B169" t="str">
-        <v>Investor 19</v>
+        <v>Investor 21</v>
       </c>
       <c r="C169" t="str">
-        <v>Partner 19</v>
+        <v>Partner 21</v>
       </c>
       <c r="D169" t="str">
-        <v>investor19@example.com</v>
+        <v>investor21@example.com</v>
       </c>
       <c r="E169" t="str">
-        <v>+919428216935</v>
+        <v>+917535520288</v>
       </c>
       <c r="F169" t="str">
-        <v>Private Equity</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G169" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H169" t="str">
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="I169" t="str">
-        <v>Berlin</v>
+        <v>Karnataka</v>
       </c>
       <c r="J169" t="str">
-        <v>Toronto</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B170" t="str">
-        <v>Investor 20</v>
+        <v>Investor 22</v>
       </c>
       <c r="C170" t="str">
-        <v>Partner 20</v>
+        <v>Partner 22</v>
       </c>
       <c r="D170" t="str">
-        <v>investor20@example.com</v>
+        <v>investor22@example.com</v>
       </c>
       <c r="E170" t="str">
-        <v>+918769140108</v>
+        <v>+919790702358</v>
       </c>
       <c r="F170" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G170" t="str">
-        <v>Growth</v>
+        <v>Series B</v>
       </c>
       <c r="H170" t="str">
-        <v>Germany</v>
+        <v>India</v>
       </c>
       <c r="I170" t="str">
-        <v>Quebec</v>
+        <v>New York</v>
       </c>
       <c r="J170" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B171" t="str">
-        <v>Investor 21</v>
+        <v>Investor 23</v>
       </c>
       <c r="C171" t="str">
-        <v>Partner 21</v>
+        <v>Partner 23</v>
       </c>
       <c r="D171" t="str">
-        <v>investor21@example.com</v>
+        <v>investor23@example.com</v>
       </c>
       <c r="E171" t="str">
-        <v>+917535520288</v>
+        <v>+918792543797</v>
       </c>
       <c r="F171" t="str">
-        <v>Angel Fund</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G171" t="str">
         <v>Series A</v>
       </c>
       <c r="H171" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I171" t="str">
-        <v>Karnataka</v>
+        <v>Texas</v>
       </c>
       <c r="J171" t="str">
-        <v>San Francisco</v>
+        <v>London</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B172" t="str">
-        <v>Investor 22</v>
+        <v>Investor 24</v>
       </c>
       <c r="C172" t="str">
-        <v>Partner 22</v>
+        <v>Partner 24</v>
       </c>
       <c r="D172" t="str">
-        <v>investor22@example.com</v>
+        <v>investor24@example.com</v>
       </c>
       <c r="E172" t="str">
-        <v>+919790702358</v>
+        <v>+919722499145</v>
       </c>
       <c r="F172" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G172" t="str">
-        <v>Series B</v>
+        <v>Growth</v>
       </c>
       <c r="H172" t="str">
-        <v>India</v>
+        <v>USA</v>
       </c>
       <c r="I172" t="str">
-        <v>New York</v>
+        <v>Quebec</v>
       </c>
       <c r="J172" t="str">
-        <v>New York</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B173" t="str">
-        <v>Investor 23</v>
+        <v>Investor 25</v>
       </c>
       <c r="C173" t="str">
-        <v>Partner 23</v>
+        <v>Partner 25</v>
       </c>
       <c r="D173" t="str">
-        <v>investor23@example.com</v>
+        <v>investor25@example.com</v>
       </c>
       <c r="E173" t="str">
-        <v>+918792543797</v>
+        <v>+917513411451</v>
       </c>
       <c r="F173" t="str">
-        <v>Hedge Fund</v>
+        <v>Angel Fund</v>
       </c>
       <c r="G173" t="str">
         <v>Series A</v>
@@ -6028,7 +5998,7 @@
         <v>Canada</v>
       </c>
       <c r="I173" t="str">
-        <v>Texas</v>
+        <v>Maharashtra</v>
       </c>
       <c r="J173" t="str">
         <v>London</v>
@@ -6036,246 +6006,252 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B174" t="str">
-        <v>Investor 24</v>
+        <v>Investor 26</v>
       </c>
       <c r="C174" t="str">
-        <v>Partner 24</v>
+        <v>Partner 26</v>
       </c>
       <c r="D174" t="str">
-        <v>investor24@example.com</v>
+        <v>investor26@example.com</v>
       </c>
       <c r="E174" t="str">
-        <v>+919722499145</v>
+        <v>+918240603398</v>
       </c>
       <c r="F174" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G174" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H174" t="str">
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="I174" t="str">
-        <v>Quebec</v>
+        <v>Karnataka</v>
       </c>
       <c r="J174" t="str">
-        <v>Austin</v>
+        <v>Bangalore</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B175" t="str">
-        <v>Investor 25</v>
+        <v>Investor 27</v>
       </c>
       <c r="C175" t="str">
-        <v>Partner 25</v>
+        <v>Partner 27</v>
       </c>
       <c r="D175" t="str">
-        <v>investor25@example.com</v>
+        <v>investor27@example.com</v>
       </c>
       <c r="E175" t="str">
-        <v>+917513411451</v>
+        <v>+918169275812</v>
       </c>
       <c r="F175" t="str">
-        <v>Angel Fund</v>
+        <v>Venture Capital</v>
       </c>
       <c r="G175" t="str">
-        <v>Series A</v>
+        <v>Growth</v>
       </c>
       <c r="H175" t="str">
-        <v>Canada</v>
+        <v>UK</v>
       </c>
       <c r="I175" t="str">
-        <v>Maharashtra</v>
+        <v>Bavaria</v>
       </c>
       <c r="J175" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B176" t="str">
-        <v>Investor 26</v>
+        <v>Investor 28</v>
       </c>
       <c r="C176" t="str">
-        <v>Partner 26</v>
+        <v>Partner 28</v>
       </c>
       <c r="D176" t="str">
-        <v>investor26@example.com</v>
+        <v>investor28@example.com</v>
       </c>
       <c r="E176" t="str">
-        <v>+918240603398</v>
+        <v>+917995480118</v>
       </c>
       <c r="F176" t="str">
-        <v>Hedge Fund</v>
+        <v>Private Equity</v>
       </c>
       <c r="G176" t="str">
         <v>Series A</v>
       </c>
       <c r="H176" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="I176" t="str">
-        <v>Karnataka</v>
+        <v>Ontario</v>
       </c>
       <c r="J176" t="str">
-        <v>Bangalore</v>
+        <v>London</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B177" t="str">
-        <v>Investor 27</v>
+        <v>Investor 29</v>
       </c>
       <c r="C177" t="str">
-        <v>Partner 27</v>
+        <v>Partner 29</v>
       </c>
       <c r="D177" t="str">
-        <v>investor27@example.com</v>
+        <v>investor29@example.com</v>
       </c>
       <c r="E177" t="str">
-        <v>+918169275812</v>
+        <v>+919044015128</v>
       </c>
       <c r="F177" t="str">
-        <v>Venture Capital</v>
+        <v>Private Equity</v>
       </c>
       <c r="G177" t="str">
-        <v>Growth</v>
+        <v>Series A</v>
       </c>
       <c r="H177" t="str">
-        <v>UK</v>
+        <v>Canada</v>
       </c>
       <c r="I177" t="str">
-        <v>Bavaria</v>
+        <v>New York</v>
       </c>
       <c r="J177" t="str">
-        <v>Munich</v>
+        <v>Austin</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B178" t="str">
-        <v>Investor 28</v>
+        <v>Investor 30</v>
       </c>
       <c r="C178" t="str">
-        <v>Partner 28</v>
+        <v>Partner 30</v>
       </c>
       <c r="D178" t="str">
-        <v>investor28@example.com</v>
+        <v>investor30@example.com</v>
       </c>
       <c r="E178" t="str">
-        <v>+917995480118</v>
+        <v>+919927955922</v>
       </c>
       <c r="F178" t="str">
-        <v>Private Equity</v>
+        <v>Hedge Fund</v>
       </c>
       <c r="G178" t="str">
-        <v>Series A</v>
+        <v>Mature</v>
       </c>
       <c r="H178" t="str">
-        <v>USA</v>
+        <v>India</v>
       </c>
       <c r="I178" t="str">
-        <v>Ontario</v>
+        <v>Quebec</v>
       </c>
       <c r="J178" t="str">
-        <v>London</v>
+        <v>Munich</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>184</v>
-      </c>
-      <c r="B179" t="str">
-        <v>Investor 29</v>
-      </c>
-      <c r="C179" t="str">
-        <v>Partner 29</v>
-      </c>
-      <c r="D179" t="str">
-        <v>investor29@example.com</v>
-      </c>
-      <c r="E179" t="str">
-        <v>+919044015128</v>
-      </c>
-      <c r="F179" t="str">
-        <v>Private Equity</v>
-      </c>
-      <c r="G179" t="str">
-        <v>Series A</v>
+        <v>186</v>
       </c>
       <c r="H179" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="I179" t="str">
-        <v>New York</v>
-      </c>
-      <c r="J179" t="str">
-        <v>Austin</v>
+        <v>India</v>
+      </c>
+      <c r="U179" t="str">
+        <v>Sequoia Capital India</v>
+      </c>
+      <c r="V179" t="str">
+        <v>Shailendra Singh</v>
+      </c>
+      <c r="W179" t="str">
+        <v>shailendra@sequoiacap.com</v>
+      </c>
+      <c r="X179" t="str">
+        <v>+91-9876543210</v>
+      </c>
+      <c r="Y179" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z179" t="str">
+        <v>Seed, Series A, Series B</v>
+      </c>
+      <c r="AA179" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="AB179" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="AC179" t="str">
+        <v>USD 500K - 20M</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>185</v>
-      </c>
-      <c r="B180" t="str">
-        <v>Investor 30</v>
-      </c>
-      <c r="C180" t="str">
-        <v>Partner 30</v>
-      </c>
-      <c r="D180" t="str">
-        <v>investor30@example.com</v>
-      </c>
-      <c r="E180" t="str">
-        <v>+919927955922</v>
-      </c>
-      <c r="F180" t="str">
-        <v>Hedge Fund</v>
-      </c>
-      <c r="G180" t="str">
-        <v>Mature</v>
+        <v>187</v>
       </c>
       <c r="H180" t="str">
         <v>India</v>
       </c>
-      <c r="I180" t="str">
-        <v>Quebec</v>
-      </c>
-      <c r="J180" t="str">
-        <v>Munich</v>
+      <c r="U180" t="str">
+        <v>Accel Partners</v>
+      </c>
+      <c r="V180" t="str">
+        <v>Prashanth Prakash</v>
+      </c>
+      <c r="W180" t="str">
+        <v>prashanth@accel.com</v>
+      </c>
+      <c r="X180" t="str">
+        <v>+91-9988776655</v>
+      </c>
+      <c r="Y180" t="str">
+        <v>Venture Capital</v>
+      </c>
+      <c r="Z180" t="str">
+        <v>Seed, Early Stage</v>
+      </c>
+      <c r="AA180" t="str">
+        <v>Karnataka</v>
+      </c>
+      <c r="AB180" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="AC180" t="str">
+        <v>USD 300K - 15M</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H181" t="str">
         <v>India</v>
       </c>
       <c r="U181" t="str">
-        <v>Sequoia Capital India</v>
+        <v>Lightspeed India Partners</v>
       </c>
       <c r="V181" t="str">
-        <v>Shailendra Singh</v>
+        <v>Dev Khare</v>
       </c>
       <c r="W181" t="str">
-        <v>shailendra@sequoiacap.com</v>
+        <v>dev@lsvp.com</v>
       </c>
       <c r="X181" t="str">
-        <v>+91-9876543210</v>
+        <v>+91-9123456780</v>
       </c>
       <c r="Y181" t="str">
         <v>Venture Capital</v>
@@ -6284,33 +6260,33 @@
         <v>Seed, Series A, Series B</v>
       </c>
       <c r="AA181" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="AB181" t="str">
-        <v>Bengaluru</v>
+        <v>Mumbai</v>
       </c>
       <c r="AC181" t="str">
-        <v>USD 500K - 20M</v>
+        <v>USD 500K - 25M</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H182" t="str">
         <v>India</v>
       </c>
       <c r="U182" t="str">
-        <v>Accel Partners</v>
+        <v>Matrix Partners India</v>
       </c>
       <c r="V182" t="str">
-        <v>Prashanth Prakash</v>
+        <v>Avnish Bajaj</v>
       </c>
       <c r="W182" t="str">
-        <v>prashanth@accel.com</v>
+        <v>avnish@matrixpartners.in</v>
       </c>
       <c r="X182" t="str">
-        <v>+91-9988776655</v>
+        <v>+91-9765432109</v>
       </c>
       <c r="Y182" t="str">
         <v>Venture Capital</v>
@@ -6319,123 +6295,53 @@
         <v>Seed, Early Stage</v>
       </c>
       <c r="AA182" t="str">
-        <v>Karnataka</v>
+        <v>Maharashtra</v>
       </c>
       <c r="AB182" t="str">
-        <v>Bengaluru</v>
+        <v>Mumbai</v>
       </c>
       <c r="AC182" t="str">
-        <v>USD 300K - 15M</v>
+        <v>USD 200K - 10M</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H183" t="str">
         <v>India</v>
       </c>
       <c r="U183" t="str">
-        <v>Lightspeed India Partners</v>
+        <v>Kalaari Capital</v>
       </c>
       <c r="V183" t="str">
-        <v>Dev Khare</v>
+        <v>Vani Kola</v>
       </c>
       <c r="W183" t="str">
-        <v>dev@lsvp.com</v>
+        <v>vani@kalaari.com</v>
       </c>
       <c r="X183" t="str">
-        <v>+91-9123456780</v>
+        <v>+91-9012345678</v>
       </c>
       <c r="Y183" t="str">
         <v>Venture Capital</v>
       </c>
       <c r="Z183" t="str">
-        <v>Seed, Series A, Series B</v>
+        <v>Seed, Early Stage, Growth</v>
       </c>
       <c r="AA183" t="str">
-        <v>Maharashtra</v>
+        <v>Karnataka</v>
       </c>
       <c r="AB183" t="str">
-        <v>Mumbai</v>
+        <v>Bengaluru</v>
       </c>
       <c r="AC183" t="str">
-        <v>USD 500K - 25M</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184">
-        <v>189</v>
-      </c>
-      <c r="H184" t="str">
-        <v>India</v>
-      </c>
-      <c r="U184" t="str">
-        <v>Matrix Partners India</v>
-      </c>
-      <c r="V184" t="str">
-        <v>Avnish Bajaj</v>
-      </c>
-      <c r="W184" t="str">
-        <v>avnish@matrixpartners.in</v>
-      </c>
-      <c r="X184" t="str">
-        <v>+91-9765432109</v>
-      </c>
-      <c r="Y184" t="str">
-        <v>Venture Capital</v>
-      </c>
-      <c r="Z184" t="str">
-        <v>Seed, Early Stage</v>
-      </c>
-      <c r="AA184" t="str">
-        <v>Maharashtra</v>
-      </c>
-      <c r="AB184" t="str">
-        <v>Mumbai</v>
-      </c>
-      <c r="AC184" t="str">
-        <v>USD 200K - 10M</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185">
-        <v>190</v>
-      </c>
-      <c r="H185" t="str">
-        <v>India</v>
-      </c>
-      <c r="U185" t="str">
-        <v>Kalaari Capital</v>
-      </c>
-      <c r="V185" t="str">
-        <v>Vani Kola</v>
-      </c>
-      <c r="W185" t="str">
-        <v>vani@kalaari.com</v>
-      </c>
-      <c r="X185" t="str">
-        <v>+91-9012345678</v>
-      </c>
-      <c r="Y185" t="str">
-        <v>Venture Capital</v>
-      </c>
-      <c r="Z185" t="str">
-        <v>Seed, Early Stage, Growth</v>
-      </c>
-      <c r="AA185" t="str">
-        <v>Karnataka</v>
-      </c>
-      <c r="AB185" t="str">
-        <v>Bengaluru</v>
-      </c>
-      <c r="AC185" t="str">
         <v>USD 250K - 12M</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC185"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC183"/>
   </ignoredErrors>
 </worksheet>
 </file>